--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK273"/>
+  <dimension ref="A1:BK274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT12" t="n">
         <v>0.65</v>
@@ -3339,7 +3339,7 @@
         <v>1.59</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT29" t="n">
         <v>0.53</v>
@@ -6790,7 +6790,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT50" t="n">
         <v>1.11</v>
@@ -13083,7 +13083,7 @@
         <v>1.38</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU62" t="n">
         <v>1.44</v>
@@ -13283,7 +13283,7 @@
         <v>0.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT63" t="n">
         <v>0.59</v>
@@ -15722,7 +15722,7 @@
         <v>2.11</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU75" t="n">
         <v>1.88</v>
@@ -16937,7 +16937,7 @@
         <v>1.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT81" t="n">
         <v>1</v>
@@ -19782,7 +19782,7 @@
         <v>1.12</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU95" t="n">
         <v>1.61</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT98" t="n">
         <v>1.59</v>
@@ -23639,7 +23639,7 @@
         <v>1.29</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU114" t="n">
         <v>1.58</v>
@@ -24245,7 +24245,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT117" t="n">
         <v>1.88</v>
@@ -25057,10 +25057,10 @@
         <v>1.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU121" t="n">
         <v>1.9</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT134" t="n">
         <v>1.13</v>
@@ -28105,7 +28105,7 @@
         <v>2.13</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU136" t="n">
         <v>2</v>
@@ -29323,7 +29323,7 @@
         <v>1.06</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU142" t="n">
         <v>1.67</v>
@@ -31553,7 +31553,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT153" t="n">
         <v>1.12</v>
@@ -32774,7 +32774,7 @@
         <v>0.71</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU159" t="n">
         <v>1.31</v>
@@ -33583,7 +33583,7 @@
         <v>0.6</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT163" t="n">
         <v>0.76</v>
@@ -35616,7 +35616,7 @@
         <v>1.47</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU173" t="n">
         <v>1.6</v>
@@ -39473,7 +39473,7 @@
         <v>2.59</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU192" t="n">
         <v>1.91</v>
@@ -40891,7 +40891,7 @@
         <v>1.17</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT199" t="n">
         <v>1</v>
@@ -42315,7 +42315,7 @@
         <v>1.94</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU206" t="n">
         <v>2</v>
@@ -43327,7 +43327,7 @@
         <v>1.31</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT211" t="n">
         <v>1.5</v>
@@ -43939,7 +43939,7 @@
         <v>1.24</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU214" t="n">
         <v>1.27</v>
@@ -46984,7 +46984,7 @@
         <v>1.5</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU229" t="n">
         <v>1.34</v>
@@ -47590,7 +47590,7 @@
         <v>2.07</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT232" t="n">
         <v>1.94</v>
@@ -49417,7 +49417,7 @@
         <v>1</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT241" t="n">
         <v>1.06</v>
@@ -50232,7 +50232,7 @@
         <v>1.94</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU245" t="n">
         <v>1.99</v>
@@ -52665,7 +52665,7 @@
         <v>1.87</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT257" t="n">
         <v>1.88</v>
@@ -53277,7 +53277,7 @@
         <v>2.59</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AU260" t="n">
         <v>1.94</v>
@@ -54289,7 +54289,7 @@
         <v>1.25</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="AT265" t="n">
         <v>1.11</v>
@@ -55968,6 +55968,209 @@
       </c>
       <c r="BK273" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>5651555</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E274" s="2" t="n">
+        <v>45037.60416666666</v>
+      </c>
+      <c r="F274" t="n">
+        <v>5</v>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="I274" t="n">
+        <v>0</v>
+      </c>
+      <c r="J274" t="n">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="n">
+        <v>2</v>
+      </c>
+      <c r="N274" t="n">
+        <v>3</v>
+      </c>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>['49', '66']</t>
+        </is>
+      </c>
+      <c r="Q274" t="n">
+        <v>5</v>
+      </c>
+      <c r="R274" t="n">
+        <v>5</v>
+      </c>
+      <c r="S274" t="n">
+        <v>10</v>
+      </c>
+      <c r="T274" t="n">
+        <v>3</v>
+      </c>
+      <c r="U274" t="n">
+        <v>2</v>
+      </c>
+      <c r="V274" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W274" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X274" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y274" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z274" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA274" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB274" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC274" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD274" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE274" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AF274" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG274" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AH274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI274" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ274" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK274" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL274" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM274" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN274" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO274" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP274" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ274" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR274" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS274" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT274" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AU274" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV274" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW274" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX274" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY274" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ274" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA274" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB274" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC274" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD274" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE274" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF274" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG274" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH274" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI274" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ274" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK274" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK274"/>
+  <dimension ref="A1:BK278"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT2" t="n">
         <v>0.59</v>
@@ -1309,7 +1309,7 @@
         <v>1.12</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT6" t="n">
         <v>1.06</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>1.39</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT16" t="n">
         <v>1.5</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>1.24</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU20" t="n">
         <v>1.27</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -6181,7 +6181,7 @@
         <v>2.13</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU28" t="n">
         <v>1.44</v>
@@ -6384,7 +6384,7 @@
         <v>1.39</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU29" t="n">
         <v>2.09</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU30" t="n">
         <v>1.32</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT32" t="n">
         <v>1.12</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT33" t="n">
         <v>1.59</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT41" t="n">
         <v>1.5</v>
@@ -9023,7 +9023,7 @@
         <v>0.71</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU42" t="n">
         <v>1.05</v>
@@ -9429,7 +9429,7 @@
         <v>2.13</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU44" t="n">
         <v>1.52</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT46" t="n">
         <v>1.12</v>
@@ -11662,7 +11662,7 @@
         <v>0.71</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU55" t="n">
         <v>1.1</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT58" t="n">
         <v>1.13</v>
@@ -12674,7 +12674,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT60" t="n">
         <v>1.88</v>
@@ -12877,10 +12877,10 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU61" t="n">
         <v>1.21</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT62" t="n">
         <v>1.28</v>
@@ -14704,10 +14704,10 @@
         <v>0.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.69</v>
@@ -14907,7 +14907,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT71" t="n">
         <v>1.18</v>
@@ -15110,7 +15110,7 @@
         <v>2.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT72" t="n">
         <v>1.13</v>
@@ -15516,10 +15516,10 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU74" t="n">
         <v>1.99</v>
@@ -17752,7 +17752,7 @@
         <v>1.12</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU85" t="n">
         <v>1.67</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT89" t="n">
         <v>1.18</v>
@@ -18764,10 +18764,10 @@
         <v>0.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.95</v>
@@ -18970,7 +18970,7 @@
         <v>1.94</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU91" t="n">
         <v>2.09</v>
@@ -19170,7 +19170,7 @@
         <v>0.83</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT92" t="n">
         <v>0.76</v>
@@ -19373,7 +19373,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT93" t="n">
         <v>1.11</v>
@@ -21000,7 +21000,7 @@
         <v>1.29</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU101" t="n">
         <v>1.61</v>
@@ -21403,7 +21403,7 @@
         <v>1.29</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT103" t="n">
         <v>1.11</v>
@@ -21606,7 +21606,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT104" t="n">
         <v>1.06</v>
@@ -21809,7 +21809,7 @@
         <v>0.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT105" t="n">
         <v>0.76</v>
@@ -22215,7 +22215,7 @@
         <v>0.57</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT107" t="n">
         <v>0.59</v>
@@ -22421,7 +22421,7 @@
         <v>1.94</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU108" t="n">
         <v>2.28</v>
@@ -23842,7 +23842,7 @@
         <v>1.59</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU115" t="n">
         <v>1.62</v>
@@ -24045,7 +24045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU116" t="n">
         <v>1.29</v>
@@ -24448,7 +24448,7 @@
         <v>1.13</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT118" t="n">
         <v>1</v>
@@ -25263,7 +25263,7 @@
         <v>1.29</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU122" t="n">
         <v>1.52</v>
@@ -25466,7 +25466,7 @@
         <v>2.13</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU123" t="n">
         <v>2.03</v>
@@ -26072,7 +26072,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT126" t="n">
         <v>1.12</v>
@@ -26275,7 +26275,7 @@
         <v>0.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT127" t="n">
         <v>0.59</v>
@@ -26684,7 +26684,7 @@
         <v>1.5</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.31</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT131" t="n">
         <v>1</v>
@@ -27899,7 +27899,7 @@
         <v>2.13</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT135" t="n">
         <v>1.59</v>
@@ -28511,7 +28511,7 @@
         <v>0.71</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU138" t="n">
         <v>1.31</v>
@@ -28917,7 +28917,7 @@
         <v>1.59</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU140" t="n">
         <v>1.69</v>
@@ -29117,7 +29117,7 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT141" t="n">
         <v>1.5</v>
@@ -29320,7 +29320,7 @@
         <v>1.38</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT142" t="n">
         <v>1.28</v>
@@ -29523,10 +29523,10 @@
         <v>1.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU143" t="n">
         <v>1.42</v>
@@ -29726,7 +29726,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT144" t="n">
         <v>1.88</v>
@@ -30741,7 +30741,7 @@
         <v>1.11</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT149" t="n">
         <v>1</v>
@@ -31756,7 +31756,7 @@
         <v>2</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT154" t="n">
         <v>1.59</v>
@@ -31962,7 +31962,7 @@
         <v>1.59</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU155" t="n">
         <v>1.74</v>
@@ -32162,10 +32162,10 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU156" t="n">
         <v>1.68</v>
@@ -32365,7 +32365,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT157" t="n">
         <v>1.88</v>
@@ -32571,7 +32571,7 @@
         <v>1.67</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU158" t="n">
         <v>1.72</v>
@@ -33180,7 +33180,7 @@
         <v>1.94</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU161" t="n">
         <v>2.11</v>
@@ -35613,7 +35613,7 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT173" t="n">
         <v>1.28</v>
@@ -35819,7 +35819,7 @@
         <v>1.67</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU174" t="n">
         <v>1.72</v>
@@ -36019,7 +36019,7 @@
         <v>1.6</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT175" t="n">
         <v>1.88</v>
@@ -36222,10 +36222,10 @@
         <v>0.8</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU176" t="n">
         <v>1.59</v>
@@ -36425,10 +36425,10 @@
         <v>2</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU177" t="n">
         <v>2.01</v>
@@ -37849,7 +37849,7 @@
         <v>1.24</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU184" t="n">
         <v>1.34</v>
@@ -38049,10 +38049,10 @@
         <v>0.64</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU185" t="n">
         <v>1.65</v>
@@ -38455,10 +38455,10 @@
         <v>0.82</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU187" t="n">
         <v>1.35</v>
@@ -39267,7 +39267,7 @@
         <v>1.09</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT191" t="n">
         <v>1.13</v>
@@ -39470,7 +39470,7 @@
         <v>1.36</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT192" t="n">
         <v>1.28</v>
@@ -40285,7 +40285,7 @@
         <v>2.29</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU196" t="n">
         <v>1.93</v>
@@ -41297,7 +41297,7 @@
         <v>0.5</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT201" t="n">
         <v>0.76</v>
@@ -41703,10 +41703,10 @@
         <v>0.58</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU203" t="n">
         <v>1.39</v>
@@ -41906,7 +41906,7 @@
         <v>1</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT204" t="n">
         <v>1.13</v>
@@ -42112,7 +42112,7 @@
         <v>2.11</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU205" t="n">
         <v>1.83</v>
@@ -42515,7 +42515,7 @@
         <v>1.58</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT207" t="n">
         <v>1.18</v>
@@ -44345,7 +44345,7 @@
         <v>1.5</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU216" t="n">
         <v>1.34</v>
@@ -44545,7 +44545,7 @@
         <v>0.54</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT217" t="n">
         <v>0.76</v>
@@ -44748,7 +44748,7 @@
         <v>1.08</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT218" t="n">
         <v>1.06</v>
@@ -44951,7 +44951,7 @@
         <v>1.54</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT219" t="n">
         <v>1.18</v>
@@ -45360,7 +45360,7 @@
         <v>2.29</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU221" t="n">
         <v>1.89</v>
@@ -45560,7 +45560,7 @@
         <v>1.23</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT222" t="n">
         <v>1.11</v>
@@ -45766,7 +45766,7 @@
         <v>2.11</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU223" t="n">
         <v>1.85</v>
@@ -47390,7 +47390,7 @@
         <v>1.24</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU231" t="n">
         <v>1.24</v>
@@ -47593,7 +47593,7 @@
         <v>1.39</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU232" t="n">
         <v>1.82</v>
@@ -47793,7 +47793,7 @@
         <v>0.64</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT233" t="n">
         <v>0.59</v>
@@ -47999,7 +47999,7 @@
         <v>2.29</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU234" t="n">
         <v>1.88</v>
@@ -48402,7 +48402,7 @@
         <v>1.36</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT236" t="n">
         <v>1.11</v>
@@ -48605,7 +48605,7 @@
         <v>1.08</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT237" t="n">
         <v>1.06</v>
@@ -49011,7 +49011,7 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT239" t="n">
         <v>1.12</v>
@@ -49826,7 +49826,7 @@
         <v>1.5</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU243" t="n">
         <v>1.37</v>
@@ -50026,7 +50026,7 @@
         <v>1</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT244" t="n">
         <v>1</v>
@@ -50432,7 +50432,7 @@
         <v>1.33</v>
       </c>
       <c r="AS246" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT246" t="n">
         <v>1.18</v>
@@ -51044,7 +51044,7 @@
         <v>1.59</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU249" t="n">
         <v>1.9</v>
@@ -51650,7 +51650,7 @@
         <v>0.87</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.38</v>
+        <v>1.47</v>
       </c>
       <c r="AT252" t="n">
         <v>1</v>
@@ -52262,7 +52262,7 @@
         <v>2.29</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="AU255" t="n">
         <v>1.88</v>
@@ -52871,7 +52871,7 @@
         <v>1.24</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU258" t="n">
         <v>1.26</v>
@@ -53274,7 +53274,7 @@
         <v>1.25</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.59</v>
+        <v>2.61</v>
       </c>
       <c r="AT260" t="n">
         <v>1.28</v>
@@ -53477,7 +53477,7 @@
         <v>1.31</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.06</v>
+        <v>1.18</v>
       </c>
       <c r="AT261" t="n">
         <v>1.5</v>
@@ -53680,10 +53680,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.65</v>
+        <v>0.61</v>
       </c>
       <c r="AU262" t="n">
         <v>1.56</v>
@@ -56170,6 +56170,818 @@
         <v>9</v>
       </c>
       <c r="BK274" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>5651552</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="n">
+        <v>45038.375</v>
+      </c>
+      <c r="F275" t="n">
+        <v>5</v>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="I275" t="n">
+        <v>2</v>
+      </c>
+      <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>2</v>
+      </c>
+      <c r="L275" t="n">
+        <v>2</v>
+      </c>
+      <c r="M275" t="n">
+        <v>1</v>
+      </c>
+      <c r="N275" t="n">
+        <v>3</v>
+      </c>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>['11', '38']</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q275" t="n">
+        <v>3</v>
+      </c>
+      <c r="R275" t="n">
+        <v>1</v>
+      </c>
+      <c r="S275" t="n">
+        <v>4</v>
+      </c>
+      <c r="T275" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U275" t="n">
+        <v>2</v>
+      </c>
+      <c r="V275" t="n">
+        <v>5</v>
+      </c>
+      <c r="W275" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X275" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y275" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Z275" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA275" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AB275" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC275" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD275" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE275" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF275" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG275" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH275" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI275" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AJ275" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK275" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL275" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM275" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN275" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO275" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP275" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ275" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AR275" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AS275" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT275" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AU275" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV275" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW275" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX275" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AY275" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ275" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BA275" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BB275" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BC275" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BD275" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BE275" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="BF275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG275" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH275" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI275" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ275" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK275" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>5651548</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="n">
+        <v>45038.47916666666</v>
+      </c>
+      <c r="F276" t="n">
+        <v>5</v>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>U Craiova 1948</t>
+        </is>
+      </c>
+      <c r="I276" t="n">
+        <v>0</v>
+      </c>
+      <c r="J276" t="n">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0</v>
+      </c>
+      <c r="M276" t="n">
+        <v>0</v>
+      </c>
+      <c r="N276" t="n">
+        <v>0</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q276" t="n">
+        <v>4</v>
+      </c>
+      <c r="R276" t="n">
+        <v>7</v>
+      </c>
+      <c r="S276" t="n">
+        <v>11</v>
+      </c>
+      <c r="T276" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U276" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V276" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W276" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X276" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y276" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Z276" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA276" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB276" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC276" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD276" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE276" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF276" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG276" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AH276" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI276" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ276" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK276" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL276" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM276" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN276" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO276" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP276" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ276" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR276" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS276" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT276" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU276" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV276" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW276" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX276" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AY276" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ276" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA276" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB276" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC276" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD276" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE276" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF276" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG276" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH276" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI276" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ276" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK276" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>5651553</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E277" s="2" t="n">
+        <v>45038.60416666666</v>
+      </c>
+      <c r="F277" t="n">
+        <v>5</v>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="I277" t="n">
+        <v>0</v>
+      </c>
+      <c r="J277" t="n">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="n">
+        <v>0</v>
+      </c>
+      <c r="N277" t="n">
+        <v>1</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q277" t="n">
+        <v>5</v>
+      </c>
+      <c r="R277" t="n">
+        <v>0</v>
+      </c>
+      <c r="S277" t="n">
+        <v>5</v>
+      </c>
+      <c r="T277" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U277" t="n">
+        <v>2</v>
+      </c>
+      <c r="V277" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W277" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X277" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Y277" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z277" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA277" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB277" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC277" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD277" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE277" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AF277" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG277" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="AH277" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI277" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ277" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK277" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL277" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM277" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN277" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO277" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP277" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ277" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AR277" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AS277" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AT277" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AU277" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AV277" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW277" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX277" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY277" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ277" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BA277" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BB277" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC277" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD277" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BE277" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF277" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG277" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH277" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI277" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ277" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK277" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>5651551</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E278" s="2" t="n">
+        <v>45039.33333333334</v>
+      </c>
+      <c r="F278" t="n">
+        <v>5</v>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="I278" t="n">
+        <v>1</v>
+      </c>
+      <c r="J278" t="n">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>1</v>
+      </c>
+      <c r="L278" t="n">
+        <v>2</v>
+      </c>
+      <c r="M278" t="n">
+        <v>1</v>
+      </c>
+      <c r="N278" t="n">
+        <v>3</v>
+      </c>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>['19', '62']</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q278" t="n">
+        <v>2</v>
+      </c>
+      <c r="R278" t="n">
+        <v>3</v>
+      </c>
+      <c r="S278" t="n">
+        <v>5</v>
+      </c>
+      <c r="T278" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U278" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V278" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W278" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X278" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y278" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z278" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA278" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB278" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC278" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AD278" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE278" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF278" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG278" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH278" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI278" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ278" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK278" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL278" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM278" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN278" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO278" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP278" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ278" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR278" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS278" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT278" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU278" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV278" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW278" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AX278" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY278" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AZ278" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA278" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BB278" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BC278" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BD278" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BE278" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF278" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG278" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH278" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI278" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ278" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK278" t="n">
         <v>6</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK278"/>
+  <dimension ref="A1:BK281"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.47</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT11" t="n">
         <v>1</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT14" t="n">
         <v>1.28</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>1.29</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT20" t="n">
         <v>0.5</v>
@@ -4760,7 +4760,7 @@
         <v>2.11</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU21" t="n">
         <v>1.66</v>
@@ -5772,10 +5772,10 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU26" t="n">
         <v>1.8</v>
@@ -5978,7 +5978,7 @@
         <v>0.71</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU27" t="n">
         <v>0.99</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT28" t="n">
         <v>0.61</v>
@@ -8008,7 +8008,7 @@
         <v>2.29</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU37" t="n">
         <v>1.67</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT40" t="n">
         <v>1.18</v>
@@ -9226,7 +9226,7 @@
         <v>1.67</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU43" t="n">
         <v>1.7</v>
@@ -9426,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT44" t="n">
         <v>0.5</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT45" t="n">
         <v>1.18</v>
@@ -10035,7 +10035,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT47" t="n">
         <v>0.76</v>
@@ -10444,7 +10444,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU49" t="n">
         <v>1.18</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT57" t="n">
         <v>0.76</v>
@@ -12271,7 +12271,7 @@
         <v>1.18</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU58" t="n">
         <v>1.66</v>
@@ -12677,7 +12677,7 @@
         <v>2.61</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU60" t="n">
         <v>2.09</v>
@@ -13286,7 +13286,7 @@
         <v>1.39</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU63" t="n">
         <v>2.04</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT64" t="n">
         <v>1.06</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT66" t="n">
         <v>1.11</v>
@@ -15113,7 +15113,7 @@
         <v>1.47</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT78" t="n">
         <v>1.06</v>
@@ -17140,10 +17140,10 @@
         <v>0.8</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU82" t="n">
         <v>1.4</v>
@@ -17343,7 +17343,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT83" t="n">
         <v>1</v>
@@ -17549,7 +17549,7 @@
         <v>2.29</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU84" t="n">
         <v>1.98</v>
@@ -18361,7 +18361,7 @@
         <v>2.11</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU88" t="n">
         <v>1.83</v>
@@ -19576,10 +19576,10 @@
         <v>0.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU94" t="n">
         <v>1.06</v>
@@ -19982,7 +19982,7 @@
         <v>1.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT96" t="n">
         <v>1.5</v>
@@ -20185,7 +20185,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT97" t="n">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU99" t="n">
         <v>1.3</v>
@@ -22015,7 +22015,7 @@
         <v>2.29</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU106" t="n">
         <v>2.04</v>
@@ -22218,7 +22218,7 @@
         <v>1.18</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU107" t="n">
         <v>1.67</v>
@@ -22824,7 +22824,7 @@
         <v>2.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT110" t="n">
         <v>1.59</v>
@@ -23027,7 +23027,7 @@
         <v>0.71</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT111" t="n">
         <v>1</v>
@@ -23839,7 +23839,7 @@
         <v>1.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT115" t="n">
         <v>1.82</v>
@@ -24248,7 +24248,7 @@
         <v>1.39</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU117" t="n">
         <v>2.02</v>
@@ -24854,10 +24854,10 @@
         <v>1.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU120" t="n">
         <v>1.1</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT123" t="n">
         <v>1.82</v>
@@ -25869,10 +25869,10 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU125" t="n">
         <v>1.66</v>
@@ -26278,7 +26278,7 @@
         <v>2.61</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU127" t="n">
         <v>1.84</v>
@@ -27699,7 +27699,7 @@
         <v>1.39</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU134" t="n">
         <v>1.9</v>
@@ -28102,7 +28102,7 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT136" t="n">
         <v>1.28</v>
@@ -28714,7 +28714,7 @@
         <v>1.67</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU139" t="n">
         <v>1.72</v>
@@ -28914,7 +28914,7 @@
         <v>0.88</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT140" t="n">
         <v>0.61</v>
@@ -29729,7 +29729,7 @@
         <v>1.44</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU144" t="n">
         <v>1.7</v>
@@ -30335,7 +30335,7 @@
         <v>1.56</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT147" t="n">
         <v>1.5</v>
@@ -31353,7 +31353,7 @@
         <v>1.94</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU152" t="n">
         <v>2.15</v>
@@ -31959,7 +31959,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT155" t="n">
         <v>0.5</v>
@@ -32368,7 +32368,7 @@
         <v>1.18</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU157" t="n">
         <v>1.61</v>
@@ -32974,10 +32974,10 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU160" t="n">
         <v>1.96</v>
@@ -33380,7 +33380,7 @@
         <v>1.8</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT162" t="n">
         <v>1.59</v>
@@ -33992,7 +33992,7 @@
         <v>1.12</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU165" t="n">
         <v>1.49</v>
@@ -35004,7 +35004,7 @@
         <v>1.1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT170" t="n">
         <v>1.12</v>
@@ -35207,7 +35207,7 @@
         <v>1.8</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT171" t="n">
         <v>1.18</v>
@@ -35413,7 +35413,7 @@
         <v>0.71</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU172" t="n">
         <v>1.28</v>
@@ -36022,7 +36022,7 @@
         <v>1.47</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU175" t="n">
         <v>1.37</v>
@@ -36628,7 +36628,7 @@
         <v>1.27</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT178" t="n">
         <v>1.11</v>
@@ -36834,7 +36834,7 @@
         <v>1.29</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU179" t="n">
         <v>1.66</v>
@@ -37846,7 +37846,7 @@
         <v>2.09</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT184" t="n">
         <v>1.82</v>
@@ -38658,7 +38658,7 @@
         <v>1</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT188" t="n">
         <v>1.12</v>
@@ -39067,7 +39067,7 @@
         <v>2.11</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU190" t="n">
         <v>1.87</v>
@@ -39270,7 +39270,7 @@
         <v>1.44</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU191" t="n">
         <v>1.53</v>
@@ -39673,10 +39673,10 @@
         <v>0.67</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU193" t="n">
         <v>1.85</v>
@@ -39876,7 +39876,7 @@
         <v>0.91</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT194" t="n">
         <v>1.06</v>
@@ -40688,10 +40688,10 @@
         <v>1.83</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU198" t="n">
         <v>1.31</v>
@@ -41909,7 +41909,7 @@
         <v>2.61</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU204" t="n">
         <v>1.93</v>
@@ -42924,7 +42924,7 @@
         <v>1.67</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU209" t="n">
         <v>1.72</v>
@@ -43530,7 +43530,7 @@
         <v>1</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT212" t="n">
         <v>1</v>
@@ -43733,7 +43733,7 @@
         <v>1.15</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT213" t="n">
         <v>1</v>
@@ -43936,7 +43936,7 @@
         <v>1.23</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT214" t="n">
         <v>1.28</v>
@@ -44142,7 +44142,7 @@
         <v>1.12</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU215" t="n">
         <v>1.44</v>
@@ -45969,7 +45969,7 @@
         <v>1.94</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU224" t="n">
         <v>1.97</v>
@@ -46169,7 +46169,7 @@
         <v>1.86</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT225" t="n">
         <v>1.59</v>
@@ -46575,7 +46575,7 @@
         <v>1.21</v>
       </c>
       <c r="AS227" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT227" t="n">
         <v>1.5</v>
@@ -47187,7 +47187,7 @@
         <v>1.29</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU230" t="n">
         <v>1.68</v>
@@ -47387,7 +47387,7 @@
         <v>0.71</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT231" t="n">
         <v>0.61</v>
@@ -47796,7 +47796,7 @@
         <v>1.44</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU233" t="n">
         <v>1.56</v>
@@ -48202,7 +48202,7 @@
         <v>1.12</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU235" t="n">
         <v>1.43</v>
@@ -49620,7 +49620,7 @@
         <v>1.33</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT242" t="n">
         <v>1.5</v>
@@ -50841,7 +50841,7 @@
         <v>1.67</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU248" t="n">
         <v>1.72</v>
@@ -51041,7 +51041,7 @@
         <v>0.73</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT249" t="n">
         <v>0.61</v>
@@ -51247,7 +51247,7 @@
         <v>1.67</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="AU250" t="n">
         <v>1.74</v>
@@ -51853,7 +51853,7 @@
         <v>1.73</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.13</v>
+        <v>2.18</v>
       </c>
       <c r="AT253" t="n">
         <v>1.59</v>
@@ -52668,7 +52668,7 @@
         <v>1.39</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU257" t="n">
         <v>1.79</v>
@@ -52868,7 +52868,7 @@
         <v>0.5</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="AT258" t="n">
         <v>0.5</v>
@@ -53071,7 +53071,7 @@
         <v>0.93</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="AT259" t="n">
         <v>1.06</v>
@@ -53886,7 +53886,7 @@
         <v>2.11</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AU263" t="n">
         <v>1.86</v>
@@ -54089,7 +54089,7 @@
         <v>1.5</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU264" t="n">
         <v>1.38</v>
@@ -56983,6 +56983,615 @@
       </c>
       <c r="BK278" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>5651554</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E279" s="2" t="n">
+        <v>45039.60416666666</v>
+      </c>
+      <c r="F279" t="n">
+        <v>5</v>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="I279" t="n">
+        <v>1</v>
+      </c>
+      <c r="J279" t="n">
+        <v>0</v>
+      </c>
+      <c r="K279" t="n">
+        <v>1</v>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="n">
+        <v>0</v>
+      </c>
+      <c r="N279" t="n">
+        <v>1</v>
+      </c>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q279" t="n">
+        <v>3</v>
+      </c>
+      <c r="R279" t="n">
+        <v>6</v>
+      </c>
+      <c r="S279" t="n">
+        <v>9</v>
+      </c>
+      <c r="T279" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U279" t="n">
+        <v>2</v>
+      </c>
+      <c r="V279" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W279" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X279" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y279" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z279" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA279" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AB279" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC279" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AD279" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE279" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AF279" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG279" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH279" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI279" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AJ279" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK279" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL279" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM279" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN279" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO279" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP279" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ279" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR279" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS279" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT279" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU279" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV279" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW279" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="AX279" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AY279" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ279" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BA279" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB279" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC279" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD279" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BE279" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF279" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG279" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH279" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI279" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ279" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK279" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>5651550</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E280" s="2" t="n">
+        <v>45040.47916666666</v>
+      </c>
+      <c r="F280" t="n">
+        <v>5</v>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Mioveni</t>
+        </is>
+      </c>
+      <c r="I280" t="n">
+        <v>0</v>
+      </c>
+      <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="n">
+        <v>0</v>
+      </c>
+      <c r="N280" t="n">
+        <v>1</v>
+      </c>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q280" t="n">
+        <v>13</v>
+      </c>
+      <c r="R280" t="n">
+        <v>2</v>
+      </c>
+      <c r="S280" t="n">
+        <v>15</v>
+      </c>
+      <c r="T280" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U280" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V280" t="n">
+        <v>8</v>
+      </c>
+      <c r="W280" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X280" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y280" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z280" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA280" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB280" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC280" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AD280" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE280" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AF280" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG280" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH280" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI280" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ280" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AK280" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AL280" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AM280" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN280" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO280" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP280" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ280" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AR280" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="AS280" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT280" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU280" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AV280" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW280" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AX280" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY280" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ280" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BA280" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BB280" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BC280" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BD280" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BE280" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="BF280" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG280" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH280" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI280" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ280" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK280" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>5651549</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E281" s="2" t="n">
+        <v>45040.60416666666</v>
+      </c>
+      <c r="F281" t="n">
+        <v>5</v>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="I281" t="n">
+        <v>1</v>
+      </c>
+      <c r="J281" t="n">
+        <v>1</v>
+      </c>
+      <c r="K281" t="n">
+        <v>2</v>
+      </c>
+      <c r="L281" t="n">
+        <v>2</v>
+      </c>
+      <c r="M281" t="n">
+        <v>2</v>
+      </c>
+      <c r="N281" t="n">
+        <v>4</v>
+      </c>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>['35', '82']</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>['43', '88']</t>
+        </is>
+      </c>
+      <c r="Q281" t="n">
+        <v>4</v>
+      </c>
+      <c r="R281" t="n">
+        <v>1</v>
+      </c>
+      <c r="S281" t="n">
+        <v>5</v>
+      </c>
+      <c r="T281" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U281" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V281" t="n">
+        <v>5</v>
+      </c>
+      <c r="W281" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X281" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y281" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z281" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA281" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB281" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC281" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD281" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE281" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AF281" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG281" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH281" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI281" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AJ281" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AK281" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL281" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM281" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN281" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO281" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP281" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ281" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR281" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS281" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT281" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AU281" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV281" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW281" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX281" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AY281" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ281" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BA281" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB281" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC281" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BD281" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BE281" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF281" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG281" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH281" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI281" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ281" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK281" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -57576,22 +57576,22 @@
         <v>4.1</v>
       </c>
       <c r="BF281" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG281" t="n">
         <v>5</v>
       </c>
-      <c r="BG281" t="n">
-        <v>3</v>
-      </c>
       <c r="BH281" t="n">
         <v>2</v>
       </c>
       <c r="BI281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ281" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK281" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK281"/>
+  <dimension ref="A1:BK283"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1.44</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT10" t="n">
         <v>1.59</v>
@@ -2933,7 +2933,7 @@
         <v>1.39</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT13" t="n">
         <v>1.82</v>
@@ -4354,7 +4354,7 @@
         <v>2.61</v>
       </c>
       <c r="AT19" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU19" t="n">
         <v>1.9</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT27" t="n">
         <v>1.78</v>
@@ -6181,7 +6181,7 @@
         <v>2.18</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU28" t="n">
         <v>1.44</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT31" t="n">
         <v>1.28</v>
@@ -8414,7 +8414,7 @@
         <v>1.94</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU39" t="n">
         <v>1.91</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU42" t="n">
         <v>1.05</v>
@@ -9223,7 +9223,7 @@
         <v>1.5</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT43" t="n">
         <v>1.12</v>
@@ -10850,7 +10850,7 @@
         <v>1.12</v>
       </c>
       <c r="AT51" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU51" t="n">
         <v>1.62</v>
@@ -11659,7 +11659,7 @@
         <v>0.25</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT55" t="n">
         <v>0.5</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT56" t="n">
         <v>1.18</v>
@@ -12880,7 +12880,7 @@
         <v>1.44</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU61" t="n">
         <v>1.21</v>
@@ -13692,7 +13692,7 @@
         <v>1.29</v>
       </c>
       <c r="AT65" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU65" t="n">
         <v>1.5</v>
@@ -15313,7 +15313,7 @@
         <v>1.8</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT73" t="n">
         <v>1.11</v>
@@ -15519,7 +15519,7 @@
         <v>2.61</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU74" t="n">
         <v>1.99</v>
@@ -15922,7 +15922,7 @@
         <v>0.4</v>
       </c>
       <c r="AS76" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT76" t="n">
         <v>0.76</v>
@@ -17346,7 +17346,7 @@
         <v>1.67</v>
       </c>
       <c r="AT83" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU83" t="n">
         <v>1.76</v>
@@ -18155,7 +18155,7 @@
         <v>0.83</v>
       </c>
       <c r="AS87" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT87" t="n">
         <v>1.06</v>
@@ -18970,7 +18970,7 @@
         <v>1.94</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU91" t="n">
         <v>2.09</v>
@@ -20794,10 +20794,10 @@
         <v>0.33</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT100" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU100" t="n">
         <v>1.79</v>
@@ -23030,7 +23030,7 @@
         <v>1.22</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU111" t="n">
         <v>1.07</v>
@@ -23230,7 +23230,7 @@
         <v>1.5</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT112" t="n">
         <v>1.5</v>
@@ -23433,7 +23433,7 @@
         <v>1.14</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT113" t="n">
         <v>1</v>
@@ -24045,7 +24045,7 @@
         <v>1.5</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU116" t="n">
         <v>1.29</v>
@@ -24651,7 +24651,7 @@
         <v>2</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT119" t="n">
         <v>1.59</v>
@@ -25263,7 +25263,7 @@
         <v>1.29</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU122" t="n">
         <v>1.52</v>
@@ -25666,7 +25666,7 @@
         <v>1.43</v>
       </c>
       <c r="AS124" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT124" t="n">
         <v>1.5</v>
@@ -27090,7 +27090,7 @@
         <v>1.47</v>
       </c>
       <c r="AT131" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU131" t="n">
         <v>1.38</v>
@@ -28508,7 +28508,7 @@
         <v>1.67</v>
       </c>
       <c r="AS138" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT138" t="n">
         <v>1.82</v>
@@ -28711,7 +28711,7 @@
         <v>1</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT139" t="n">
         <v>1.78</v>
@@ -28917,7 +28917,7 @@
         <v>1.67</v>
       </c>
       <c r="AT140" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU140" t="n">
         <v>1.69</v>
@@ -30947,7 +30947,7 @@
         <v>2.11</v>
       </c>
       <c r="AT150" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU150" t="n">
         <v>1.88</v>
@@ -32568,10 +32568,10 @@
         <v>0.89</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU158" t="n">
         <v>1.72</v>
@@ -32771,7 +32771,7 @@
         <v>1.33</v>
       </c>
       <c r="AS159" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT159" t="n">
         <v>1.28</v>
@@ -33789,7 +33789,7 @@
         <v>2.29</v>
       </c>
       <c r="AT164" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU164" t="n">
         <v>1.96</v>
@@ -35410,7 +35410,7 @@
         <v>1.2</v>
       </c>
       <c r="AS172" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT172" t="n">
         <v>1.12</v>
@@ -35816,7 +35816,7 @@
         <v>0.6</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT174" t="n">
         <v>0.5</v>
@@ -36225,7 +36225,7 @@
         <v>1.18</v>
       </c>
       <c r="AT176" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU176" t="n">
         <v>1.59</v>
@@ -37037,7 +37037,7 @@
         <v>1.5</v>
       </c>
       <c r="AT180" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU180" t="n">
         <v>1.29</v>
@@ -38252,7 +38252,7 @@
         <v>0.55</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT186" t="n">
         <v>0.76</v>
@@ -38458,7 +38458,7 @@
         <v>1.47</v>
       </c>
       <c r="AT187" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU187" t="n">
         <v>1.35</v>
@@ -38861,7 +38861,7 @@
         <v>1.64</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT189" t="n">
         <v>1.18</v>
@@ -40894,7 +40894,7 @@
         <v>1.39</v>
       </c>
       <c r="AT199" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU199" t="n">
         <v>1.82</v>
@@ -41500,7 +41500,7 @@
         <v>1.25</v>
       </c>
       <c r="AS202" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT202" t="n">
         <v>1.11</v>
@@ -42112,7 +42112,7 @@
         <v>2.11</v>
       </c>
       <c r="AT205" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU205" t="n">
         <v>1.83</v>
@@ -42718,7 +42718,7 @@
         <v>0.92</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT208" t="n">
         <v>1.12</v>
@@ -42921,7 +42921,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS209" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT209" t="n">
         <v>0.5600000000000001</v>
@@ -43736,7 +43736,7 @@
         <v>2.18</v>
       </c>
       <c r="AT213" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU213" t="n">
         <v>1.95</v>
@@ -45154,7 +45154,7 @@
         <v>0.85</v>
       </c>
       <c r="AS220" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT220" t="n">
         <v>1.12</v>
@@ -45360,7 +45360,7 @@
         <v>2.29</v>
       </c>
       <c r="AT221" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU221" t="n">
         <v>1.89</v>
@@ -46372,7 +46372,7 @@
         <v>0.93</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT226" t="n">
         <v>1</v>
@@ -46778,10 +46778,10 @@
         <v>1.07</v>
       </c>
       <c r="AS228" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT228" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU228" t="n">
         <v>1.29</v>
@@ -47390,7 +47390,7 @@
         <v>1.22</v>
       </c>
       <c r="AT231" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU231" t="n">
         <v>1.24</v>
@@ -50029,7 +50029,7 @@
         <v>1.44</v>
       </c>
       <c r="AT244" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU244" t="n">
         <v>1.57</v>
@@ -50838,7 +50838,7 @@
         <v>0.67</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT248" t="n">
         <v>0.5600000000000001</v>
@@ -51044,7 +51044,7 @@
         <v>1.67</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU249" t="n">
         <v>1.9</v>
@@ -51244,7 +51244,7 @@
         <v>1</v>
       </c>
       <c r="AS250" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT250" t="n">
         <v>1.12</v>
@@ -52462,10 +52462,10 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS256" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT256" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU256" t="n">
         <v>1.25</v>
@@ -53683,7 +53683,7 @@
         <v>1.44</v>
       </c>
       <c r="AT262" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU262" t="n">
         <v>1.56</v>
@@ -54492,7 +54492,7 @@
         <v>1.13</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT266" t="n">
         <v>1.12</v>
@@ -54898,7 +54898,7 @@
         <v>1.41</v>
       </c>
       <c r="AS268" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AT268" t="n">
         <v>1.5</v>
@@ -55713,7 +55713,7 @@
         <v>1.12</v>
       </c>
       <c r="AT272" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AU272" t="n">
         <v>1.45</v>
@@ -56322,7 +56322,7 @@
         <v>1.47</v>
       </c>
       <c r="AT275" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU275" t="n">
         <v>1.37</v>
@@ -57592,6 +57592,412 @@
       </c>
       <c r="BK281" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>5651556</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E282" s="2" t="n">
+        <v>45044.60416666666</v>
+      </c>
+      <c r="F282" t="n">
+        <v>6</v>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>U Craiova 1948</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="I282" t="n">
+        <v>1</v>
+      </c>
+      <c r="J282" t="n">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>1</v>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="n">
+        <v>0</v>
+      </c>
+      <c r="N282" t="n">
+        <v>1</v>
+      </c>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q282" t="n">
+        <v>4</v>
+      </c>
+      <c r="R282" t="n">
+        <v>2</v>
+      </c>
+      <c r="S282" t="n">
+        <v>6</v>
+      </c>
+      <c r="T282" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U282" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V282" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X282" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y282" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z282" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA282" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB282" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC282" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AD282" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE282" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF282" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG282" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH282" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI282" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ282" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AK282" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL282" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM282" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN282" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO282" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP282" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ282" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR282" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS282" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT282" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AU282" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV282" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AW282" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX282" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY282" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ282" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA282" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB282" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BC282" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD282" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE282" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF282" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG282" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH282" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI282" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ282" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK282" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>5651560</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E283" s="2" t="n">
+        <v>45045.35416666666</v>
+      </c>
+      <c r="F283" t="n">
+        <v>6</v>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>Mioveni</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="I283" t="n">
+        <v>0</v>
+      </c>
+      <c r="J283" t="n">
+        <v>1</v>
+      </c>
+      <c r="K283" t="n">
+        <v>1</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0</v>
+      </c>
+      <c r="M283" t="n">
+        <v>2</v>
+      </c>
+      <c r="N283" t="n">
+        <v>2</v>
+      </c>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>['7', '66']</t>
+        </is>
+      </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
+      <c r="R283" t="n">
+        <v>8</v>
+      </c>
+      <c r="S283" t="n">
+        <v>8</v>
+      </c>
+      <c r="T283" t="n">
+        <v>5</v>
+      </c>
+      <c r="U283" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V283" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="W283" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X283" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="Y283" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z283" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA283" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB283" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC283" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD283" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE283" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AF283" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG283" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH283" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI283" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AJ283" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AK283" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL283" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM283" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN283" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AO283" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP283" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AQ283" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR283" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AS283" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AT283" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AU283" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV283" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW283" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AX283" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AY283" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ283" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BA283" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BB283" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BC283" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BD283" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="BE283" t="n">
+        <v>6</v>
+      </c>
+      <c r="BF283" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG283" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH283" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI283" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ283" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK283" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK283"/>
+  <dimension ref="A1:BK285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT9" t="n">
         <v>1.12</v>
@@ -2527,7 +2527,7 @@
         <v>0.67</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.22</v>
       </c>
       <c r="AT11" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT12" t="n">
         <v>0.74</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT22" t="n">
         <v>1.18</v>
@@ -5572,7 +5572,7 @@
         <v>1.47</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU25" t="n">
         <v>1.65</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT29" t="n">
         <v>0.5</v>
@@ -7196,7 +7196,7 @@
         <v>1.44</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU33" t="n">
         <v>1.22</v>
@@ -7802,7 +7802,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT36" t="n">
         <v>1.11</v>
@@ -8211,7 +8211,7 @@
         <v>2.11</v>
       </c>
       <c r="AT38" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU38" t="n">
         <v>1.89</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT49" t="n">
         <v>0.5600000000000001</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT50" t="n">
         <v>1.11</v>
@@ -11053,7 +11053,7 @@
         <v>2.11</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11459,7 +11459,7 @@
         <v>2.29</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -13283,7 +13283,7 @@
         <v>0.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT63" t="n">
         <v>0.5600000000000001</v>
@@ -14095,10 +14095,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU67" t="n">
         <v>1.21</v>
@@ -14504,7 +14504,7 @@
         <v>2.29</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU69" t="n">
         <v>1.96</v>
@@ -16531,10 +16531,10 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU79" t="n">
         <v>1.25</v>
@@ -16937,10 +16937,10 @@
         <v>1.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT81" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU81" t="n">
         <v>1.91</v>
@@ -20188,7 +20188,7 @@
         <v>2.18</v>
       </c>
       <c r="AT97" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU97" t="n">
         <v>1.64</v>
@@ -20388,10 +20388,10 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU98" t="n">
         <v>1.99</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT99" t="n">
         <v>1.78</v>
@@ -22827,7 +22827,7 @@
         <v>2.18</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU110" t="n">
         <v>1.85</v>
@@ -23436,7 +23436,7 @@
         <v>0.67</v>
       </c>
       <c r="AT113" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU113" t="n">
         <v>1.35</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT116" t="n">
         <v>0.74</v>
@@ -24245,7 +24245,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT117" t="n">
         <v>1.78</v>
@@ -24451,7 +24451,7 @@
         <v>1.18</v>
       </c>
       <c r="AT118" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU118" t="n">
         <v>1.71</v>
@@ -24654,7 +24654,7 @@
         <v>1.74</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU119" t="n">
         <v>1.68</v>
@@ -25057,7 +25057,7 @@
         <v>1.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT121" t="n">
         <v>1.28</v>
@@ -26681,7 +26681,7 @@
         <v>0.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT129" t="n">
         <v>0.5</v>
@@ -27696,7 +27696,7 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT134" t="n">
         <v>1.12</v>
@@ -27902,7 +27902,7 @@
         <v>1.18</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU135" t="n">
         <v>1.63</v>
@@ -30132,7 +30132,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT146" t="n">
         <v>0.76</v>
@@ -30744,7 +30744,7 @@
         <v>2.61</v>
       </c>
       <c r="AT149" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU149" t="n">
         <v>1.88</v>
@@ -31553,7 +31553,7 @@
         <v>1.11</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT153" t="n">
         <v>1.12</v>
@@ -31759,7 +31759,7 @@
         <v>1.47</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -33383,7 +33383,7 @@
         <v>1.22</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU162" t="n">
         <v>1.23</v>
@@ -33583,7 +33583,7 @@
         <v>0.6</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT163" t="n">
         <v>0.76</v>
@@ -34192,7 +34192,7 @@
         <v>0.9</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT166" t="n">
         <v>1.06</v>
@@ -34601,7 +34601,7 @@
         <v>1.94</v>
       </c>
       <c r="AT168" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU168" t="n">
         <v>2.05</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT180" t="n">
         <v>0.95</v>
@@ -37443,7 +37443,7 @@
         <v>1.12</v>
       </c>
       <c r="AT182" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU182" t="n">
         <v>1.52</v>
@@ -37646,7 +37646,7 @@
         <v>1.94</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU183" t="n">
         <v>2.06</v>
@@ -40082,7 +40082,7 @@
         <v>1.29</v>
       </c>
       <c r="AT195" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU195" t="n">
         <v>1.71</v>
@@ -40488,7 +40488,7 @@
         <v>1.12</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU197" t="n">
         <v>1.5</v>
@@ -40891,7 +40891,7 @@
         <v>1.17</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT199" t="n">
         <v>0.95</v>
@@ -41094,7 +41094,7 @@
         <v>1.42</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT200" t="n">
         <v>1.5</v>
@@ -43127,7 +43127,7 @@
         <v>1.29</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU210" t="n">
         <v>1.69</v>
@@ -43327,7 +43327,7 @@
         <v>1.31</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT211" t="n">
         <v>1.5</v>
@@ -43533,7 +43533,7 @@
         <v>1.67</v>
       </c>
       <c r="AT212" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU212" t="n">
         <v>1.91</v>
@@ -44342,7 +44342,7 @@
         <v>2</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT216" t="n">
         <v>1.82</v>
@@ -46172,7 +46172,7 @@
         <v>1.67</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU225" t="n">
         <v>1.86</v>
@@ -46375,7 +46375,7 @@
         <v>1.74</v>
       </c>
       <c r="AT226" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU226" t="n">
         <v>1.72</v>
@@ -46981,7 +46981,7 @@
         <v>1.14</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT229" t="n">
         <v>1.28</v>
@@ -47590,7 +47590,7 @@
         <v>2.07</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT232" t="n">
         <v>1.82</v>
@@ -49417,7 +49417,7 @@
         <v>1</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT241" t="n">
         <v>1.06</v>
@@ -49823,7 +49823,7 @@
         <v>0.53</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT243" t="n">
         <v>0.5</v>
@@ -51653,7 +51653,7 @@
         <v>1.47</v>
       </c>
       <c r="AT252" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU252" t="n">
         <v>1.4</v>
@@ -51856,7 +51856,7 @@
         <v>2.18</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU253" t="n">
         <v>1.97</v>
@@ -52665,7 +52665,7 @@
         <v>1.87</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT257" t="n">
         <v>1.78</v>
@@ -54086,7 +54086,7 @@
         <v>0.63</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT264" t="n">
         <v>0.5600000000000001</v>
@@ -54289,7 +54289,7 @@
         <v>1.25</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT265" t="n">
         <v>1.11</v>
@@ -54698,7 +54698,7 @@
         <v>1.29</v>
       </c>
       <c r="AT267" t="n">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AU267" t="n">
         <v>1.65</v>
@@ -55304,7 +55304,7 @@
         <v>0.63</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT270" t="n">
         <v>0.76</v>
@@ -55916,7 +55916,7 @@
         <v>1.94</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.59</v>
+        <v>1.56</v>
       </c>
       <c r="AU273" t="n">
         <v>1.98</v>
@@ -56116,7 +56116,7 @@
         <v>1.18</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT274" t="n">
         <v>1.28</v>
@@ -57985,19 +57985,425 @@
         <v>4</v>
       </c>
       <c r="BG283" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH283" t="n">
         <v>1</v>
       </c>
       <c r="BI283" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BJ283" t="n">
         <v>5</v>
       </c>
       <c r="BK283" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>5651557</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E284" s="2" t="n">
+        <v>45045.45833333334</v>
+      </c>
+      <c r="F284" t="n">
+        <v>6</v>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="I284" t="n">
+        <v>0</v>
+      </c>
+      <c r="J284" t="n">
+        <v>0</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="n">
+        <v>0</v>
+      </c>
+      <c r="N284" t="n">
+        <v>1</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>['90+9']</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q284" t="n">
+        <v>3</v>
+      </c>
+      <c r="R284" t="n">
+        <v>3</v>
+      </c>
+      <c r="S284" t="n">
+        <v>6</v>
+      </c>
+      <c r="T284" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U284" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V284" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W284" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X284" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y284" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z284" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA284" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB284" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC284" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD284" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE284" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF284" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG284" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH284" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI284" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ284" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AK284" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL284" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN284" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO284" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP284" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ284" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR284" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS284" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT284" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AU284" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV284" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AW284" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX284" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY284" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ284" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA284" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB284" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC284" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD284" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE284" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF284" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG284" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH284" t="n">
         <v>7</v>
+      </c>
+      <c r="BI284" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ284" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK284" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>5651561</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E285" s="2" t="n">
+        <v>45045.65625</v>
+      </c>
+      <c r="F285" t="n">
+        <v>6</v>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="I285" t="n">
+        <v>0</v>
+      </c>
+      <c r="J285" t="n">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="n">
+        <v>1</v>
+      </c>
+      <c r="N285" t="n">
+        <v>2</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q285" t="n">
+        <v>1</v>
+      </c>
+      <c r="R285" t="n">
+        <v>3</v>
+      </c>
+      <c r="S285" t="n">
+        <v>4</v>
+      </c>
+      <c r="T285" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U285" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V285" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W285" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X285" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y285" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z285" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA285" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB285" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC285" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD285" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE285" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF285" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG285" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH285" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI285" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ285" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK285" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL285" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM285" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN285" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AO285" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP285" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ285" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR285" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS285" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT285" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU285" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV285" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AW285" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AX285" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AY285" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ285" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA285" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB285" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC285" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD285" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE285" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF285" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG285" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH285" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI285" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ285" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK285" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK285"/>
+  <dimension ref="A1:BK288"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT3" t="n">
         <v>1.18</v>
@@ -2324,7 +2324,7 @@
         <v>1.58</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.74</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT14" t="n">
         <v>1.28</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT23" t="n">
         <v>1.11</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT26" t="n">
         <v>1.12</v>
@@ -5978,7 +5978,7 @@
         <v>0.67</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU27" t="n">
         <v>0.99</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT28" t="n">
         <v>0.74</v>
@@ -6587,7 +6587,7 @@
         <v>1.18</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU30" t="n">
         <v>1.32</v>
@@ -6993,7 +6993,7 @@
         <v>1.47</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5600000000000001</v>
@@ -9426,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT44" t="n">
         <v>0.5</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT45" t="n">
         <v>1.18</v>
@@ -9835,7 +9835,7 @@
         <v>2.61</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU46" t="n">
         <v>2.02</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT54" t="n">
         <v>0.9399999999999999</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT57" t="n">
         <v>0.76</v>
@@ -12474,7 +12474,7 @@
         <v>2.11</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU59" t="n">
         <v>1.85</v>
@@ -12677,7 +12677,7 @@
         <v>2.61</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU60" t="n">
         <v>2.09</v>
@@ -13486,7 +13486,7 @@
         <v>1</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT64" t="n">
         <v>1.06</v>
@@ -14501,7 +14501,7 @@
         <v>2.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT69" t="n">
         <v>1.56</v>
@@ -16128,7 +16128,7 @@
         <v>1.94</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU77" t="n">
         <v>2.06</v>
@@ -17140,7 +17140,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT82" t="n">
         <v>0.5600000000000001</v>
@@ -17343,7 +17343,7 @@
         <v>0.4</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT83" t="n">
         <v>0.95</v>
@@ -17546,10 +17546,10 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU84" t="n">
         <v>1.98</v>
@@ -17752,7 +17752,7 @@
         <v>1.12</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU85" t="n">
         <v>1.67</v>
@@ -17952,10 +17952,10 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU86" t="n">
         <v>1.98</v>
@@ -19982,7 +19982,7 @@
         <v>1.8</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT96" t="n">
         <v>1.5</v>
@@ -20185,7 +20185,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT97" t="n">
         <v>0.9399999999999999</v>
@@ -20594,7 +20594,7 @@
         <v>1.58</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU99" t="n">
         <v>1.3</v>
@@ -21000,7 +21000,7 @@
         <v>1.29</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU101" t="n">
         <v>1.61</v>
@@ -21203,7 +21203,7 @@
         <v>1.12</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU102" t="n">
         <v>1.57</v>
@@ -22012,7 +22012,7 @@
         <v>1.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT106" t="n">
         <v>1.12</v>
@@ -22824,7 +22824,7 @@
         <v>2.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT110" t="n">
         <v>1.56</v>
@@ -23839,10 +23839,10 @@
         <v>1.75</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU115" t="n">
         <v>1.62</v>
@@ -24248,7 +24248,7 @@
         <v>1.37</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU117" t="n">
         <v>2.02</v>
@@ -25463,10 +25463,10 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU123" t="n">
         <v>2.03</v>
@@ -25869,10 +25869,10 @@
         <v>1.17</v>
       </c>
       <c r="AS125" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU125" t="n">
         <v>1.66</v>
@@ -26075,7 +26075,7 @@
         <v>1.44</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU126" t="n">
         <v>1.65</v>
@@ -26884,7 +26884,7 @@
         <v>0.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT130" t="n">
         <v>0.76</v>
@@ -28102,7 +28102,7 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT136" t="n">
         <v>1.28</v>
@@ -28308,7 +28308,7 @@
         <v>1.29</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU137" t="n">
         <v>1.66</v>
@@ -28511,7 +28511,7 @@
         <v>0.67</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU138" t="n">
         <v>1.31</v>
@@ -28714,7 +28714,7 @@
         <v>1.74</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU139" t="n">
         <v>1.72</v>
@@ -28914,7 +28914,7 @@
         <v>0.88</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT140" t="n">
         <v>0.74</v>
@@ -29526,7 +29526,7 @@
         <v>1.47</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU143" t="n">
         <v>1.42</v>
@@ -29729,7 +29729,7 @@
         <v>1.44</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU144" t="n">
         <v>1.7</v>
@@ -30538,7 +30538,7 @@
         <v>0.67</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT148" t="n">
         <v>1.06</v>
@@ -31556,7 +31556,7 @@
         <v>1.37</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU153" t="n">
         <v>1.92</v>
@@ -31959,7 +31959,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT155" t="n">
         <v>0.5</v>
@@ -32165,7 +32165,7 @@
         <v>1.44</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU156" t="n">
         <v>1.68</v>
@@ -32368,7 +32368,7 @@
         <v>1.18</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU157" t="n">
         <v>1.61</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT160" t="n">
         <v>1.12</v>
@@ -33180,7 +33180,7 @@
         <v>1.94</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU161" t="n">
         <v>2.11</v>
@@ -33786,7 +33786,7 @@
         <v>1.1</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT164" t="n">
         <v>0.95</v>
@@ -35004,10 +35004,10 @@
         <v>1.1</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU170" t="n">
         <v>1.79</v>
@@ -35207,7 +35207,7 @@
         <v>1.8</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT171" t="n">
         <v>1.18</v>
@@ -36022,7 +36022,7 @@
         <v>1.47</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU175" t="n">
         <v>1.37</v>
@@ -36428,7 +36428,7 @@
         <v>2.61</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU177" t="n">
         <v>2.01</v>
@@ -36628,7 +36628,7 @@
         <v>1.27</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT178" t="n">
         <v>1.11</v>
@@ -37237,7 +37237,7 @@
         <v>1.55</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT181" t="n">
         <v>1.5</v>
@@ -37849,7 +37849,7 @@
         <v>1.22</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU184" t="n">
         <v>1.34</v>
@@ -38658,10 +38658,10 @@
         <v>1</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU188" t="n">
         <v>1.88</v>
@@ -39067,7 +39067,7 @@
         <v>2.11</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU190" t="n">
         <v>1.87</v>
@@ -39673,7 +39673,7 @@
         <v>0.67</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT193" t="n">
         <v>0.5600000000000001</v>
@@ -39876,7 +39876,7 @@
         <v>0.91</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT194" t="n">
         <v>1.06</v>
@@ -40282,10 +40282,10 @@
         <v>2.17</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU196" t="n">
         <v>1.93</v>
@@ -40691,7 +40691,7 @@
         <v>1.22</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU198" t="n">
         <v>1.31</v>
@@ -42721,7 +42721,7 @@
         <v>1.74</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU208" t="n">
         <v>1.73</v>
@@ -43530,7 +43530,7 @@
         <v>1</v>
       </c>
       <c r="AS212" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT212" t="n">
         <v>0.9399999999999999</v>
@@ -43733,7 +43733,7 @@
         <v>1.15</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT213" t="n">
         <v>0.95</v>
@@ -44142,7 +44142,7 @@
         <v>1.12</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU215" t="n">
         <v>1.44</v>
@@ -44345,7 +44345,7 @@
         <v>1.58</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU216" t="n">
         <v>1.34</v>
@@ -45157,7 +45157,7 @@
         <v>0.67</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU220" t="n">
         <v>1.25</v>
@@ -45357,7 +45357,7 @@
         <v>0.77</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT221" t="n">
         <v>0.74</v>
@@ -46169,7 +46169,7 @@
         <v>1.86</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT225" t="n">
         <v>1.56</v>
@@ -46575,7 +46575,7 @@
         <v>1.21</v>
       </c>
       <c r="AS227" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT227" t="n">
         <v>1.5</v>
@@ -47187,7 +47187,7 @@
         <v>1.29</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU230" t="n">
         <v>1.68</v>
@@ -47593,7 +47593,7 @@
         <v>1.37</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU232" t="n">
         <v>1.82</v>
@@ -47996,7 +47996,7 @@
         <v>0.57</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT234" t="n">
         <v>0.5</v>
@@ -49014,7 +49014,7 @@
         <v>1.18</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU239" t="n">
         <v>1.63</v>
@@ -51041,7 +51041,7 @@
         <v>0.73</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT249" t="n">
         <v>0.74</v>
@@ -51853,7 +51853,7 @@
         <v>1.73</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT253" t="n">
         <v>1.56</v>
@@ -52059,7 +52059,7 @@
         <v>1.12</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU254" t="n">
         <v>1.43</v>
@@ -52259,10 +52259,10 @@
         <v>2</v>
       </c>
       <c r="AS255" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU255" t="n">
         <v>1.88</v>
@@ -52668,7 +52668,7 @@
         <v>1.37</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU257" t="n">
         <v>1.79</v>
@@ -53071,7 +53071,7 @@
         <v>0.93</v>
       </c>
       <c r="AS259" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT259" t="n">
         <v>1.06</v>
@@ -53886,7 +53886,7 @@
         <v>2.11</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU263" t="n">
         <v>1.86</v>
@@ -54495,7 +54495,7 @@
         <v>1.74</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU266" t="n">
         <v>1.72</v>
@@ -55507,7 +55507,7 @@
         <v>1.18</v>
       </c>
       <c r="AS271" t="n">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="AT271" t="n">
         <v>1.11</v>
@@ -56728,7 +56728,7 @@
         <v>2.61</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="AU277" t="n">
         <v>1.92</v>
@@ -57131,10 +57131,10 @@
         <v>1.88</v>
       </c>
       <c r="AS279" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="AU279" t="n">
         <v>1.94</v>
@@ -57334,7 +57334,7 @@
         <v>0.59</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT280" t="n">
         <v>0.5600000000000001</v>
@@ -58185,7 +58185,7 @@
         <v>4.8</v>
       </c>
       <c r="BF284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BG284" t="n">
         <v>2</v>
@@ -58194,13 +58194,13 @@
         <v>7</v>
       </c>
       <c r="BI284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ284" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK284" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="285">
@@ -58404,6 +58404,615 @@
       </c>
       <c r="BK285" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>5651563</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E286" s="2" t="n">
+        <v>45046.625</v>
+      </c>
+      <c r="F286" t="n">
+        <v>6</v>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="I286" t="n">
+        <v>0</v>
+      </c>
+      <c r="J286" t="n">
+        <v>1</v>
+      </c>
+      <c r="K286" t="n">
+        <v>1</v>
+      </c>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="n">
+        <v>2</v>
+      </c>
+      <c r="N286" t="n">
+        <v>3</v>
+      </c>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>['44', '84']</t>
+        </is>
+      </c>
+      <c r="Q286" t="n">
+        <v>12</v>
+      </c>
+      <c r="R286" t="n">
+        <v>4</v>
+      </c>
+      <c r="S286" t="n">
+        <v>16</v>
+      </c>
+      <c r="T286" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U286" t="n">
+        <v>2</v>
+      </c>
+      <c r="V286" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W286" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X286" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Y286" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z286" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA286" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB286" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC286" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD286" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE286" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF286" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG286" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AH286" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI286" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ286" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK286" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL286" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM286" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN286" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AO286" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP286" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ286" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AR286" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS286" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AT286" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AU286" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV286" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AW286" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="AX286" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AY286" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ286" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA286" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB286" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC286" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BD286" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE286" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF286" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG286" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH286" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI286" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ286" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK286" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>5651558</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E287" s="2" t="n">
+        <v>45047.375</v>
+      </c>
+      <c r="F287" t="n">
+        <v>6</v>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="I287" t="n">
+        <v>2</v>
+      </c>
+      <c r="J287" t="n">
+        <v>1</v>
+      </c>
+      <c r="K287" t="n">
+        <v>3</v>
+      </c>
+      <c r="L287" t="n">
+        <v>2</v>
+      </c>
+      <c r="M287" t="n">
+        <v>3</v>
+      </c>
+      <c r="N287" t="n">
+        <v>5</v>
+      </c>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>['23', '41']</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>['18', '87', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q287" t="n">
+        <v>1</v>
+      </c>
+      <c r="R287" t="n">
+        <v>6</v>
+      </c>
+      <c r="S287" t="n">
+        <v>7</v>
+      </c>
+      <c r="T287" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U287" t="n">
+        <v>2</v>
+      </c>
+      <c r="V287" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W287" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X287" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y287" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z287" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA287" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB287" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC287" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD287" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE287" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF287" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG287" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH287" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI287" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ287" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK287" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL287" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM287" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN287" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO287" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP287" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ287" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR287" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS287" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT287" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU287" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AV287" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW287" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX287" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY287" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ287" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BA287" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB287" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC287" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BD287" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BE287" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF287" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG287" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH287" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI287" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ287" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK287" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>5651562</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E288" s="2" t="n">
+        <v>45047.60416666666</v>
+      </c>
+      <c r="F288" t="n">
+        <v>6</v>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="I288" t="n">
+        <v>3</v>
+      </c>
+      <c r="J288" t="n">
+        <v>1</v>
+      </c>
+      <c r="K288" t="n">
+        <v>4</v>
+      </c>
+      <c r="L288" t="n">
+        <v>3</v>
+      </c>
+      <c r="M288" t="n">
+        <v>1</v>
+      </c>
+      <c r="N288" t="n">
+        <v>4</v>
+      </c>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>['9', '12', '45+2']</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="Q288" t="n">
+        <v>2</v>
+      </c>
+      <c r="R288" t="n">
+        <v>12</v>
+      </c>
+      <c r="S288" t="n">
+        <v>14</v>
+      </c>
+      <c r="T288" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U288" t="n">
+        <v>2</v>
+      </c>
+      <c r="V288" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W288" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X288" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y288" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z288" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA288" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB288" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC288" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD288" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE288" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF288" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG288" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH288" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI288" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ288" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK288" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL288" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM288" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN288" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO288" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP288" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ288" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AR288" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS288" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT288" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AU288" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV288" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW288" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX288" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AY288" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ288" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA288" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB288" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BC288" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BD288" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BE288" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF288" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG288" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH288" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK288"/>
+  <dimension ref="A1:BK289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3745,7 +3745,7 @@
         <v>1.18</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT17" t="n">
         <v>1.12</v>
@@ -7599,7 +7599,7 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT35" t="n">
         <v>0.76</v>
@@ -8820,7 +8820,7 @@
         <v>2.61</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU41" t="n">
         <v>1.98</v>
@@ -10238,7 +10238,7 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT48" t="n">
         <v>1.06</v>
@@ -11256,7 +11256,7 @@
         <v>1.94</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU53" t="n">
         <v>2.15</v>
@@ -13689,7 +13689,7 @@
         <v>0.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT65" t="n">
         <v>0.95</v>
@@ -14301,7 +14301,7 @@
         <v>1.12</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU68" t="n">
         <v>1.68</v>
@@ -16734,10 +16734,10 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU80" t="n">
         <v>1.67</v>
@@ -19985,7 +19985,7 @@
         <v>1.58</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU96" t="n">
         <v>1.72</v>
@@ -20997,7 +20997,7 @@
         <v>2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT101" t="n">
         <v>1.72</v>
@@ -23233,7 +23233,7 @@
         <v>1.74</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU112" t="n">
         <v>1.68</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT114" t="n">
         <v>1.28</v>
@@ -25260,7 +25260,7 @@
         <v>0.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT122" t="n">
         <v>0.74</v>
@@ -25669,7 +25669,7 @@
         <v>0.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU124" t="n">
         <v>1.36</v>
@@ -28305,7 +28305,7 @@
         <v>1.13</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT137" t="n">
         <v>1.22</v>
@@ -29120,7 +29120,7 @@
         <v>1.44</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU141" t="n">
         <v>1.68</v>
@@ -29929,7 +29929,7 @@
         <v>1.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT145" t="n">
         <v>1.18</v>
@@ -30338,7 +30338,7 @@
         <v>1.22</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU147" t="n">
         <v>1.18</v>
@@ -34395,7 +34395,7 @@
         <v>1.3</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT167" t="n">
         <v>1.11</v>
@@ -34804,7 +34804,7 @@
         <v>2.11</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU169" t="n">
         <v>1.89</v>
@@ -36831,7 +36831,7 @@
         <v>0.45</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT179" t="n">
         <v>0.5600000000000001</v>
@@ -37240,7 +37240,7 @@
         <v>2.17</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU181" t="n">
         <v>1.94</v>
@@ -40079,7 +40079,7 @@
         <v>1.08</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT195" t="n">
         <v>0.9399999999999999</v>
@@ -41097,7 +41097,7 @@
         <v>1.58</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU200" t="n">
         <v>1.35</v>
@@ -43124,7 +43124,7 @@
         <v>1.77</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT210" t="n">
         <v>1.56</v>
@@ -43330,7 +43330,7 @@
         <v>1.37</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU211" t="n">
         <v>1.83</v>
@@ -46578,7 +46578,7 @@
         <v>2.22</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU227" t="n">
         <v>1.97</v>
@@ -47184,7 +47184,7 @@
         <v>2</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT230" t="n">
         <v>1.84</v>
@@ -49623,7 +49623,7 @@
         <v>1.22</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU242" t="n">
         <v>1.29</v>
@@ -51447,7 +51447,7 @@
         <v>0.67</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT251" t="n">
         <v>0.76</v>
@@ -53480,7 +53480,7 @@
         <v>1.18</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU261" t="n">
         <v>1.63</v>
@@ -54695,7 +54695,7 @@
         <v>0.88</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
       <c r="AT267" t="n">
         <v>0.9399999999999999</v>
@@ -54901,7 +54901,7 @@
         <v>0.67</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AU268" t="n">
         <v>1.26</v>
@@ -58997,22 +58997,225 @@
         <v>4.5</v>
       </c>
       <c r="BF288" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BG288" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BH288" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI288" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ288" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK288" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>5651559</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E289" s="2" t="n">
+        <v>45048.58333333334</v>
+      </c>
+      <c r="F289" t="n">
+        <v>6</v>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="I289" t="n">
+        <v>0</v>
+      </c>
+      <c r="J289" t="n">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="n">
+        <v>0</v>
+      </c>
+      <c r="N289" t="n">
+        <v>1</v>
+      </c>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q289" t="n">
+        <v>9</v>
+      </c>
+      <c r="R289" t="n">
+        <v>2</v>
+      </c>
+      <c r="S289" t="n">
+        <v>11</v>
+      </c>
+      <c r="T289" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U289" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V289" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W289" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X289" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y289" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z289" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA289" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB289" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC289" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD289" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE289" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="AF289" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG289" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH289" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI289" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ289" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK289" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL289" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM289" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN289" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO289" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP289" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ289" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR289" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS289" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT289" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU289" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV289" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW289" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AX289" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AY289" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AZ289" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BA289" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BB289" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BC289" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BD289" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BE289" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF289" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG289" t="n">
         <v>4</v>
       </c>
-      <c r="BI288" t="n">
-        <v>9</v>
-      </c>
-      <c r="BJ288" t="n">
+      <c r="BH289" t="n">
         <v>7</v>
       </c>
-      <c r="BK288" t="n">
-        <v>12</v>
+      <c r="BI289" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ289" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK289" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK289"/>
+  <dimension ref="A1:BK292"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.47</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.94</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT8" t="n">
         <v>0.95</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT11" t="n">
         <v>0.9399999999999999</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT16" t="n">
         <v>1.42</v>
@@ -3948,7 +3948,7 @@
         <v>1.39</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.12</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU18" t="n">
         <v>1.63</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT20" t="n">
         <v>0.5</v>
@@ -4760,7 +4760,7 @@
         <v>2.11</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU21" t="n">
         <v>1.66</v>
@@ -5775,7 +5775,7 @@
         <v>1.58</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU26" t="n">
         <v>1.8</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT30" t="n">
         <v>1.72</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT33" t="n">
         <v>1.56</v>
@@ -7602,7 +7602,7 @@
         <v>1.39</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU35" t="n">
         <v>1.29</v>
@@ -8008,7 +8008,7 @@
         <v>2.17</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU37" t="n">
         <v>1.67</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT40" t="n">
         <v>1.18</v>
@@ -9226,7 +9226,7 @@
         <v>1.74</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU43" t="n">
         <v>1.7</v>
@@ -10035,10 +10035,10 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU47" t="n">
         <v>1.24</v>
@@ -10444,7 +10444,7 @@
         <v>1.58</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU49" t="n">
         <v>1.18</v>
@@ -12068,7 +12068,7 @@
         <v>2.22</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12268,10 +12268,10 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU58" t="n">
         <v>1.66</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT61" t="n">
         <v>0.74</v>
@@ -13286,7 +13286,7 @@
         <v>1.37</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU63" t="n">
         <v>2.04</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT66" t="n">
         <v>1.11</v>
@@ -14704,7 +14704,7 @@
         <v>0.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT70" t="n">
         <v>0.5</v>
@@ -14907,7 +14907,7 @@
         <v>1.2</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT71" t="n">
         <v>1.18</v>
@@ -15113,7 +15113,7 @@
         <v>1.47</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -15925,7 +15925,7 @@
         <v>0.67</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU76" t="n">
         <v>1.22</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT78" t="n">
         <v>1.06</v>
@@ -17143,7 +17143,7 @@
         <v>2.22</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU82" t="n">
         <v>1.4</v>
@@ -18361,7 +18361,7 @@
         <v>2.11</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU88" t="n">
         <v>1.83</v>
@@ -19170,10 +19170,10 @@
         <v>0.83</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU92" t="n">
         <v>1.64</v>
@@ -19373,7 +19373,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT93" t="n">
         <v>1.11</v>
@@ -19576,10 +19576,10 @@
         <v>0.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU94" t="n">
         <v>1.06</v>
@@ -21606,7 +21606,7 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT104" t="n">
         <v>1.06</v>
@@ -21812,7 +21812,7 @@
         <v>2.61</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU105" t="n">
         <v>1.82</v>
@@ -22015,7 +22015,7 @@
         <v>2.17</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU106" t="n">
         <v>2.04</v>
@@ -22215,10 +22215,10 @@
         <v>0.57</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU107" t="n">
         <v>1.67</v>
@@ -23027,7 +23027,7 @@
         <v>0.71</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT111" t="n">
         <v>0.95</v>
@@ -24448,7 +24448,7 @@
         <v>1.13</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT118" t="n">
         <v>0.9399999999999999</v>
@@ -24854,10 +24854,10 @@
         <v>1.29</v>
       </c>
       <c r="AS120" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT120" t="n">
         <v>1.22</v>
-      </c>
-      <c r="AT120" t="n">
-        <v>1.12</v>
       </c>
       <c r="AU120" t="n">
         <v>1.1</v>
@@ -26072,7 +26072,7 @@
         <v>0.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT126" t="n">
         <v>1.22</v>
@@ -26278,7 +26278,7 @@
         <v>2.61</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU127" t="n">
         <v>1.84</v>
@@ -26887,7 +26887,7 @@
         <v>2.17</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU130" t="n">
         <v>1.99</v>
@@ -27699,7 +27699,7 @@
         <v>1.37</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU134" t="n">
         <v>1.9</v>
@@ -27899,7 +27899,7 @@
         <v>2.13</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT135" t="n">
         <v>1.56</v>
@@ -29117,7 +29117,7 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT141" t="n">
         <v>1.42</v>
@@ -29320,7 +29320,7 @@
         <v>1.38</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT142" t="n">
         <v>1.28</v>
@@ -29726,7 +29726,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT144" t="n">
         <v>1.84</v>
@@ -30135,7 +30135,7 @@
         <v>1.58</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU146" t="n">
         <v>1.32</v>
@@ -30335,7 +30335,7 @@
         <v>1.56</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT147" t="n">
         <v>1.42</v>
@@ -31353,7 +31353,7 @@
         <v>1.94</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU152" t="n">
         <v>2.15</v>
@@ -32162,7 +32162,7 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT156" t="n">
         <v>1.72</v>
@@ -32365,7 +32365,7 @@
         <v>1.44</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT157" t="n">
         <v>1.84</v>
@@ -32977,7 +32977,7 @@
         <v>2.22</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU160" t="n">
         <v>1.96</v>
@@ -33380,7 +33380,7 @@
         <v>1.8</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT162" t="n">
         <v>1.56</v>
@@ -33586,7 +33586,7 @@
         <v>1.37</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU163" t="n">
         <v>1.87</v>
@@ -33992,7 +33992,7 @@
         <v>1.12</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU165" t="n">
         <v>1.49</v>
@@ -35413,7 +35413,7 @@
         <v>0.67</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU172" t="n">
         <v>1.28</v>
@@ -35613,7 +35613,7 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT173" t="n">
         <v>1.28</v>
@@ -36222,7 +36222,7 @@
         <v>0.8</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT176" t="n">
         <v>0.74</v>
@@ -36834,7 +36834,7 @@
         <v>1.39</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU179" t="n">
         <v>1.66</v>
@@ -37846,7 +37846,7 @@
         <v>2.09</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT184" t="n">
         <v>1.72</v>
@@ -38049,7 +38049,7 @@
         <v>0.64</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT185" t="n">
         <v>0.5</v>
@@ -38255,7 +38255,7 @@
         <v>1.74</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU186" t="n">
         <v>1.69</v>
@@ -39267,10 +39267,10 @@
         <v>1.09</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU191" t="n">
         <v>1.53</v>
@@ -39676,7 +39676,7 @@
         <v>1.58</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU193" t="n">
         <v>1.85</v>
@@ -40688,7 +40688,7 @@
         <v>1.83</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT198" t="n">
         <v>1.84</v>
@@ -41297,10 +41297,10 @@
         <v>0.5</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU201" t="n">
         <v>1.68</v>
@@ -41909,7 +41909,7 @@
         <v>2.61</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU204" t="n">
         <v>1.93</v>
@@ -42515,7 +42515,7 @@
         <v>1.58</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT207" t="n">
         <v>1.18</v>
@@ -42924,7 +42924,7 @@
         <v>1.74</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU209" t="n">
         <v>1.72</v>
@@ -43936,7 +43936,7 @@
         <v>1.23</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT214" t="n">
         <v>1.28</v>
@@ -44548,7 +44548,7 @@
         <v>1.47</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU217" t="n">
         <v>1.37</v>
@@ -44748,7 +44748,7 @@
         <v>1.08</v>
       </c>
       <c r="AS218" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT218" t="n">
         <v>1.06</v>
@@ -45560,7 +45560,7 @@
         <v>1.23</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT222" t="n">
         <v>1.11</v>
@@ -45969,7 +45969,7 @@
         <v>1.94</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU224" t="n">
         <v>1.97</v>
@@ -47387,7 +47387,7 @@
         <v>0.71</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT231" t="n">
         <v>0.74</v>
@@ -47793,10 +47793,10 @@
         <v>0.64</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU233" t="n">
         <v>1.56</v>
@@ -48202,7 +48202,7 @@
         <v>1.12</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU235" t="n">
         <v>1.43</v>
@@ -49011,7 +49011,7 @@
         <v>1</v>
       </c>
       <c r="AS239" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT239" t="n">
         <v>1.22</v>
@@ -49217,7 +49217,7 @@
         <v>2.11</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU240" t="n">
         <v>1.86</v>
@@ -49620,7 +49620,7 @@
         <v>1.33</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT242" t="n">
         <v>1.42</v>
@@ -50026,7 +50026,7 @@
         <v>1</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT244" t="n">
         <v>0.95</v>
@@ -50841,7 +50841,7 @@
         <v>1.74</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU248" t="n">
         <v>1.72</v>
@@ -51247,7 +51247,7 @@
         <v>1.74</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.12</v>
+        <v>1.22</v>
       </c>
       <c r="AU250" t="n">
         <v>1.74</v>
@@ -51450,7 +51450,7 @@
         <v>1.39</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU251" t="n">
         <v>1.68</v>
@@ -52868,7 +52868,7 @@
         <v>0.5</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.22</v>
+        <v>1.32</v>
       </c>
       <c r="AT258" t="n">
         <v>0.5</v>
@@ -53477,7 +53477,7 @@
         <v>1.31</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT261" t="n">
         <v>1.42</v>
@@ -53680,7 +53680,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT262" t="n">
         <v>0.74</v>
@@ -54089,7 +54089,7 @@
         <v>1.58</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU264" t="n">
         <v>1.38</v>
@@ -55307,7 +55307,7 @@
         <v>1.58</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.76</v>
+        <v>0.78</v>
       </c>
       <c r="AU270" t="n">
         <v>1.35</v>
@@ -56522,7 +56522,7 @@
         <v>1.06</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AT276" t="n">
         <v>1.06</v>
@@ -56928,7 +56928,7 @@
         <v>0.53</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AT278" t="n">
         <v>0.5</v>
@@ -57337,7 +57337,7 @@
         <v>1.58</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU280" t="n">
         <v>1.84</v>
@@ -57537,10 +57537,10 @@
         <v>1.13</v>
       </c>
       <c r="AS281" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT281" t="n">
         <v>1.22</v>
-      </c>
-      <c r="AT281" t="n">
-        <v>1.12</v>
       </c>
       <c r="AU281" t="n">
         <v>1.26</v>
@@ -59216,6 +59216,615 @@
       </c>
       <c r="BK289" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>5651567</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E290" s="2" t="n">
+        <v>45051.47916666666</v>
+      </c>
+      <c r="F290" t="n">
+        <v>7</v>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Mioveni</t>
+        </is>
+      </c>
+      <c r="I290" t="n">
+        <v>1</v>
+      </c>
+      <c r="J290" t="n">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>1</v>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="n">
+        <v>0</v>
+      </c>
+      <c r="N290" t="n">
+        <v>1</v>
+      </c>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q290" t="n">
+        <v>4</v>
+      </c>
+      <c r="R290" t="n">
+        <v>3</v>
+      </c>
+      <c r="S290" t="n">
+        <v>7</v>
+      </c>
+      <c r="T290" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U290" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V290" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W290" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X290" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y290" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z290" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA290" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB290" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD290" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AE290" t="n">
+        <v>18.37</v>
+      </c>
+      <c r="AF290" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG290" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH290" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI290" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ290" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK290" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL290" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM290" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN290" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO290" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP290" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ290" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR290" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS290" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT290" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU290" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV290" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW290" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AX290" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY290" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ290" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA290" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BB290" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC290" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD290" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE290" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="BF290" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG290" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH290" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI290" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ290" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK290" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>5651565</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E291" s="2" t="n">
+        <v>45051.60416666666</v>
+      </c>
+      <c r="F291" t="n">
+        <v>7</v>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="I291" t="n">
+        <v>1</v>
+      </c>
+      <c r="J291" t="n">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>1</v>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="n">
+        <v>2</v>
+      </c>
+      <c r="N291" t="n">
+        <v>3</v>
+      </c>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>['50', '77']</t>
+        </is>
+      </c>
+      <c r="Q291" t="n">
+        <v>8</v>
+      </c>
+      <c r="R291" t="n">
+        <v>4</v>
+      </c>
+      <c r="S291" t="n">
+        <v>12</v>
+      </c>
+      <c r="T291" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="U291" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V291" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W291" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X291" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y291" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z291" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA291" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB291" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC291" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD291" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="AE291" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF291" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG291" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AH291" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI291" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AJ291" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK291" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL291" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM291" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN291" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO291" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP291" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ291" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR291" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS291" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT291" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AU291" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AV291" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW291" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX291" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY291" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ291" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA291" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB291" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC291" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD291" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE291" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF291" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG291" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH291" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI291" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ291" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK291" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>5651566</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E292" s="2" t="n">
+        <v>45052.27083333334</v>
+      </c>
+      <c r="F292" t="n">
+        <v>7</v>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="I292" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" t="n">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" t="n">
+        <v>0</v>
+      </c>
+      <c r="N292" t="n">
+        <v>0</v>
+      </c>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q292" t="n">
+        <v>5</v>
+      </c>
+      <c r="R292" t="n">
+        <v>5</v>
+      </c>
+      <c r="S292" t="n">
+        <v>10</v>
+      </c>
+      <c r="T292" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V292" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W292" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X292" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y292" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z292" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA292" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB292" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD292" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AE292" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AF292" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG292" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH292" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI292" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ292" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK292" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM292" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN292" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO292" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP292" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ292" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR292" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="AS292" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT292" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU292" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV292" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW292" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX292" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY292" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ292" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA292" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB292" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC292" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BD292" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE292" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BF292" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG292" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH292" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI292" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ292" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK292" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK292"/>
+  <dimension ref="A1:BK293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>2.11</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT6" t="n">
         <v>1.06</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT19" t="n">
         <v>0.95</v>
@@ -5166,7 +5166,7 @@
         <v>2.17</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU23" t="n">
         <v>1.65</v>
@@ -7805,7 +7805,7 @@
         <v>1.58</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT41" t="n">
         <v>1.42</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT46" t="n">
         <v>1.22</v>
@@ -10647,7 +10647,7 @@
         <v>1.37</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU50" t="n">
         <v>1.75</v>
@@ -12674,7 +12674,7 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT60" t="n">
         <v>1.84</v>
@@ -13895,7 +13895,7 @@
         <v>1.32</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU66" t="n">
         <v>1.11</v>
@@ -15316,7 +15316,7 @@
         <v>1.74</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU73" t="n">
         <v>1.75</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT74" t="n">
         <v>0.74</v>
@@ -18764,7 +18764,7 @@
         <v>0.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT90" t="n">
         <v>0.5</v>
@@ -19376,7 +19376,7 @@
         <v>1.11</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU93" t="n">
         <v>1.71</v>
@@ -21406,7 +21406,7 @@
         <v>1.47</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU103" t="n">
         <v>1.38</v>
@@ -21809,7 +21809,7 @@
         <v>0.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT105" t="n">
         <v>0.78</v>
@@ -26275,7 +26275,7 @@
         <v>0.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT127" t="n">
         <v>0.53</v>
@@ -27293,7 +27293,7 @@
         <v>1.94</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU132" t="n">
         <v>2.22</v>
@@ -30741,7 +30741,7 @@
         <v>1.11</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT149" t="n">
         <v>0.9399999999999999</v>
@@ -31150,7 +31150,7 @@
         <v>1.12</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU151" t="n">
         <v>1.43</v>
@@ -34398,7 +34398,7 @@
         <v>1.39</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU167" t="n">
         <v>1.68</v>
@@ -36425,7 +36425,7 @@
         <v>2</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT177" t="n">
         <v>1.72</v>
@@ -36631,7 +36631,7 @@
         <v>1.58</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU178" t="n">
         <v>1.89</v>
@@ -39470,7 +39470,7 @@
         <v>1.36</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT192" t="n">
         <v>1.28</v>
@@ -41503,7 +41503,7 @@
         <v>0.67</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU202" t="n">
         <v>1.32</v>
@@ -41906,7 +41906,7 @@
         <v>1</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT204" t="n">
         <v>1.22</v>
@@ -44951,7 +44951,7 @@
         <v>1.54</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT219" t="n">
         <v>1.18</v>
@@ -45563,7 +45563,7 @@
         <v>1.42</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU222" t="n">
         <v>1.58</v>
@@ -48402,10 +48402,10 @@
         <v>1.36</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU236" t="n">
         <v>1.96</v>
@@ -50432,7 +50432,7 @@
         <v>1.33</v>
       </c>
       <c r="AS246" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT246" t="n">
         <v>1.18</v>
@@ -50638,7 +50638,7 @@
         <v>2.11</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU247" t="n">
         <v>1.9</v>
@@ -53274,7 +53274,7 @@
         <v>1.25</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT260" t="n">
         <v>1.28</v>
@@ -54292,7 +54292,7 @@
         <v>1.37</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU265" t="n">
         <v>1.73</v>
@@ -55510,7 +55510,7 @@
         <v>2.17</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="AU271" t="n">
         <v>1.86</v>
@@ -56725,7 +56725,7 @@
         <v>1.94</v>
       </c>
       <c r="AS277" t="n">
-        <v>2.61</v>
+        <v>2.63</v>
       </c>
       <c r="AT277" t="n">
         <v>1.72</v>
@@ -59825,6 +59825,209 @@
       </c>
       <c r="BK292" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>5651569</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E293" s="2" t="n">
+        <v>45052.64583333334</v>
+      </c>
+      <c r="F293" t="n">
+        <v>7</v>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="I293" t="n">
+        <v>4</v>
+      </c>
+      <c r="J293" t="n">
+        <v>0</v>
+      </c>
+      <c r="K293" t="n">
+        <v>4</v>
+      </c>
+      <c r="L293" t="n">
+        <v>7</v>
+      </c>
+      <c r="M293" t="n">
+        <v>2</v>
+      </c>
+      <c r="N293" t="n">
+        <v>9</v>
+      </c>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>['3', '23', '27', '45', '61', '74', '76']</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>['58', '86']</t>
+        </is>
+      </c>
+      <c r="Q293" t="n">
+        <v>3</v>
+      </c>
+      <c r="R293" t="n">
+        <v>7</v>
+      </c>
+      <c r="S293" t="n">
+        <v>10</v>
+      </c>
+      <c r="T293" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U293" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V293" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W293" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X293" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y293" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z293" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA293" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB293" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC293" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD293" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE293" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF293" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG293" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH293" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI293" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ293" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK293" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL293" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM293" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN293" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO293" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP293" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ293" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AR293" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS293" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AT293" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AU293" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV293" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW293" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX293" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY293" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ293" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA293" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB293" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC293" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD293" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE293" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF293" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG293" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH293" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI293" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ293" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK293" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK293"/>
+  <dimension ref="A1:BK297"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT2" t="n">
         <v>0.53</v>
@@ -1106,7 +1106,7 @@
         <v>2.17</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT5" t="n">
         <v>1.05</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0.78</v>
@@ -3339,7 +3339,7 @@
         <v>1.58</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT18" t="n">
         <v>0.78</v>
@@ -4557,7 +4557,7 @@
         <v>1.32</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU20" t="n">
         <v>1.27</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT21" t="n">
         <v>0.53</v>
@@ -4963,7 +4963,7 @@
         <v>1.58</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU22" t="n">
         <v>1.32</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>1.06</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT25" t="n">
         <v>0.9399999999999999</v>
@@ -6384,7 +6384,7 @@
         <v>1.37</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU29" t="n">
         <v>2.09</v>
@@ -6790,7 +6790,7 @@
         <v>1.74</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT32" t="n">
         <v>1.22</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT34" t="n">
         <v>1.06</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT38" t="n">
         <v>0.9399999999999999</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT39" t="n">
         <v>0.95</v>
@@ -8617,7 +8617,7 @@
         <v>1.32</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU40" t="n">
         <v>1.45</v>
@@ -9429,7 +9429,7 @@
         <v>2.22</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU44" t="n">
         <v>1.52</v>
@@ -9632,7 +9632,7 @@
         <v>1.58</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU45" t="n">
         <v>1.57</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT51" t="n">
         <v>0.95</v>
@@ -11050,7 +11050,7 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT52" t="n">
         <v>1.56</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT53" t="n">
         <v>1.42</v>
@@ -11662,7 +11662,7 @@
         <v>0.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU55" t="n">
         <v>1.1</v>
@@ -11865,7 +11865,7 @@
         <v>1.74</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU56" t="n">
         <v>1.87</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT59" t="n">
         <v>1.22</v>
@@ -13080,10 +13080,10 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU62" t="n">
         <v>1.44</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT68" t="n">
         <v>1.42</v>
@@ -14707,7 +14707,7 @@
         <v>1.42</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU70" t="n">
         <v>1.69</v>
@@ -14910,7 +14910,7 @@
         <v>1.11</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU71" t="n">
         <v>1.9</v>
@@ -15110,7 +15110,7 @@
         <v>2.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT72" t="n">
         <v>1.22</v>
@@ -15719,10 +15719,10 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU75" t="n">
         <v>1.88</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT77" t="n">
         <v>1.22</v>
@@ -17749,7 +17749,7 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT85" t="n">
         <v>1.72</v>
@@ -18358,7 +18358,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT88" t="n">
         <v>1.22</v>
@@ -18561,10 +18561,10 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU89" t="n">
         <v>1.42</v>
@@ -18767,7 +18767,7 @@
         <v>2.63</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU90" t="n">
         <v>1.95</v>
@@ -18967,7 +18967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT91" t="n">
         <v>0.74</v>
@@ -19779,10 +19779,10 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU95" t="n">
         <v>1.61</v>
@@ -21200,7 +21200,7 @@
         <v>0.83</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT102" t="n">
         <v>1.22</v>
@@ -21403,7 +21403,7 @@
         <v>1.29</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT103" t="n">
         <v>1.05</v>
@@ -22418,10 +22418,10 @@
         <v>0.71</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU108" t="n">
         <v>2.28</v>
@@ -22621,10 +22621,10 @@
         <v>1.71</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU109" t="n">
         <v>1.85</v>
@@ -23639,7 +23639,7 @@
         <v>1.39</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU114" t="n">
         <v>1.58</v>
@@ -25060,7 +25060,7 @@
         <v>1.37</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU121" t="n">
         <v>1.9</v>
@@ -26478,10 +26478,10 @@
         <v>1.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -26684,7 +26684,7 @@
         <v>1.58</v>
       </c>
       <c r="AT129" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU129" t="n">
         <v>1.31</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT131" t="n">
         <v>0.95</v>
@@ -27290,7 +27290,7 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT132" t="n">
         <v>1.05</v>
@@ -27493,7 +27493,7 @@
         <v>0.75</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT133" t="n">
         <v>1.06</v>
@@ -28105,7 +28105,7 @@
         <v>2.22</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU136" t="n">
         <v>2</v>
@@ -29323,7 +29323,7 @@
         <v>1.11</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU142" t="n">
         <v>1.67</v>
@@ -29523,7 +29523,7 @@
         <v>1.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT143" t="n">
         <v>1.72</v>
@@ -29932,7 +29932,7 @@
         <v>1.39</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU145" t="n">
         <v>1.75</v>
@@ -30944,7 +30944,7 @@
         <v>1.22</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT150" t="n">
         <v>0.95</v>
@@ -31147,7 +31147,7 @@
         <v>1.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT151" t="n">
         <v>1.05</v>
@@ -31350,7 +31350,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT152" t="n">
         <v>0.53</v>
@@ -31756,7 +31756,7 @@
         <v>2</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT154" t="n">
         <v>1.56</v>
@@ -31962,7 +31962,7 @@
         <v>1.58</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU155" t="n">
         <v>1.74</v>
@@ -32774,7 +32774,7 @@
         <v>0.67</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU159" t="n">
         <v>1.31</v>
@@ -33177,7 +33177,7 @@
         <v>1.89</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT161" t="n">
         <v>1.72</v>
@@ -33989,7 +33989,7 @@
         <v>0.4</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT165" t="n">
         <v>0.53</v>
@@ -34598,7 +34598,7 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT168" t="n">
         <v>0.9399999999999999</v>
@@ -34801,7 +34801,7 @@
         <v>1.4</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT169" t="n">
         <v>1.42</v>
@@ -35210,7 +35210,7 @@
         <v>2.22</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU171" t="n">
         <v>1.96</v>
@@ -35616,7 +35616,7 @@
         <v>1.42</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU173" t="n">
         <v>1.6</v>
@@ -35819,7 +35819,7 @@
         <v>1.74</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU174" t="n">
         <v>1.72</v>
@@ -36019,7 +36019,7 @@
         <v>1.6</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT175" t="n">
         <v>1.84</v>
@@ -37440,7 +37440,7 @@
         <v>0.91</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT182" t="n">
         <v>0.9399999999999999</v>
@@ -37643,7 +37643,7 @@
         <v>1.73</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT183" t="n">
         <v>1.56</v>
@@ -38052,7 +38052,7 @@
         <v>1.11</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU185" t="n">
         <v>1.65</v>
@@ -38455,7 +38455,7 @@
         <v>0.82</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT187" t="n">
         <v>0.74</v>
@@ -38864,7 +38864,7 @@
         <v>0.67</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU189" t="n">
         <v>1.31</v>
@@ -39064,7 +39064,7 @@
         <v>1.73</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT190" t="n">
         <v>1.84</v>
@@ -39473,7 +39473,7 @@
         <v>2.63</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU192" t="n">
         <v>1.91</v>
@@ -40485,7 +40485,7 @@
         <v>1.83</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT197" t="n">
         <v>1.56</v>
@@ -41703,10 +41703,10 @@
         <v>0.58</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT203" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU203" t="n">
         <v>1.39</v>
@@ -42109,7 +42109,7 @@
         <v>0.83</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT205" t="n">
         <v>0.74</v>
@@ -42312,10 +42312,10 @@
         <v>1.25</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU206" t="n">
         <v>2</v>
@@ -42518,7 +42518,7 @@
         <v>1.42</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU207" t="n">
         <v>1.54</v>
@@ -43939,7 +43939,7 @@
         <v>1.32</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU214" t="n">
         <v>1.27</v>
@@ -44139,7 +44139,7 @@
         <v>1.92</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT215" t="n">
         <v>1.84</v>
@@ -44545,7 +44545,7 @@
         <v>0.54</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT217" t="n">
         <v>0.78</v>
@@ -44954,7 +44954,7 @@
         <v>2.63</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU219" t="n">
         <v>1.92</v>
@@ -45763,10 +45763,10 @@
         <v>0.62</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU223" t="n">
         <v>1.85</v>
@@ -45966,7 +45966,7 @@
         <v>0.92</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT224" t="n">
         <v>1.22</v>
@@ -46984,7 +46984,7 @@
         <v>1.58</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU229" t="n">
         <v>1.34</v>
@@ -47999,7 +47999,7 @@
         <v>2.17</v>
       </c>
       <c r="AT234" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU234" t="n">
         <v>1.88</v>
@@ -48199,7 +48199,7 @@
         <v>0.86</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT235" t="n">
         <v>1.22</v>
@@ -48605,7 +48605,7 @@
         <v>1.08</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT237" t="n">
         <v>1.06</v>
@@ -48808,10 +48808,10 @@
         <v>1.43</v>
       </c>
       <c r="AS238" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU238" t="n">
         <v>1.99</v>
@@ -49214,7 +49214,7 @@
         <v>0.71</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT240" t="n">
         <v>0.78</v>
@@ -49826,7 +49826,7 @@
         <v>1.58</v>
       </c>
       <c r="AT243" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU243" t="n">
         <v>1.37</v>
@@ -50229,10 +50229,10 @@
         <v>1.27</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU245" t="n">
         <v>1.99</v>
@@ -50435,7 +50435,7 @@
         <v>2.63</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU246" t="n">
         <v>1.96</v>
@@ -50635,7 +50635,7 @@
         <v>1.27</v>
       </c>
       <c r="AS247" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT247" t="n">
         <v>1.05</v>
@@ -51650,7 +51650,7 @@
         <v>0.87</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT252" t="n">
         <v>0.9399999999999999</v>
@@ -52056,7 +52056,7 @@
         <v>1</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT254" t="n">
         <v>1.22</v>
@@ -52871,7 +52871,7 @@
         <v>1.32</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU258" t="n">
         <v>1.26</v>
@@ -53277,7 +53277,7 @@
         <v>2.63</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU260" t="n">
         <v>1.94</v>
@@ -53883,7 +53883,7 @@
         <v>1.94</v>
       </c>
       <c r="AS263" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT263" t="n">
         <v>1.84</v>
@@ -55101,10 +55101,10 @@
         <v>1.25</v>
       </c>
       <c r="AS269" t="n">
-        <v>2.11</v>
+        <v>2.05</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AU269" t="n">
         <v>1.88</v>
@@ -55710,7 +55710,7 @@
         <v>1.06</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="AT272" t="n">
         <v>0.95</v>
@@ -55913,7 +55913,7 @@
         <v>1.69</v>
       </c>
       <c r="AS273" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="AT273" t="n">
         <v>1.56</v>
@@ -56119,7 +56119,7 @@
         <v>1.37</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="AU274" t="n">
         <v>1.77</v>
@@ -56319,7 +56319,7 @@
         <v>0.65</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AT275" t="n">
         <v>0.74</v>
@@ -56931,7 +56931,7 @@
         <v>1.11</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.5</v>
+        <v>0.53</v>
       </c>
       <c r="AU278" t="n">
         <v>1.64</v>
@@ -60012,7 +60012,7 @@
         <v>5</v>
       </c>
       <c r="BF293" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BG293" t="n">
         <v>4</v>
@@ -60024,10 +60024,822 @@
         <v>5</v>
       </c>
       <c r="BJ293" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BK293" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>5651570</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E294" s="2" t="n">
+        <v>45053.625</v>
+      </c>
+      <c r="F294" t="n">
+        <v>7</v>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="I294" t="n">
+        <v>0</v>
+      </c>
+      <c r="J294" t="n">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="n">
+        <v>1</v>
+      </c>
+      <c r="N294" t="n">
+        <v>2</v>
+      </c>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="Q294" t="n">
+        <v>4</v>
+      </c>
+      <c r="R294" t="n">
+        <v>6</v>
+      </c>
+      <c r="S294" t="n">
+        <v>10</v>
+      </c>
+      <c r="T294" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U294" t="n">
+        <v>2</v>
+      </c>
+      <c r="V294" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W294" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X294" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y294" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Z294" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA294" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AB294" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC294" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD294" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE294" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF294" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG294" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AH294" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI294" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ294" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK294" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL294" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM294" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN294" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO294" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP294" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ294" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR294" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS294" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AT294" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AU294" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AV294" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW294" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AX294" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AY294" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ294" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BA294" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB294" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BC294" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BD294" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BE294" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BF294" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG294" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH294" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI294" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ294" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK294" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>5651564</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E295" s="2" t="n">
+        <v>45054.4375</v>
+      </c>
+      <c r="F295" t="n">
+        <v>7</v>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>U Craiova 1948</t>
+        </is>
+      </c>
+      <c r="I295" t="n">
+        <v>0</v>
+      </c>
+      <c r="J295" t="n">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0</v>
+      </c>
+      <c r="M295" t="n">
+        <v>0</v>
+      </c>
+      <c r="N295" t="n">
+        <v>0</v>
+      </c>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q295" t="n">
+        <v>9</v>
+      </c>
+      <c r="R295" t="n">
+        <v>3</v>
+      </c>
+      <c r="S295" t="n">
+        <v>12</v>
+      </c>
+      <c r="T295" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U295" t="n">
+        <v>2</v>
+      </c>
+      <c r="V295" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W295" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X295" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y295" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z295" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA295" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB295" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC295" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD295" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE295" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AF295" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG295" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH295" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI295" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ295" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK295" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL295" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM295" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN295" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO295" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP295" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ295" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AR295" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS295" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT295" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AU295" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AV295" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AW295" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX295" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AY295" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ295" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA295" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB295" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC295" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BD295" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BE295" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF295" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG295" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH295" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI295" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ295" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK295" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>5651568</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E296" s="2" t="n">
+        <v>45054.52083333334</v>
+      </c>
+      <c r="F296" t="n">
+        <v>7</v>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="I296" t="n">
+        <v>0</v>
+      </c>
+      <c r="J296" t="n">
+        <v>2</v>
+      </c>
+      <c r="K296" t="n">
+        <v>2</v>
+      </c>
+      <c r="L296" t="n">
+        <v>2</v>
+      </c>
+      <c r="M296" t="n">
+        <v>2</v>
+      </c>
+      <c r="N296" t="n">
+        <v>4</v>
+      </c>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>['80', '90+14']</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>['27', '45']</t>
+        </is>
+      </c>
+      <c r="Q296" t="n">
+        <v>4</v>
+      </c>
+      <c r="R296" t="n">
+        <v>1</v>
+      </c>
+      <c r="S296" t="n">
+        <v>5</v>
+      </c>
+      <c r="T296" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U296" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V296" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W296" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X296" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y296" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z296" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA296" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB296" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC296" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD296" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AE296" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AF296" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG296" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH296" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI296" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ296" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK296" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL296" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM296" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN296" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO296" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP296" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ296" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AR296" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS296" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT296" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU296" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AV296" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW296" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX296" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AY296" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ296" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BA296" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BB296" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BC296" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD296" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="BE296" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="BF296" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG296" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH296" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI296" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ296" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK296" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>5651571</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E297" s="2" t="n">
+        <v>45054.625</v>
+      </c>
+      <c r="F297" t="n">
+        <v>7</v>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="I297" t="n">
+        <v>1</v>
+      </c>
+      <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>1</v>
+      </c>
+      <c r="L297" t="n">
+        <v>3</v>
+      </c>
+      <c r="M297" t="n">
+        <v>1</v>
+      </c>
+      <c r="N297" t="n">
+        <v>4</v>
+      </c>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>['28', '74', '79']</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="Q297" t="n">
+        <v>5</v>
+      </c>
+      <c r="R297" t="n">
+        <v>6</v>
+      </c>
+      <c r="S297" t="n">
+        <v>11</v>
+      </c>
+      <c r="T297" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U297" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V297" t="n">
+        <v>5</v>
+      </c>
+      <c r="W297" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X297" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y297" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z297" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA297" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB297" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC297" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD297" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE297" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF297" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG297" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH297" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI297" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ297" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AK297" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL297" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM297" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN297" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO297" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP297" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ297" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AR297" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AS297" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT297" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU297" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AV297" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW297" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX297" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY297" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ297" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="BA297" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB297" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC297" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BD297" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE297" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF297" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG297" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH297" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI297" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ297" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK297" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -60824,22 +60824,22 @@
         <v>3.74</v>
       </c>
       <c r="BF297" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BG297" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH297" t="n">
         <v>5</v>
       </c>
       <c r="BI297" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BJ297" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK297" t="n">
         <v>10</v>
-      </c>
-      <c r="BK297" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK297"/>
+  <dimension ref="A1:BK300"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>1.22</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT15" t="n">
         <v>1.84</v>
@@ -3745,7 +3745,7 @@
         <v>1.11</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT20" t="n">
         <v>0.53</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT22" t="n">
         <v>1.11</v>
@@ -5572,7 +5572,7 @@
         <v>1.44</v>
       </c>
       <c r="AT25" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU25" t="n">
         <v>1.65</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT28" t="n">
         <v>0.74</v>
@@ -7802,7 +7802,7 @@
         <v>1.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
         <v>1.05</v>
@@ -8211,7 +8211,7 @@
         <v>2.05</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU38" t="n">
         <v>1.89</v>
@@ -8614,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT40" t="n">
         <v>1.11</v>
@@ -8820,7 +8820,7 @@
         <v>2.63</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU41" t="n">
         <v>1.98</v>
@@ -9426,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT44" t="n">
         <v>0.53</v>
@@ -10035,7 +10035,7 @@
         <v>0.33</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT47" t="n">
         <v>0.78</v>
@@ -10441,7 +10441,7 @@
         <v>0</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
         <v>0.53</v>
@@ -11256,7 +11256,7 @@
         <v>2</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU53" t="n">
         <v>2.15</v>
@@ -11459,7 +11459,7 @@
         <v>2.17</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU54" t="n">
         <v>1.81</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT57" t="n">
         <v>0.78</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT66" t="n">
         <v>1.05</v>
@@ -14095,10 +14095,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU67" t="n">
         <v>1.21</v>
@@ -14301,7 +14301,7 @@
         <v>1.11</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU68" t="n">
         <v>1.68</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT78" t="n">
         <v>1.06</v>
@@ -16531,7 +16531,7 @@
         <v>1.75</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT79" t="n">
         <v>1.56</v>
@@ -16737,7 +16737,7 @@
         <v>1.39</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.67</v>
@@ -16940,7 +16940,7 @@
         <v>1.37</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU81" t="n">
         <v>1.91</v>
@@ -17140,7 +17140,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT82" t="n">
         <v>0.53</v>
@@ -19576,7 +19576,7 @@
         <v>0.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT94" t="n">
         <v>0.53</v>
@@ -19985,7 +19985,7 @@
         <v>1.58</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU96" t="n">
         <v>1.72</v>
@@ -20185,10 +20185,10 @@
         <v>1.17</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU97" t="n">
         <v>1.64</v>
@@ -20591,7 +20591,7 @@
         <v>0.25</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT99" t="n">
         <v>1.84</v>
@@ -22824,7 +22824,7 @@
         <v>2.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT110" t="n">
         <v>1.56</v>
@@ -23027,7 +23027,7 @@
         <v>0.71</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT111" t="n">
         <v>0.95</v>
@@ -23233,7 +23233,7 @@
         <v>1.74</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU112" t="n">
         <v>1.68</v>
@@ -23436,7 +23436,7 @@
         <v>0.67</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU113" t="n">
         <v>1.35</v>
@@ -24042,7 +24042,7 @@
         <v>0.67</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT116" t="n">
         <v>0.74</v>
@@ -24451,7 +24451,7 @@
         <v>1.11</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU118" t="n">
         <v>1.71</v>
@@ -24854,7 +24854,7 @@
         <v>1.29</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT120" t="n">
         <v>1.22</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT123" t="n">
         <v>1.72</v>
@@ -25669,7 +25669,7 @@
         <v>0.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU124" t="n">
         <v>1.36</v>
@@ -26681,7 +26681,7 @@
         <v>0.63</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT129" t="n">
         <v>0.53</v>
@@ -28102,7 +28102,7 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT136" t="n">
         <v>1.26</v>
@@ -29120,7 +29120,7 @@
         <v>1.42</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU141" t="n">
         <v>1.68</v>
@@ -30132,7 +30132,7 @@
         <v>0.67</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT146" t="n">
         <v>0.78</v>
@@ -30335,10 +30335,10 @@
         <v>1.56</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU147" t="n">
         <v>1.18</v>
@@ -30744,7 +30744,7 @@
         <v>2.63</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU149" t="n">
         <v>1.88</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT160" t="n">
         <v>1.22</v>
@@ -33380,7 +33380,7 @@
         <v>1.8</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT162" t="n">
         <v>1.56</v>
@@ -34192,7 +34192,7 @@
         <v>0.9</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT166" t="n">
         <v>1.06</v>
@@ -34601,7 +34601,7 @@
         <v>2</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU168" t="n">
         <v>2.05</v>
@@ -34804,7 +34804,7 @@
         <v>2.05</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU169" t="n">
         <v>1.89</v>
@@ -35207,7 +35207,7 @@
         <v>1.8</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT171" t="n">
         <v>1.11</v>
@@ -37034,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT180" t="n">
         <v>0.95</v>
@@ -37240,7 +37240,7 @@
         <v>2.17</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU181" t="n">
         <v>1.94</v>
@@ -37443,7 +37443,7 @@
         <v>1.11</v>
       </c>
       <c r="AT182" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU182" t="n">
         <v>1.52</v>
@@ -37846,7 +37846,7 @@
         <v>2.09</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT184" t="n">
         <v>1.72</v>
@@ -38658,7 +38658,7 @@
         <v>1</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT188" t="n">
         <v>1.22</v>
@@ -39876,7 +39876,7 @@
         <v>0.91</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT194" t="n">
         <v>1.06</v>
@@ -40082,7 +40082,7 @@
         <v>1.39</v>
       </c>
       <c r="AT195" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU195" t="n">
         <v>1.71</v>
@@ -40688,7 +40688,7 @@
         <v>1.83</v>
       </c>
       <c r="AS198" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT198" t="n">
         <v>1.84</v>
@@ -41094,10 +41094,10 @@
         <v>1.42</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU200" t="n">
         <v>1.35</v>
@@ -43330,7 +43330,7 @@
         <v>1.37</v>
       </c>
       <c r="AT211" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU211" t="n">
         <v>1.83</v>
@@ -43533,7 +43533,7 @@
         <v>1.58</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU212" t="n">
         <v>1.91</v>
@@ -43733,7 +43733,7 @@
         <v>1.15</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT213" t="n">
         <v>0.95</v>
@@ -43936,7 +43936,7 @@
         <v>1.23</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT214" t="n">
         <v>1.26</v>
@@ -44342,7 +44342,7 @@
         <v>2</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT216" t="n">
         <v>1.72</v>
@@ -46375,7 +46375,7 @@
         <v>1.74</v>
       </c>
       <c r="AT226" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU226" t="n">
         <v>1.72</v>
@@ -46575,10 +46575,10 @@
         <v>1.21</v>
       </c>
       <c r="AS227" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT227" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU227" t="n">
         <v>1.97</v>
@@ -46981,7 +46981,7 @@
         <v>1.14</v>
       </c>
       <c r="AS229" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT229" t="n">
         <v>1.26</v>
@@ -47387,7 +47387,7 @@
         <v>0.71</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT231" t="n">
         <v>0.74</v>
@@ -49620,10 +49620,10 @@
         <v>1.33</v>
       </c>
       <c r="AS242" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT242" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU242" t="n">
         <v>1.29</v>
@@ -49823,7 +49823,7 @@
         <v>0.53</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT243" t="n">
         <v>0.53</v>
@@ -51653,7 +51653,7 @@
         <v>1.44</v>
       </c>
       <c r="AT252" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU252" t="n">
         <v>1.4</v>
@@ -51853,7 +51853,7 @@
         <v>1.73</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT253" t="n">
         <v>1.56</v>
@@ -52868,7 +52868,7 @@
         <v>0.5</v>
       </c>
       <c r="AS258" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT258" t="n">
         <v>0.53</v>
@@ -53480,7 +53480,7 @@
         <v>1.11</v>
       </c>
       <c r="AT261" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU261" t="n">
         <v>1.63</v>
@@ -54086,7 +54086,7 @@
         <v>0.63</v>
       </c>
       <c r="AS264" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT264" t="n">
         <v>0.53</v>
@@ -54698,7 +54698,7 @@
         <v>1.39</v>
       </c>
       <c r="AT267" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU267" t="n">
         <v>1.65</v>
@@ -54901,7 +54901,7 @@
         <v>0.67</v>
       </c>
       <c r="AT268" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU268" t="n">
         <v>1.26</v>
@@ -55304,7 +55304,7 @@
         <v>0.63</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT270" t="n">
         <v>0.78</v>
@@ -57131,7 +57131,7 @@
         <v>1.88</v>
       </c>
       <c r="AS279" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT279" t="n">
         <v>1.84</v>
@@ -57537,7 +57537,7 @@
         <v>1.13</v>
       </c>
       <c r="AS281" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT281" t="n">
         <v>1.22</v>
@@ -58146,10 +58146,10 @@
         <v>1</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="AT284" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU284" t="n">
         <v>1.36</v>
@@ -58958,7 +58958,7 @@
         <v>1.82</v>
       </c>
       <c r="AS288" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="AT288" t="n">
         <v>1.72</v>
@@ -59164,7 +59164,7 @@
         <v>1.39</v>
       </c>
       <c r="AT289" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AU289" t="n">
         <v>1.63</v>
@@ -59364,7 +59364,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
       <c r="AT290" t="n">
         <v>0.53</v>
@@ -60840,6 +60840,615 @@
       </c>
       <c r="BK297" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>5651575</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E298" s="2" t="n">
+        <v>45058.47916666666</v>
+      </c>
+      <c r="F298" t="n">
+        <v>8</v>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="I298" t="n">
+        <v>1</v>
+      </c>
+      <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>1</v>
+      </c>
+      <c r="L298" t="n">
+        <v>2</v>
+      </c>
+      <c r="M298" t="n">
+        <v>0</v>
+      </c>
+      <c r="N298" t="n">
+        <v>2</v>
+      </c>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>['23', '90+4']</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q298" t="n">
+        <v>5</v>
+      </c>
+      <c r="R298" t="n">
+        <v>9</v>
+      </c>
+      <c r="S298" t="n">
+        <v>14</v>
+      </c>
+      <c r="T298" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U298" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V298" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W298" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X298" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Y298" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z298" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA298" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB298" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC298" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AD298" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE298" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF298" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG298" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH298" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI298" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ298" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK298" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL298" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM298" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN298" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO298" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP298" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ298" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AR298" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AS298" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT298" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU298" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV298" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW298" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AX298" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY298" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ298" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="BA298" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB298" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC298" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BD298" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BE298" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BF298" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG298" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH298" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI298" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ298" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK298" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>5651579</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E299" s="2" t="n">
+        <v>45058.60416666666</v>
+      </c>
+      <c r="F299" t="n">
+        <v>8</v>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="I299" t="n">
+        <v>0</v>
+      </c>
+      <c r="J299" t="n">
+        <v>0</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0</v>
+      </c>
+      <c r="M299" t="n">
+        <v>0</v>
+      </c>
+      <c r="N299" t="n">
+        <v>0</v>
+      </c>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q299" t="n">
+        <v>6</v>
+      </c>
+      <c r="R299" t="n">
+        <v>5</v>
+      </c>
+      <c r="S299" t="n">
+        <v>11</v>
+      </c>
+      <c r="T299" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U299" t="n">
+        <v>2</v>
+      </c>
+      <c r="V299" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W299" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X299" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Y299" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z299" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA299" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB299" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC299" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD299" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE299" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AF299" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH299" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI299" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ299" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK299" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL299" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM299" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN299" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO299" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP299" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ299" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR299" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS299" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AT299" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU299" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AV299" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW299" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="AX299" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY299" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ299" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA299" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB299" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC299" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD299" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE299" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF299" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG299" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH299" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI299" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ299" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK299" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>5651573</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E300" s="2" t="n">
+        <v>45059.35416666666</v>
+      </c>
+      <c r="F300" t="n">
+        <v>8</v>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="I300" t="n">
+        <v>0</v>
+      </c>
+      <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0</v>
+      </c>
+      <c r="M300" t="n">
+        <v>1</v>
+      </c>
+      <c r="N300" t="n">
+        <v>1</v>
+      </c>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="Q300" t="n">
+        <v>0</v>
+      </c>
+      <c r="R300" t="n">
+        <v>0</v>
+      </c>
+      <c r="S300" t="n">
+        <v>0</v>
+      </c>
+      <c r="T300" t="n">
+        <v>3</v>
+      </c>
+      <c r="U300" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V300" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W300" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X300" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Y300" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z300" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA300" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB300" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC300" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD300" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE300" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF300" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG300" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH300" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AI300" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AJ300" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AK300" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL300" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM300" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN300" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO300" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP300" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AQ300" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR300" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS300" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT300" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU300" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV300" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW300" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX300" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY300" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ300" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BA300" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BB300" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC300" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD300" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BE300" t="n">
+        <v>5</v>
+      </c>
+      <c r="BF300" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG300" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH300" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI300" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ300" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK300" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK305"/>
+  <dimension ref="A1:BK311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT4" t="n">
         <v>0.65</v>
@@ -1715,7 +1715,7 @@
         <v>2.63</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>2.05</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>0.9</v>
@@ -2324,7 +2324,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT12" t="n">
         <v>0.7</v>
@@ -3136,7 +3136,7 @@
         <v>1.8</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4148,10 +4148,10 @@
         <v>1</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU18" t="n">
         <v>1.63</v>
@@ -4760,7 +4760,7 @@
         <v>2.05</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>1.66</v>
@@ -5369,7 +5369,7 @@
         <v>2.05</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU24" t="n">
         <v>1.56</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT25" t="n">
         <v>0.89</v>
@@ -5775,7 +5775,7 @@
         <v>1.65</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU26" t="n">
         <v>1.8</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT29" t="n">
         <v>0.65</v>
@@ -6587,7 +6587,7 @@
         <v>1.11</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU30" t="n">
         <v>1.32</v>
@@ -6990,10 +6990,10 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU32" t="n">
         <v>1.5</v>
@@ -7193,7 +7193,7 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT33" t="n">
         <v>1.53</v>
@@ -7396,10 +7396,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU34" t="n">
         <v>1.66</v>
@@ -7599,10 +7599,10 @@
         <v>0.5</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU35" t="n">
         <v>1.29</v>
@@ -8008,7 +8008,7 @@
         <v>2.11</v>
       </c>
       <c r="AT37" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU37" t="n">
         <v>1.67</v>
@@ -9226,7 +9226,7 @@
         <v>1.8</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU43" t="n">
         <v>1.7</v>
@@ -9835,7 +9835,7 @@
         <v>2.63</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU46" t="n">
         <v>2.02</v>
@@ -10038,7 +10038,7 @@
         <v>1.4</v>
       </c>
       <c r="AT47" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU47" t="n">
         <v>1.24</v>
@@ -10238,10 +10238,10 @@
         <v>1.33</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU48" t="n">
         <v>1.45</v>
@@ -10444,7 +10444,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU49" t="n">
         <v>1.18</v>
@@ -10644,7 +10644,7 @@
         <v>1</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT50" t="n">
         <v>1.05</v>
@@ -10847,7 +10847,7 @@
         <v>0.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT51" t="n">
         <v>0.9</v>
@@ -12068,7 +12068,7 @@
         <v>2.16</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU57" t="n">
         <v>1.42</v>
@@ -12271,7 +12271,7 @@
         <v>1.11</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU58" t="n">
         <v>1.66</v>
@@ -12474,7 +12474,7 @@
         <v>2.05</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU59" t="n">
         <v>1.85</v>
@@ -12877,7 +12877,7 @@
         <v>1</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT61" t="n">
         <v>0.7</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT62" t="n">
         <v>1.26</v>
@@ -13283,10 +13283,10 @@
         <v>0.25</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU63" t="n">
         <v>2.04</v>
@@ -13489,7 +13489,7 @@
         <v>1.65</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU64" t="n">
         <v>1.69</v>
@@ -13689,7 +13689,7 @@
         <v>0.25</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT65" t="n">
         <v>0.9</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT68" t="n">
         <v>1.5</v>
@@ -14704,7 +14704,7 @@
         <v>0.4</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT70" t="n">
         <v>0.65</v>
@@ -15110,10 +15110,10 @@
         <v>2.25</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU72" t="n">
         <v>1.34</v>
@@ -15925,7 +15925,7 @@
         <v>0.63</v>
       </c>
       <c r="AT76" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU76" t="n">
         <v>1.22</v>
@@ -16128,7 +16128,7 @@
         <v>2.05</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU77" t="n">
         <v>2.06</v>
@@ -16331,7 +16331,7 @@
         <v>1.4</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU78" t="n">
         <v>1.08</v>
@@ -16734,7 +16734,7 @@
         <v>1.5</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT80" t="n">
         <v>1.5</v>
@@ -16937,7 +16937,7 @@
         <v>1.4</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT81" t="n">
         <v>0.89</v>
@@ -17143,7 +17143,7 @@
         <v>2.16</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU82" t="n">
         <v>1.4</v>
@@ -17749,10 +17749,10 @@
         <v>1.5</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU85" t="n">
         <v>1.67</v>
@@ -17955,7 +17955,7 @@
         <v>2.11</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU86" t="n">
         <v>1.98</v>
@@ -18158,7 +18158,7 @@
         <v>0.63</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU87" t="n">
         <v>1.34</v>
@@ -18361,7 +18361,7 @@
         <v>2.05</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU88" t="n">
         <v>1.83</v>
@@ -18561,7 +18561,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT89" t="n">
         <v>1.11</v>
@@ -19170,10 +19170,10 @@
         <v>0.83</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU92" t="n">
         <v>1.64</v>
@@ -19579,7 +19579,7 @@
         <v>1.4</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU94" t="n">
         <v>1.06</v>
@@ -19779,7 +19779,7 @@
         <v>1</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT95" t="n">
         <v>1.26</v>
@@ -20388,7 +20388,7 @@
         <v>2</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT98" t="n">
         <v>1.53</v>
@@ -20997,10 +20997,10 @@
         <v>2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU101" t="n">
         <v>1.61</v>
@@ -21200,10 +21200,10 @@
         <v>0.83</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU102" t="n">
         <v>1.57</v>
@@ -21403,7 +21403,7 @@
         <v>1.29</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT103" t="n">
         <v>1.05</v>
@@ -21606,10 +21606,10 @@
         <v>0.86</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU104" t="n">
         <v>1.54</v>
@@ -21812,7 +21812,7 @@
         <v>2.63</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU105" t="n">
         <v>1.82</v>
@@ -22015,7 +22015,7 @@
         <v>2.11</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU106" t="n">
         <v>2.04</v>
@@ -22218,7 +22218,7 @@
         <v>1.11</v>
       </c>
       <c r="AT107" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU107" t="n">
         <v>1.67</v>
@@ -23636,7 +23636,7 @@
         <v>0.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT114" t="n">
         <v>1.26</v>
@@ -23842,7 +23842,7 @@
         <v>1.65</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU115" t="n">
         <v>1.62</v>
@@ -24245,7 +24245,7 @@
         <v>0.8</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT117" t="n">
         <v>1.84</v>
@@ -24857,7 +24857,7 @@
         <v>1.4</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU120" t="n">
         <v>1.1</v>
@@ -25057,7 +25057,7 @@
         <v>1.17</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT121" t="n">
         <v>1.26</v>
@@ -25260,7 +25260,7 @@
         <v>0.57</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT122" t="n">
         <v>0.7</v>
@@ -25466,7 +25466,7 @@
         <v>2.16</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU123" t="n">
         <v>2.03</v>
@@ -26072,10 +26072,10 @@
         <v>0.86</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU126" t="n">
         <v>1.65</v>
@@ -26278,7 +26278,7 @@
         <v>2.63</v>
       </c>
       <c r="AT127" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU127" t="n">
         <v>1.84</v>
@@ -26478,7 +26478,7 @@
         <v>1.5</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT128" t="n">
         <v>1.11</v>
@@ -26887,7 +26887,7 @@
         <v>2.11</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU130" t="n">
         <v>1.99</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT131" t="n">
         <v>0.9</v>
@@ -27496,7 +27496,7 @@
         <v>2.05</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU133" t="n">
         <v>1.87</v>
@@ -27696,10 +27696,10 @@
         <v>1.5</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU134" t="n">
         <v>1.9</v>
@@ -28305,10 +28305,10 @@
         <v>1.13</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU137" t="n">
         <v>1.66</v>
@@ -28511,7 +28511,7 @@
         <v>0.63</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU138" t="n">
         <v>1.31</v>
@@ -29117,7 +29117,7 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT141" t="n">
         <v>1.5</v>
@@ -29523,10 +29523,10 @@
         <v>1.86</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU143" t="n">
         <v>1.42</v>
@@ -29726,7 +29726,7 @@
         <v>1.25</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT144" t="n">
         <v>1.84</v>
@@ -29929,7 +29929,7 @@
         <v>1.67</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT145" t="n">
         <v>1.11</v>
@@ -30135,7 +30135,7 @@
         <v>1.5</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU146" t="n">
         <v>1.32</v>
@@ -30541,7 +30541,7 @@
         <v>2.11</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU148" t="n">
         <v>2</v>
@@ -31147,7 +31147,7 @@
         <v>1.33</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT151" t="n">
         <v>1.05</v>
@@ -31353,7 +31353,7 @@
         <v>2.05</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU152" t="n">
         <v>2.15</v>
@@ -31553,10 +31553,10 @@
         <v>1.11</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT153" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU153" t="n">
         <v>1.92</v>
@@ -31756,7 +31756,7 @@
         <v>2</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT154" t="n">
         <v>1.53</v>
@@ -32162,10 +32162,10 @@
         <v>2</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU156" t="n">
         <v>1.68</v>
@@ -32977,7 +32977,7 @@
         <v>2.16</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU160" t="n">
         <v>1.96</v>
@@ -33180,7 +33180,7 @@
         <v>2.05</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU161" t="n">
         <v>2.11</v>
@@ -33583,10 +33583,10 @@
         <v>0.6</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU163" t="n">
         <v>1.87</v>
@@ -33989,10 +33989,10 @@
         <v>0.4</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU165" t="n">
         <v>1.49</v>
@@ -34195,7 +34195,7 @@
         <v>1.5</v>
       </c>
       <c r="AT166" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU166" t="n">
         <v>1.34</v>
@@ -34395,7 +34395,7 @@
         <v>1.3</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT167" t="n">
         <v>1.05</v>
@@ -35007,7 +35007,7 @@
         <v>1.65</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU170" t="n">
         <v>1.79</v>
@@ -35413,7 +35413,7 @@
         <v>0.63</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU172" t="n">
         <v>1.28</v>
@@ -35613,7 +35613,7 @@
         <v>1.5</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT173" t="n">
         <v>1.26</v>
@@ -36019,7 +36019,7 @@
         <v>1.6</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT175" t="n">
         <v>1.84</v>
@@ -36428,7 +36428,7 @@
         <v>2.63</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU177" t="n">
         <v>2.01</v>
@@ -36831,10 +36831,10 @@
         <v>0.45</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU179" t="n">
         <v>1.66</v>
@@ -37440,7 +37440,7 @@
         <v>0.91</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT182" t="n">
         <v>0.89</v>
@@ -37849,7 +37849,7 @@
         <v>1.4</v>
       </c>
       <c r="AT184" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU184" t="n">
         <v>1.34</v>
@@ -38255,7 +38255,7 @@
         <v>1.8</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU186" t="n">
         <v>1.69</v>
@@ -38455,7 +38455,7 @@
         <v>0.82</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT187" t="n">
         <v>0.7</v>
@@ -38661,7 +38661,7 @@
         <v>2.16</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU188" t="n">
         <v>1.88</v>
@@ -39267,10 +39267,10 @@
         <v>1.09</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT191" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU191" t="n">
         <v>1.53</v>
@@ -39676,7 +39676,7 @@
         <v>1.65</v>
       </c>
       <c r="AT193" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU193" t="n">
         <v>1.85</v>
@@ -39879,7 +39879,7 @@
         <v>2.16</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU194" t="n">
         <v>1.95</v>
@@ -40079,7 +40079,7 @@
         <v>1.08</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT195" t="n">
         <v>0.89</v>
@@ -40285,7 +40285,7 @@
         <v>2.11</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU196" t="n">
         <v>1.93</v>
@@ -40485,7 +40485,7 @@
         <v>1.83</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT197" t="n">
         <v>1.53</v>
@@ -40891,7 +40891,7 @@
         <v>1.17</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT199" t="n">
         <v>0.9</v>
@@ -41300,7 +41300,7 @@
         <v>1.11</v>
       </c>
       <c r="AT201" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU201" t="n">
         <v>1.68</v>
@@ -41703,7 +41703,7 @@
         <v>0.58</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT203" t="n">
         <v>0.65</v>
@@ -41909,7 +41909,7 @@
         <v>2.63</v>
       </c>
       <c r="AT204" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU204" t="n">
         <v>1.93</v>
@@ -42515,7 +42515,7 @@
         <v>1.58</v>
       </c>
       <c r="AS207" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT207" t="n">
         <v>1.11</v>
@@ -42721,7 +42721,7 @@
         <v>1.8</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU208" t="n">
         <v>1.73</v>
@@ -42924,7 +42924,7 @@
         <v>1.8</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU209" t="n">
         <v>1.72</v>
@@ -43124,7 +43124,7 @@
         <v>1.77</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT210" t="n">
         <v>1.53</v>
@@ -43327,7 +43327,7 @@
         <v>1.31</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT211" t="n">
         <v>1.5</v>
@@ -44139,7 +44139,7 @@
         <v>1.92</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT215" t="n">
         <v>1.84</v>
@@ -44345,7 +44345,7 @@
         <v>1.5</v>
       </c>
       <c r="AT216" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU216" t="n">
         <v>1.34</v>
@@ -44545,10 +44545,10 @@
         <v>0.54</v>
       </c>
       <c r="AS217" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT217" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU217" t="n">
         <v>1.37</v>
@@ -44751,7 +44751,7 @@
         <v>1.11</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU218" t="n">
         <v>1.68</v>
@@ -45157,7 +45157,7 @@
         <v>0.63</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU220" t="n">
         <v>1.25</v>
@@ -45560,7 +45560,7 @@
         <v>1.23</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT222" t="n">
         <v>1.05</v>
@@ -45969,7 +45969,7 @@
         <v>2.05</v>
       </c>
       <c r="AT224" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU224" t="n">
         <v>1.97</v>
@@ -47184,7 +47184,7 @@
         <v>2</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT230" t="n">
         <v>1.84</v>
@@ -47590,10 +47590,10 @@
         <v>2.07</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT232" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU232" t="n">
         <v>1.82</v>
@@ -47793,10 +47793,10 @@
         <v>0.64</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU233" t="n">
         <v>1.56</v>
@@ -48199,10 +48199,10 @@
         <v>0.86</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT235" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU235" t="n">
         <v>1.43</v>
@@ -48605,10 +48605,10 @@
         <v>1.08</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT237" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU237" t="n">
         <v>1.38</v>
@@ -49014,7 +49014,7 @@
         <v>1.11</v>
       </c>
       <c r="AT239" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU239" t="n">
         <v>1.63</v>
@@ -49217,7 +49217,7 @@
         <v>2.05</v>
       </c>
       <c r="AT240" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU240" t="n">
         <v>1.86</v>
@@ -49417,10 +49417,10 @@
         <v>1</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU241" t="n">
         <v>1.79</v>
@@ -50026,7 +50026,7 @@
         <v>1</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT244" t="n">
         <v>0.9</v>
@@ -50841,7 +50841,7 @@
         <v>1.8</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU248" t="n">
         <v>1.72</v>
@@ -51247,7 +51247,7 @@
         <v>1.8</v>
       </c>
       <c r="AT250" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU250" t="n">
         <v>1.74</v>
@@ -51447,10 +51447,10 @@
         <v>0.67</v>
       </c>
       <c r="AS251" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU251" t="n">
         <v>1.68</v>
@@ -51650,7 +51650,7 @@
         <v>0.87</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT252" t="n">
         <v>0.89</v>
@@ -52056,10 +52056,10 @@
         <v>1</v>
       </c>
       <c r="AS254" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT254" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU254" t="n">
         <v>1.43</v>
@@ -52262,7 +52262,7 @@
         <v>2.11</v>
       </c>
       <c r="AT255" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU255" t="n">
         <v>1.88</v>
@@ -52665,7 +52665,7 @@
         <v>1.87</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT257" t="n">
         <v>1.84</v>
@@ -53074,7 +53074,7 @@
         <v>1.65</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU259" t="n">
         <v>1.88</v>
@@ -53680,7 +53680,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT262" t="n">
         <v>0.7</v>
@@ -54089,7 +54089,7 @@
         <v>1.5</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU264" t="n">
         <v>1.38</v>
@@ -54289,7 +54289,7 @@
         <v>1.25</v>
       </c>
       <c r="AS265" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT265" t="n">
         <v>1.05</v>
@@ -54495,7 +54495,7 @@
         <v>1.8</v>
       </c>
       <c r="AT266" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU266" t="n">
         <v>1.72</v>
@@ -54695,7 +54695,7 @@
         <v>0.88</v>
       </c>
       <c r="AS267" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT267" t="n">
         <v>0.89</v>
@@ -55307,7 +55307,7 @@
         <v>1.5</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU270" t="n">
         <v>1.35</v>
@@ -55710,7 +55710,7 @@
         <v>1.06</v>
       </c>
       <c r="AS272" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT272" t="n">
         <v>0.9</v>
@@ -56116,7 +56116,7 @@
         <v>1.18</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT274" t="n">
         <v>1.26</v>
@@ -56319,7 +56319,7 @@
         <v>0.65</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT275" t="n">
         <v>0.7</v>
@@ -56522,10 +56522,10 @@
         <v>1.06</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT276" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU276" t="n">
         <v>1.53</v>
@@ -56728,7 +56728,7 @@
         <v>2.63</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU277" t="n">
         <v>1.92</v>
@@ -57337,7 +57337,7 @@
         <v>1.65</v>
       </c>
       <c r="AT280" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU280" t="n">
         <v>1.84</v>
@@ -57540,7 +57540,7 @@
         <v>1.4</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU281" t="n">
         <v>1.26</v>
@@ -58349,7 +58349,7 @@
         <v>1.59</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
       <c r="AT285" t="n">
         <v>1.53</v>
@@ -58758,7 +58758,7 @@
         <v>1.65</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AU287" t="n">
         <v>1.86</v>
@@ -58961,7 +58961,7 @@
         <v>2.16</v>
       </c>
       <c r="AT288" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU288" t="n">
         <v>1.89</v>
@@ -59161,7 +59161,7 @@
         <v>1.5</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT289" t="n">
         <v>1.5</v>
@@ -59367,7 +59367,7 @@
         <v>1.4</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="AU290" t="n">
         <v>1.28</v>
@@ -59570,7 +59570,7 @@
         <v>1.11</v>
       </c>
       <c r="AT291" t="n">
-        <v>1.22</v>
+        <v>1.16</v>
       </c>
       <c r="AU291" t="n">
         <v>1.62</v>
@@ -59770,10 +59770,10 @@
         <v>0.76</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.78</v>
+        <v>0.89</v>
       </c>
       <c r="AU292" t="n">
         <v>1.52</v>
@@ -60379,10 +60379,10 @@
         <v>1.06</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AT295" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AU295" t="n">
         <v>1.36</v>
@@ -60582,7 +60582,7 @@
         <v>0.5</v>
       </c>
       <c r="AS296" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT296" t="n">
         <v>0.65</v>
@@ -62412,7 +62412,7 @@
         <v>2.05</v>
       </c>
       <c r="AT305" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="AU305" t="n">
         <v>1.97</v>
@@ -62464,6 +62464,1224 @@
       </c>
       <c r="BK305" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>5651582</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>45065.47916666666</v>
+      </c>
+      <c r="F306" t="n">
+        <v>9</v>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Hermannstadt</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Universitatea Cluj</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>1</v>
+      </c>
+      <c r="J306" t="n">
+        <v>0</v>
+      </c>
+      <c r="K306" t="n">
+        <v>1</v>
+      </c>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="n">
+        <v>2</v>
+      </c>
+      <c r="N306" t="n">
+        <v>3</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P306" t="inlineStr">
+        <is>
+          <t>['58', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q306" t="n">
+        <v>5</v>
+      </c>
+      <c r="R306" t="n">
+        <v>7</v>
+      </c>
+      <c r="S306" t="n">
+        <v>12</v>
+      </c>
+      <c r="T306" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U306" t="n">
+        <v>2</v>
+      </c>
+      <c r="V306" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W306" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X306" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y306" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z306" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA306" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB306" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC306" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AD306" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AE306" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AF306" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG306" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH306" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AI306" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ306" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK306" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL306" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM306" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN306" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO306" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP306" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ306" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR306" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS306" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT306" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AU306" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV306" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW306" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX306" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY306" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ306" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="BA306" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BB306" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BC306" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD306" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BE306" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="BF306" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG306" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH306" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI306" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ306" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK306" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>5651583</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>45065.58333333334</v>
+      </c>
+      <c r="F307" t="n">
+        <v>9</v>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>Chindia Târgovişte</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Voluntari</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>0</v>
+      </c>
+      <c r="J307" t="n">
+        <v>2</v>
+      </c>
+      <c r="K307" t="n">
+        <v>2</v>
+      </c>
+      <c r="L307" t="n">
+        <v>2</v>
+      </c>
+      <c r="M307" t="n">
+        <v>2</v>
+      </c>
+      <c r="N307" t="n">
+        <v>4</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>['48', '75']</t>
+        </is>
+      </c>
+      <c r="P307" t="inlineStr">
+        <is>
+          <t>['42', '45+2']</t>
+        </is>
+      </c>
+      <c r="Q307" t="n">
+        <v>1</v>
+      </c>
+      <c r="R307" t="n">
+        <v>3</v>
+      </c>
+      <c r="S307" t="n">
+        <v>4</v>
+      </c>
+      <c r="T307" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U307" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V307" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W307" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X307" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="Y307" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z307" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA307" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB307" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC307" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AD307" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AE307" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AF307" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG307" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="AH307" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AI307" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AJ307" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK307" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AL307" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM307" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN307" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO307" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP307" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ307" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR307" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS307" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT307" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU307" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV307" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW307" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AX307" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY307" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ307" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BA307" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BB307" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BC307" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD307" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE307" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BF307" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG307" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH307" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK307" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>5651580</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>45065.58333333334</v>
+      </c>
+      <c r="F308" t="n">
+        <v>9</v>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>UTA Arad</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>U Craiova 1948</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>0</v>
+      </c>
+      <c r="J308" t="n">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="n">
+        <v>1</v>
+      </c>
+      <c r="N308" t="n">
+        <v>2</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P308" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="Q308" t="n">
+        <v>6</v>
+      </c>
+      <c r="R308" t="n">
+        <v>4</v>
+      </c>
+      <c r="S308" t="n">
+        <v>10</v>
+      </c>
+      <c r="T308" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U308" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="V308" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="W308" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X308" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y308" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z308" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AA308" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB308" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC308" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AD308" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AE308" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AF308" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG308" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH308" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI308" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ308" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK308" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL308" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM308" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN308" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO308" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP308" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ308" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR308" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS308" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT308" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AU308" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV308" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW308" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX308" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY308" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ308" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BA308" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB308" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC308" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD308" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE308" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF308" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH308" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI308" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ308" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK308" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>5651581</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>45065.58333333334</v>
+      </c>
+      <c r="F309" t="n">
+        <v>9</v>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>Argeș</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Petrolul 52</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>1</v>
+      </c>
+      <c r="L309" t="n">
+        <v>3</v>
+      </c>
+      <c r="M309" t="n">
+        <v>0</v>
+      </c>
+      <c r="N309" t="n">
+        <v>3</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>['27', '86', '90+3']</t>
+        </is>
+      </c>
+      <c r="P309" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q309" t="n">
+        <v>6</v>
+      </c>
+      <c r="R309" t="n">
+        <v>5</v>
+      </c>
+      <c r="S309" t="n">
+        <v>11</v>
+      </c>
+      <c r="T309" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="U309" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="V309" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="W309" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X309" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="Y309" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Z309" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AA309" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AB309" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC309" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AD309" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AE309" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AF309" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG309" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH309" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AI309" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AJ309" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK309" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL309" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM309" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN309" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV309" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW309" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX309" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY309" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ309" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BA309" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB309" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC309" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD309" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BE309" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF309" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG309" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH309" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI309" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ309" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK309" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>5651584</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>45066.36458333334</v>
+      </c>
+      <c r="F310" t="n">
+        <v>9</v>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Botoşani</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Mioveni</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>2</v>
+      </c>
+      <c r="J310" t="n">
+        <v>1</v>
+      </c>
+      <c r="K310" t="n">
+        <v>3</v>
+      </c>
+      <c r="L310" t="n">
+        <v>5</v>
+      </c>
+      <c r="M310" t="n">
+        <v>1</v>
+      </c>
+      <c r="N310" t="n">
+        <v>6</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>['9', '40', '82', '88', '90+2']</t>
+        </is>
+      </c>
+      <c r="P310" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q310" t="n">
+        <v>7</v>
+      </c>
+      <c r="R310" t="n">
+        <v>3</v>
+      </c>
+      <c r="S310" t="n">
+        <v>10</v>
+      </c>
+      <c r="T310" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="U310" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V310" t="n">
+        <v>7</v>
+      </c>
+      <c r="W310" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X310" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y310" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z310" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA310" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB310" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC310" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AD310" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AE310" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF310" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG310" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH310" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI310" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ310" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK310" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL310" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM310" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN310" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO310" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP310" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AQ310" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR310" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AS310" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT310" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU310" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV310" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW310" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX310" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AY310" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ310" t="n">
+        <v>6.15</v>
+      </c>
+      <c r="BA310" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BB310" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BC310" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BD310" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BE310" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF310" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG310" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH310" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI310" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ310" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK310" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>5651587</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>45066.60416666666</v>
+      </c>
+      <c r="F311" t="n">
+        <v>9</v>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>1</v>
+      </c>
+      <c r="J311" t="n">
+        <v>1</v>
+      </c>
+      <c r="K311" t="n">
+        <v>2</v>
+      </c>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="n">
+        <v>2</v>
+      </c>
+      <c r="N311" t="n">
+        <v>3</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P311" t="inlineStr">
+        <is>
+          <t>['33', '82']</t>
+        </is>
+      </c>
+      <c r="Q311" t="n">
+        <v>5</v>
+      </c>
+      <c r="R311" t="n">
+        <v>4</v>
+      </c>
+      <c r="S311" t="n">
+        <v>9</v>
+      </c>
+      <c r="T311" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U311" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V311" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W311" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X311" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y311" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z311" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA311" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB311" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC311" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD311" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE311" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF311" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG311" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AH311" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI311" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AJ311" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AK311" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AL311" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AM311" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN311" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO311" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP311" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ311" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AR311" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS311" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT311" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AU311" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV311" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW311" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AX311" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AY311" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ311" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BA311" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB311" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC311" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD311" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BE311" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF311" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG311" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH311" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI311" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ311" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK311" t="n">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK311"/>
+  <dimension ref="A1:BK312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT6" t="n">
         <v>1.05</v>
@@ -3542,7 +3542,7 @@
         <v>2.16</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT19" t="n">
         <v>0.9</v>
@@ -5978,7 +5978,7 @@
         <v>0.63</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU27" t="n">
         <v>0.99</v>
@@ -8817,7 +8817,7 @@
         <v>1</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT41" t="n">
         <v>1.5</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT46" t="n">
         <v>1.21</v>
@@ -12674,10 +12674,10 @@
         <v>0.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU60" t="n">
         <v>2.09</v>
@@ -15516,7 +15516,7 @@
         <v>1</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT74" t="n">
         <v>0.7</v>
@@ -17549,7 +17549,7 @@
         <v>2.11</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU84" t="n">
         <v>1.98</v>
@@ -18764,7 +18764,7 @@
         <v>0.83</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT90" t="n">
         <v>0.65</v>
@@ -20594,7 +20594,7 @@
         <v>1.5</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU99" t="n">
         <v>1.3</v>
@@ -21809,7 +21809,7 @@
         <v>0.86</v>
       </c>
       <c r="AS105" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT105" t="n">
         <v>0.89</v>
@@ -24248,7 +24248,7 @@
         <v>1.3</v>
       </c>
       <c r="AT117" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU117" t="n">
         <v>2.02</v>
@@ -25872,7 +25872,7 @@
         <v>1.65</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU125" t="n">
         <v>1.66</v>
@@ -26275,7 +26275,7 @@
         <v>0.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT127" t="n">
         <v>0.5</v>
@@ -28714,7 +28714,7 @@
         <v>1.8</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU139" t="n">
         <v>1.72</v>
@@ -29729,7 +29729,7 @@
         <v>1.5</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU144" t="n">
         <v>1.7</v>
@@ -30741,7 +30741,7 @@
         <v>1.11</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT149" t="n">
         <v>0.89</v>
@@ -32368,7 +32368,7 @@
         <v>1.11</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU157" t="n">
         <v>1.61</v>
@@ -36022,7 +36022,7 @@
         <v>1.37</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU175" t="n">
         <v>1.37</v>
@@ -36425,7 +36425,7 @@
         <v>2</v>
       </c>
       <c r="AS177" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT177" t="n">
         <v>1.7</v>
@@ -39067,7 +39067,7 @@
         <v>2.05</v>
       </c>
       <c r="AT190" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU190" t="n">
         <v>1.87</v>
@@ -39470,7 +39470,7 @@
         <v>1.36</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT192" t="n">
         <v>1.26</v>
@@ -40691,7 +40691,7 @@
         <v>1.4</v>
       </c>
       <c r="AT198" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU198" t="n">
         <v>1.31</v>
@@ -41906,7 +41906,7 @@
         <v>1</v>
       </c>
       <c r="AS204" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT204" t="n">
         <v>1.16</v>
@@ -44142,7 +44142,7 @@
         <v>1.21</v>
       </c>
       <c r="AT215" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU215" t="n">
         <v>1.44</v>
@@ -44951,7 +44951,7 @@
         <v>1.54</v>
       </c>
       <c r="AS219" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT219" t="n">
         <v>1.11</v>
@@ -47187,7 +47187,7 @@
         <v>1.37</v>
       </c>
       <c r="AT230" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU230" t="n">
         <v>1.68</v>
@@ -48402,7 +48402,7 @@
         <v>1.36</v>
       </c>
       <c r="AS236" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT236" t="n">
         <v>1.05</v>
@@ -50432,7 +50432,7 @@
         <v>1.33</v>
       </c>
       <c r="AS246" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT246" t="n">
         <v>1.11</v>
@@ -52668,7 +52668,7 @@
         <v>1.3</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU257" t="n">
         <v>1.79</v>
@@ -53274,7 +53274,7 @@
         <v>1.25</v>
       </c>
       <c r="AS260" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT260" t="n">
         <v>1.26</v>
@@ -53886,7 +53886,7 @@
         <v>2.05</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU263" t="n">
         <v>1.86</v>
@@ -56725,7 +56725,7 @@
         <v>1.94</v>
       </c>
       <c r="AS277" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT277" t="n">
         <v>1.7</v>
@@ -57134,7 +57134,7 @@
         <v>2.16</v>
       </c>
       <c r="AT279" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU279" t="n">
         <v>1.94</v>
@@ -58555,7 +58555,7 @@
         <v>2.11</v>
       </c>
       <c r="AT286" t="n">
-        <v>1.84</v>
+        <v>1.75</v>
       </c>
       <c r="AU286" t="n">
         <v>1.9</v>
@@ -59973,7 +59973,7 @@
         <v>1.11</v>
       </c>
       <c r="AS293" t="n">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="AT293" t="n">
         <v>1.05</v>
@@ -63682,6 +63682,209 @@
       </c>
       <c r="BK311" t="n">
         <v>19</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>5651585</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>45067.625</v>
+      </c>
+      <c r="F312" t="n">
+        <v>9</v>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>1</v>
+      </c>
+      <c r="J312" t="n">
+        <v>2</v>
+      </c>
+      <c r="K312" t="n">
+        <v>3</v>
+      </c>
+      <c r="L312" t="n">
+        <v>3</v>
+      </c>
+      <c r="M312" t="n">
+        <v>2</v>
+      </c>
+      <c r="N312" t="n">
+        <v>5</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>['42', '58', '86']</t>
+        </is>
+      </c>
+      <c r="P312" t="inlineStr">
+        <is>
+          <t>['8', '17']</t>
+        </is>
+      </c>
+      <c r="Q312" t="n">
+        <v>9</v>
+      </c>
+      <c r="R312" t="n">
+        <v>2</v>
+      </c>
+      <c r="S312" t="n">
+        <v>11</v>
+      </c>
+      <c r="T312" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U312" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V312" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W312" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X312" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Y312" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="Z312" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA312" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB312" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC312" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD312" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE312" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AF312" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG312" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH312" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI312" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ312" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK312" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL312" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM312" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AN312" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AO312" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP312" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ312" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AR312" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AS312" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AT312" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU312" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV312" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW312" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AX312" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AY312" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ312" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA312" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB312" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC312" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD312" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BE312" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BF312" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK312"/>
+  <dimension ref="A1:BK313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3339,7 +3339,7 @@
         <v>1.65</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT15" t="n">
         <v>1.75</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT28" t="n">
         <v>0.7</v>
@@ -6790,7 +6790,7 @@
         <v>1.8</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -9426,7 +9426,7 @@
         <v>0.33</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT44" t="n">
         <v>0.65</v>
@@ -12065,7 +12065,7 @@
         <v>0.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT57" t="n">
         <v>0.89</v>
@@ -13083,7 +13083,7 @@
         <v>1.37</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU62" t="n">
         <v>1.44</v>
@@ -15722,7 +15722,7 @@
         <v>2.05</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU75" t="n">
         <v>1.88</v>
@@ -17140,7 +17140,7 @@
         <v>0.8</v>
       </c>
       <c r="AS82" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT82" t="n">
         <v>0.5</v>
@@ -19782,7 +19782,7 @@
         <v>1.21</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU95" t="n">
         <v>1.61</v>
@@ -20185,7 +20185,7 @@
         <v>1.17</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT97" t="n">
         <v>0.89</v>
@@ -22824,7 +22824,7 @@
         <v>2.17</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT110" t="n">
         <v>1.53</v>
@@ -23639,7 +23639,7 @@
         <v>1.37</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU114" t="n">
         <v>1.58</v>
@@ -25060,7 +25060,7 @@
         <v>1.3</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU121" t="n">
         <v>1.9</v>
@@ -25463,7 +25463,7 @@
         <v>2</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT123" t="n">
         <v>1.7</v>
@@ -28102,10 +28102,10 @@
         <v>1.43</v>
       </c>
       <c r="AS136" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU136" t="n">
         <v>2</v>
@@ -29323,7 +29323,7 @@
         <v>1.11</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU142" t="n">
         <v>1.67</v>
@@ -32774,7 +32774,7 @@
         <v>0.63</v>
       </c>
       <c r="AT159" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU159" t="n">
         <v>1.31</v>
@@ -32974,7 +32974,7 @@
         <v>1.33</v>
       </c>
       <c r="AS160" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT160" t="n">
         <v>1.16</v>
@@ -35207,7 +35207,7 @@
         <v>1.8</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT171" t="n">
         <v>1.11</v>
@@ -35616,7 +35616,7 @@
         <v>1.5</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU173" t="n">
         <v>1.6</v>
@@ -38658,7 +38658,7 @@
         <v>1</v>
       </c>
       <c r="AS188" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT188" t="n">
         <v>1.21</v>
@@ -39473,7 +39473,7 @@
         <v>2.65</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU192" t="n">
         <v>1.91</v>
@@ -39876,7 +39876,7 @@
         <v>0.91</v>
       </c>
       <c r="AS194" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT194" t="n">
         <v>1.05</v>
@@ -42315,7 +42315,7 @@
         <v>2.05</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU206" t="n">
         <v>2</v>
@@ -43733,7 +43733,7 @@
         <v>1.15</v>
       </c>
       <c r="AS213" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT213" t="n">
         <v>0.9</v>
@@ -43939,7 +43939,7 @@
         <v>1.4</v>
       </c>
       <c r="AT214" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU214" t="n">
         <v>1.27</v>
@@ -46575,7 +46575,7 @@
         <v>1.21</v>
       </c>
       <c r="AS227" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT227" t="n">
         <v>1.5</v>
@@ -46984,7 +46984,7 @@
         <v>1.5</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU229" t="n">
         <v>1.34</v>
@@ -50232,7 +50232,7 @@
         <v>2.05</v>
       </c>
       <c r="AT245" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU245" t="n">
         <v>1.99</v>
@@ -51853,7 +51853,7 @@
         <v>1.73</v>
       </c>
       <c r="AS253" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT253" t="n">
         <v>1.53</v>
@@ -53277,7 +53277,7 @@
         <v>2.65</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU260" t="n">
         <v>1.94</v>
@@ -56119,7 +56119,7 @@
         <v>1.3</v>
       </c>
       <c r="AT274" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU274" t="n">
         <v>1.77</v>
@@ -57131,7 +57131,7 @@
         <v>1.88</v>
       </c>
       <c r="AS279" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT279" t="n">
         <v>1.75</v>
@@ -58958,7 +58958,7 @@
         <v>1.82</v>
       </c>
       <c r="AS288" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT288" t="n">
         <v>1.7</v>
@@ -60179,7 +60179,7 @@
         <v>2.05</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.26</v>
+        <v>1.35</v>
       </c>
       <c r="AU294" t="n">
         <v>1.9</v>
@@ -61191,7 +61191,7 @@
         <v>1.11</v>
       </c>
       <c r="AS299" t="n">
-        <v>2.16</v>
+        <v>2.05</v>
       </c>
       <c r="AT299" t="n">
         <v>1.11</v>
@@ -63869,21 +63869,224 @@
         <v>4.5</v>
       </c>
       <c r="BF312" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG312" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH312" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI312" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ312" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK312" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>5651586</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>45068.60416666666</v>
+      </c>
+      <c r="F313" t="n">
+        <v>9</v>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>1</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1</v>
+      </c>
+      <c r="K313" t="n">
+        <v>2</v>
+      </c>
+      <c r="L313" t="n">
+        <v>2</v>
+      </c>
+      <c r="M313" t="n">
         <v>3</v>
       </c>
-      <c r="BG312" t="n">
-        <v>6</v>
-      </c>
-      <c r="BH312" t="n">
-        <v>13</v>
-      </c>
-      <c r="BI312" t="n">
+      <c r="N313" t="n">
         <v>5</v>
       </c>
-      <c r="BJ312" t="n">
-        <v>16</v>
-      </c>
-      <c r="BK312" t="n">
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>['33', '59']</t>
+        </is>
+      </c>
+      <c r="P313" t="inlineStr">
+        <is>
+          <t>['43', '52', '65']</t>
+        </is>
+      </c>
+      <c r="Q313" t="n">
+        <v>3</v>
+      </c>
+      <c r="R313" t="n">
+        <v>1</v>
+      </c>
+      <c r="S313" t="n">
+        <v>4</v>
+      </c>
+      <c r="T313" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U313" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V313" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W313" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X313" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y313" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z313" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA313" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB313" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC313" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AD313" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE313" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AF313" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG313" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH313" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI313" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ313" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK313" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AL313" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM313" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN313" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO313" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP313" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ313" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AR313" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AS313" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AT313" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AU313" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AV313" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW313" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AX313" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AY313" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ313" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BA313" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BB313" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC313" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD313" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BE313" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BF313" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG313" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH313" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI313" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ313" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK313" t="n">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK313"/>
+  <dimension ref="A1:BK316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT7" t="n">
         <v>0.89</v>
@@ -2527,7 +2527,7 @@
         <v>0.63</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -4963,7 +4963,7 @@
         <v>1.5</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU22" t="n">
         <v>1.32</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU23" t="n">
         <v>1.65</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT24" t="n">
         <v>1.05</v>
@@ -7196,7 +7196,7 @@
         <v>1.5</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU33" t="n">
         <v>1.22</v>
@@ -7805,7 +7805,7 @@
         <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU36" t="n">
         <v>1.22</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT37" t="n">
         <v>0.5</v>
@@ -8208,7 +8208,7 @@
         <v>2</v>
       </c>
       <c r="AS38" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT38" t="n">
         <v>0.89</v>
@@ -8411,7 +8411,7 @@
         <v>0.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT39" t="n">
         <v>0.9</v>
@@ -8617,7 +8617,7 @@
         <v>1.4</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU40" t="n">
         <v>1.45</v>
@@ -9632,7 +9632,7 @@
         <v>1.65</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU45" t="n">
         <v>1.57</v>
@@ -10647,7 +10647,7 @@
         <v>1.3</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU50" t="n">
         <v>1.75</v>
@@ -11050,10 +11050,10 @@
         <v>2</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT52" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU52" t="n">
         <v>1.88</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT53" t="n">
         <v>1.5</v>
@@ -11456,7 +11456,7 @@
         <v>2.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT54" t="n">
         <v>0.89</v>
@@ -11865,7 +11865,7 @@
         <v>1.8</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU56" t="n">
         <v>1.87</v>
@@ -12471,7 +12471,7 @@
         <v>1</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT59" t="n">
         <v>1.21</v>
@@ -13895,7 +13895,7 @@
         <v>1.4</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU66" t="n">
         <v>1.11</v>
@@ -14501,10 +14501,10 @@
         <v>2.33</v>
       </c>
       <c r="AS69" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU69" t="n">
         <v>1.96</v>
@@ -14910,7 +14910,7 @@
         <v>1.11</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU71" t="n">
         <v>1.9</v>
@@ -15316,7 +15316,7 @@
         <v>1.8</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU73" t="n">
         <v>1.75</v>
@@ -15719,7 +15719,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT75" t="n">
         <v>1.35</v>
@@ -16125,7 +16125,7 @@
         <v>0.75</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT77" t="n">
         <v>1.21</v>
@@ -16534,7 +16534,7 @@
         <v>1.5</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU79" t="n">
         <v>1.25</v>
@@ -17546,7 +17546,7 @@
         <v>0.33</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT84" t="n">
         <v>1.75</v>
@@ -17952,7 +17952,7 @@
         <v>0.8</v>
       </c>
       <c r="AS86" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT86" t="n">
         <v>1.21</v>
@@ -18358,7 +18358,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT88" t="n">
         <v>1.16</v>
@@ -18564,7 +18564,7 @@
         <v>1.37</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU89" t="n">
         <v>1.42</v>
@@ -18967,7 +18967,7 @@
         <v>0.8</v>
       </c>
       <c r="AS91" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT91" t="n">
         <v>0.7</v>
@@ -19376,7 +19376,7 @@
         <v>1.11</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU93" t="n">
         <v>1.71</v>
@@ -20391,7 +20391,7 @@
         <v>1.3</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU98" t="n">
         <v>1.99</v>
@@ -21406,7 +21406,7 @@
         <v>1.37</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU103" t="n">
         <v>1.38</v>
@@ -22012,7 +22012,7 @@
         <v>1.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT106" t="n">
         <v>1.16</v>
@@ -22418,7 +22418,7 @@
         <v>0.71</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT108" t="n">
         <v>0.65</v>
@@ -22621,10 +22621,10 @@
         <v>1.71</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU109" t="n">
         <v>1.85</v>
@@ -22827,7 +22827,7 @@
         <v>2.05</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU110" t="n">
         <v>1.85</v>
@@ -24654,7 +24654,7 @@
         <v>1.8</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU119" t="n">
         <v>1.68</v>
@@ -26481,7 +26481,7 @@
         <v>1.21</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU128" t="n">
         <v>1.52</v>
@@ -26884,7 +26884,7 @@
         <v>0.75</v>
       </c>
       <c r="AS130" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT130" t="n">
         <v>0.89</v>
@@ -27290,10 +27290,10 @@
         <v>1.5</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU132" t="n">
         <v>2.22</v>
@@ -27493,7 +27493,7 @@
         <v>0.75</v>
       </c>
       <c r="AS133" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT133" t="n">
         <v>1.05</v>
@@ -27902,7 +27902,7 @@
         <v>1.11</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU135" t="n">
         <v>1.63</v>
@@ -29932,7 +29932,7 @@
         <v>1.37</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU145" t="n">
         <v>1.75</v>
@@ -30538,7 +30538,7 @@
         <v>0.67</v>
       </c>
       <c r="AS148" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT148" t="n">
         <v>1.05</v>
@@ -30944,7 +30944,7 @@
         <v>1.22</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT150" t="n">
         <v>0.9</v>
@@ -31150,7 +31150,7 @@
         <v>1.21</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU151" t="n">
         <v>1.43</v>
@@ -31350,7 +31350,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT152" t="n">
         <v>0.5</v>
@@ -31759,7 +31759,7 @@
         <v>1.37</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU154" t="n">
         <v>1.39</v>
@@ -33177,7 +33177,7 @@
         <v>1.89</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT161" t="n">
         <v>1.7</v>
@@ -33383,7 +33383,7 @@
         <v>1.4</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU162" t="n">
         <v>1.23</v>
@@ -33786,7 +33786,7 @@
         <v>1.1</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT164" t="n">
         <v>0.9</v>
@@ -34398,7 +34398,7 @@
         <v>1.37</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU167" t="n">
         <v>1.68</v>
@@ -34598,7 +34598,7 @@
         <v>1</v>
       </c>
       <c r="AS168" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT168" t="n">
         <v>0.89</v>
@@ -34801,7 +34801,7 @@
         <v>1.4</v>
       </c>
       <c r="AS169" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT169" t="n">
         <v>1.5</v>
@@ -35210,7 +35210,7 @@
         <v>2.05</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU171" t="n">
         <v>1.96</v>
@@ -36631,7 +36631,7 @@
         <v>1.65</v>
       </c>
       <c r="AT178" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU178" t="n">
         <v>1.89</v>
@@ -37237,7 +37237,7 @@
         <v>1.55</v>
       </c>
       <c r="AS181" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT181" t="n">
         <v>1.5</v>
@@ -37643,10 +37643,10 @@
         <v>1.73</v>
       </c>
       <c r="AS183" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU183" t="n">
         <v>2.06</v>
@@ -38864,7 +38864,7 @@
         <v>0.63</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU189" t="n">
         <v>1.31</v>
@@ -39064,7 +39064,7 @@
         <v>1.73</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT190" t="n">
         <v>1.75</v>
@@ -40282,7 +40282,7 @@
         <v>2.17</v>
       </c>
       <c r="AS196" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT196" t="n">
         <v>1.7</v>
@@ -40488,7 +40488,7 @@
         <v>1.21</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU197" t="n">
         <v>1.5</v>
@@ -41503,7 +41503,7 @@
         <v>0.63</v>
       </c>
       <c r="AT202" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU202" t="n">
         <v>1.32</v>
@@ -42109,7 +42109,7 @@
         <v>0.83</v>
       </c>
       <c r="AS205" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT205" t="n">
         <v>0.7</v>
@@ -42312,7 +42312,7 @@
         <v>1.25</v>
       </c>
       <c r="AS206" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT206" t="n">
         <v>1.35</v>
@@ -42518,7 +42518,7 @@
         <v>1.5</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU207" t="n">
         <v>1.54</v>
@@ -43127,7 +43127,7 @@
         <v>1.37</v>
       </c>
       <c r="AT210" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU210" t="n">
         <v>1.69</v>
@@ -44954,7 +44954,7 @@
         <v>2.65</v>
       </c>
       <c r="AT219" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU219" t="n">
         <v>1.92</v>
@@ -45357,7 +45357,7 @@
         <v>0.77</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT221" t="n">
         <v>0.7</v>
@@ -45563,7 +45563,7 @@
         <v>1.5</v>
       </c>
       <c r="AT222" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU222" t="n">
         <v>1.58</v>
@@ -45763,7 +45763,7 @@
         <v>0.62</v>
       </c>
       <c r="AS223" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT223" t="n">
         <v>0.65</v>
@@ -45966,7 +45966,7 @@
         <v>0.92</v>
       </c>
       <c r="AS224" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT224" t="n">
         <v>1.16</v>
@@ -46172,7 +46172,7 @@
         <v>1.65</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU225" t="n">
         <v>1.86</v>
@@ -47996,7 +47996,7 @@
         <v>0.57</v>
       </c>
       <c r="AS234" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT234" t="n">
         <v>0.65</v>
@@ -48405,7 +48405,7 @@
         <v>2.65</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU236" t="n">
         <v>1.96</v>
@@ -48808,10 +48808,10 @@
         <v>1.43</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU238" t="n">
         <v>1.99</v>
@@ -49214,7 +49214,7 @@
         <v>0.71</v>
       </c>
       <c r="AS240" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT240" t="n">
         <v>0.89</v>
@@ -50229,7 +50229,7 @@
         <v>1.27</v>
       </c>
       <c r="AS245" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT245" t="n">
         <v>1.35</v>
@@ -50435,7 +50435,7 @@
         <v>2.65</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU246" t="n">
         <v>1.96</v>
@@ -50635,10 +50635,10 @@
         <v>1.27</v>
       </c>
       <c r="AS247" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT247" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU247" t="n">
         <v>1.9</v>
@@ -51856,7 +51856,7 @@
         <v>2.05</v>
       </c>
       <c r="AT253" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU253" t="n">
         <v>1.97</v>
@@ -52259,7 +52259,7 @@
         <v>2</v>
       </c>
       <c r="AS255" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT255" t="n">
         <v>1.7</v>
@@ -53883,7 +53883,7 @@
         <v>1.94</v>
       </c>
       <c r="AS263" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT263" t="n">
         <v>1.75</v>
@@ -54292,7 +54292,7 @@
         <v>1.3</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU265" t="n">
         <v>1.73</v>
@@ -55101,10 +55101,10 @@
         <v>1.25</v>
       </c>
       <c r="AS269" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT269" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU269" t="n">
         <v>1.88</v>
@@ -55507,10 +55507,10 @@
         <v>1.18</v>
       </c>
       <c r="AS271" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT271" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU271" t="n">
         <v>1.86</v>
@@ -55913,10 +55913,10 @@
         <v>1.69</v>
       </c>
       <c r="AS273" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT273" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU273" t="n">
         <v>1.98</v>
@@ -58352,7 +58352,7 @@
         <v>1.3</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU285" t="n">
         <v>1.74</v>
@@ -58552,7 +58552,7 @@
         <v>1.78</v>
       </c>
       <c r="AS286" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT286" t="n">
         <v>1.75</v>
@@ -59976,7 +59976,7 @@
         <v>2.65</v>
       </c>
       <c r="AT293" t="n">
-        <v>1.05</v>
+        <v>1.15</v>
       </c>
       <c r="AU293" t="n">
         <v>1.91</v>
@@ -60176,7 +60176,7 @@
         <v>1.28</v>
       </c>
       <c r="AS294" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT294" t="n">
         <v>1.35</v>
@@ -60785,10 +60785,10 @@
         <v>1.18</v>
       </c>
       <c r="AS297" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT297" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU297" t="n">
         <v>1.98</v>
@@ -61194,7 +61194,7 @@
         <v>2.05</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.11</v>
+        <v>1.2</v>
       </c>
       <c r="AU299" t="n">
         <v>1.85</v>
@@ -61800,10 +61800,10 @@
         <v>1.56</v>
       </c>
       <c r="AS302" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="AU302" t="n">
         <v>1.92</v>
@@ -62409,7 +62409,7 @@
         <v>1.72</v>
       </c>
       <c r="AS305" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AT305" t="n">
         <v>1.7</v>
@@ -62674,7 +62674,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>5651583</v>
+        <v>5651581</v>
       </c>
       <c r="C307" t="inlineStr">
         <is>
@@ -62694,65 +62694,65 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Chindia Târgovişte</t>
+          <t>Argeș</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Voluntari</t>
+          <t>Petrolul 52</t>
         </is>
       </c>
       <c r="I307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L307" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N307" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
-          <t>['48', '75']</t>
+          <t>['27', '86', '90+3']</t>
         </is>
       </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>['42', '45+2']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q307" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R307" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S307" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="T307" t="n">
-        <v>2.65</v>
+        <v>3.08</v>
       </c>
       <c r="U307" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="V307" t="n">
-        <v>4.33</v>
+        <v>3.88</v>
       </c>
       <c r="W307" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="X307" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="Y307" t="n">
         <v>3.28</v>
@@ -62767,46 +62767,46 @@
         <v>1.05</v>
       </c>
       <c r="AC307" t="n">
-        <v>2.76</v>
+        <v>2.62</v>
       </c>
       <c r="AD307" t="n">
-        <v>2.95</v>
+        <v>3.16</v>
       </c>
       <c r="AE307" t="n">
-        <v>2.81</v>
+        <v>2.78</v>
       </c>
       <c r="AF307" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AG307" t="n">
-        <v>7.95</v>
+        <v>7</v>
       </c>
       <c r="AH307" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AI307" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="AJ307" t="n">
-        <v>2.15</v>
+        <v>2.45</v>
       </c>
       <c r="AK307" t="n">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="AL307" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AM307" t="n">
-        <v>1.7</v>
+        <v>1.81</v>
       </c>
       <c r="AN307" t="n">
-        <v>1.18</v>
+        <v>1.38</v>
       </c>
       <c r="AO307" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="AP307" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="AQ307" t="n">
         <v>1.11</v>
@@ -62815,61 +62815,61 @@
         <v>1.22</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="AU307" t="n">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AV307" t="n">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AW307" t="n">
-        <v>2.96</v>
+        <v>2.69</v>
       </c>
       <c r="AX307" t="n">
         <v>1.69</v>
       </c>
       <c r="AY307" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AZ307" t="n">
-        <v>2.64</v>
+        <v>2.54</v>
       </c>
       <c r="BA307" t="n">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="BB307" t="n">
-        <v>2.17</v>
+        <v>1.49</v>
       </c>
       <c r="BC307" t="n">
-        <v>3</v>
+        <v>1.95</v>
       </c>
       <c r="BD307" t="n">
-        <v>3.6</v>
+        <v>2.37</v>
       </c>
       <c r="BE307" t="n">
-        <v>5.3</v>
+        <v>3.3</v>
       </c>
       <c r="BF307" t="n">
         <v>5</v>
       </c>
       <c r="BG307" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BH307" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI307" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ307" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK307" t="n">
         <v>10</v>
-      </c>
-      <c r="BI307" t="n">
-        <v>4</v>
-      </c>
-      <c r="BJ307" t="n">
-        <v>15</v>
-      </c>
-      <c r="BK307" t="n">
-        <v>11</v>
       </c>
     </row>
     <row r="308">
@@ -62877,7 +62877,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>5651580</v>
+        <v>5651583</v>
       </c>
       <c r="C308" t="inlineStr">
         <is>
@@ -62897,179 +62897,179 @@
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>UTA Arad</t>
+          <t>Chindia Târgovişte</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>U Craiova 1948</t>
+          <t>Voluntari</t>
         </is>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
       <c r="J308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N308" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
-          <t>['47']</t>
+          <t>['48', '75']</t>
         </is>
       </c>
       <c r="P308" t="inlineStr">
         <is>
-          <t>['74']</t>
+          <t>['42', '45+2']</t>
         </is>
       </c>
       <c r="Q308" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R308" t="n">
+        <v>3</v>
+      </c>
+      <c r="S308" t="n">
         <v>4</v>
       </c>
-      <c r="S308" t="n">
-        <v>10</v>
-      </c>
       <c r="T308" t="n">
-        <v>3.04</v>
+        <v>2.65</v>
       </c>
       <c r="U308" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="V308" t="n">
-        <v>4.06</v>
+        <v>4.33</v>
       </c>
       <c r="W308" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="X308" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="Y308" t="n">
-        <v>3.1</v>
+        <v>3.28</v>
       </c>
       <c r="Z308" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="AA308" t="n">
-        <v>8.199999999999999</v>
+        <v>8.9</v>
       </c>
       <c r="AB308" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="AC308" t="n">
-        <v>2.58</v>
+        <v>2.76</v>
       </c>
       <c r="AD308" t="n">
-        <v>3.04</v>
+        <v>2.95</v>
       </c>
       <c r="AE308" t="n">
-        <v>2.94</v>
+        <v>2.81</v>
       </c>
       <c r="AF308" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AG308" t="n">
-        <v>7</v>
+        <v>7.95</v>
       </c>
       <c r="AH308" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AI308" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AJ308" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="AK308" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="AL308" t="n">
-        <v>1.86</v>
+        <v>2.1</v>
       </c>
       <c r="AM308" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="AN308" t="n">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AO308" t="n">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="AP308" t="n">
-        <v>1.59</v>
+        <v>1.78</v>
       </c>
       <c r="AQ308" t="n">
-        <v>1.39</v>
+        <v>1.11</v>
       </c>
       <c r="AR308" t="n">
-        <v>1.06</v>
+        <v>1.22</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.37</v>
+        <v>1.11</v>
       </c>
       <c r="AT308" t="n">
-        <v>1.05</v>
+        <v>1.21</v>
       </c>
       <c r="AU308" t="n">
         <v>1.63</v>
       </c>
       <c r="AV308" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AW308" t="n">
-        <v>3.01</v>
+        <v>2.96</v>
       </c>
       <c r="AX308" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AY308" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AZ308" t="n">
-        <v>2.52</v>
+        <v>2.64</v>
       </c>
       <c r="BA308" t="n">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="BB308" t="n">
-        <v>1.7</v>
+        <v>2.17</v>
       </c>
       <c r="BC308" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="BD308" t="n">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="BE308" t="n">
-        <v>4.1</v>
+        <v>5.3</v>
       </c>
       <c r="BF308" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG308" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH308" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI308" t="n">
         <v>4</v>
       </c>
-      <c r="BG308" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH308" t="n">
-        <v>4</v>
-      </c>
-      <c r="BI308" t="n">
-        <v>8</v>
-      </c>
       <c r="BJ308" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BK308" t="n">
         <v>11</v>
@@ -63080,7 +63080,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>5651581</v>
+        <v>5651580</v>
       </c>
       <c r="C309" t="inlineStr">
         <is>
@@ -63100,59 +63100,59 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Argeș</t>
+          <t>UTA Arad</t>
         </is>
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Petrolul 52</t>
+          <t>U Craiova 1948</t>
         </is>
       </c>
       <c r="I309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J309" t="n">
         <v>0</v>
       </c>
       <c r="K309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L309" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M309" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N309" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O309" t="inlineStr">
         <is>
-          <t>['27', '86', '90+3']</t>
+          <t>['47']</t>
         </is>
       </c>
       <c r="P309" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['74']</t>
         </is>
       </c>
       <c r="Q309" t="n">
         <v>6</v>
       </c>
       <c r="R309" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S309" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="T309" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="U309" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="V309" t="n">
-        <v>3.88</v>
+        <v>4.06</v>
       </c>
       <c r="W309" t="n">
         <v>1.49</v>
@@ -63161,25 +63161,25 @@
         <v>2.52</v>
       </c>
       <c r="Y309" t="n">
-        <v>3.28</v>
+        <v>3.1</v>
       </c>
       <c r="Z309" t="n">
-        <v>1.31</v>
+        <v>1.34</v>
       </c>
       <c r="AA309" t="n">
-        <v>8.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB309" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AC309" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="AD309" t="n">
-        <v>3.16</v>
+        <v>3.04</v>
       </c>
       <c r="AE309" t="n">
-        <v>2.78</v>
+        <v>2.94</v>
       </c>
       <c r="AF309" t="n">
         <v>1.08</v>
@@ -63188,94 +63188,94 @@
         <v>7</v>
       </c>
       <c r="AH309" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AI309" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AJ309" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="AK309" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AL309" t="n">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AM309" t="n">
-        <v>1.81</v>
+        <v>1.9</v>
       </c>
       <c r="AN309" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO309" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP309" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AQ309" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR309" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AS309" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT309" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AU309" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV309" t="n">
         <v>1.38</v>
       </c>
-      <c r="AO309" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AP309" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="AQ309" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="AR309" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="AS309" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="AT309" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AU309" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AV309" t="n">
-        <v>1.26</v>
-      </c>
       <c r="AW309" t="n">
-        <v>2.69</v>
+        <v>3.01</v>
       </c>
       <c r="AX309" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="AY309" t="n">
         <v>8</v>
       </c>
       <c r="AZ309" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="BA309" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="BB309" t="n">
-        <v>1.49</v>
+        <v>1.7</v>
       </c>
       <c r="BC309" t="n">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="BD309" t="n">
-        <v>2.37</v>
+        <v>2.95</v>
       </c>
       <c r="BE309" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="BF309" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG309" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH309" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BI309" t="n">
         <v>8</v>
       </c>
       <c r="BJ309" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK309" t="n">
         <v>11</v>
-      </c>
-      <c r="BK309" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="310">
@@ -64087,6 +64087,615 @@
         <v>18</v>
       </c>
       <c r="BK313" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>5651589</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45073.60416666666</v>
+      </c>
+      <c r="F314" t="n">
+        <v>10</v>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>FCSB</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Rapid Bucureşti</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>0</v>
+      </c>
+      <c r="J314" t="n">
+        <v>3</v>
+      </c>
+      <c r="K314" t="n">
+        <v>3</v>
+      </c>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="n">
+        <v>5</v>
+      </c>
+      <c r="N314" t="n">
+        <v>6</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P314" t="inlineStr">
+        <is>
+          <t>['7', '17', '26', '68', '79']</t>
+        </is>
+      </c>
+      <c r="Q314" t="n">
+        <v>4</v>
+      </c>
+      <c r="R314" t="n">
+        <v>5</v>
+      </c>
+      <c r="S314" t="n">
+        <v>9</v>
+      </c>
+      <c r="T314" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U314" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V314" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="W314" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X314" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Y314" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z314" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA314" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB314" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC314" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD314" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE314" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF314" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG314" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AH314" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AI314" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ314" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK314" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL314" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM314" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN314" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO314" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP314" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ314" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AR314" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS314" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AT314" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU314" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AV314" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW314" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX314" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AY314" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ314" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BA314" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB314" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC314" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD314" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE314" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF314" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG314" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH314" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI314" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ314" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK314" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>5651588</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45074.625</v>
+      </c>
+      <c r="F315" t="n">
+        <v>10</v>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>CFR Cluj</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>SSC Farul</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>1</v>
+      </c>
+      <c r="J315" t="n">
+        <v>1</v>
+      </c>
+      <c r="K315" t="n">
+        <v>2</v>
+      </c>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="n">
+        <v>2</v>
+      </c>
+      <c r="N315" t="n">
+        <v>3</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P315" t="inlineStr">
+        <is>
+          <t>['42', '62']</t>
+        </is>
+      </c>
+      <c r="Q315" t="n">
+        <v>6</v>
+      </c>
+      <c r="R315" t="n">
+        <v>2</v>
+      </c>
+      <c r="S315" t="n">
+        <v>8</v>
+      </c>
+      <c r="T315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V315" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W315" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X315" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="Y315" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z315" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA315" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB315" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC315" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AD315" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE315" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF315" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG315" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AH315" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AI315" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AJ315" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK315" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL315" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM315" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN315" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO315" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP315" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ315" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AR315" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS315" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AT315" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU315" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV315" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW315" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AX315" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AY315" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ315" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA315" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB315" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BC315" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BD315" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BE315" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BF315" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG315" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH315" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI315" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ315" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK315" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>5651590</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Romania Liga I</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>45074.625</v>
+      </c>
+      <c r="F316" t="n">
+        <v>10</v>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>CS U Craiova</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Sepsi</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>0</v>
+      </c>
+      <c r="K316" t="n">
+        <v>0</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0</v>
+      </c>
+      <c r="M316" t="n">
+        <v>1</v>
+      </c>
+      <c r="N316" t="n">
+        <v>1</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P316" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q316" t="n">
+        <v>3</v>
+      </c>
+      <c r="R316" t="n">
+        <v>5</v>
+      </c>
+      <c r="S316" t="n">
+        <v>8</v>
+      </c>
+      <c r="T316" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="U316" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="V316" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="W316" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X316" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="Y316" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Z316" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA316" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AB316" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC316" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AD316" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE316" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF316" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG316" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH316" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AI316" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AJ316" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK316" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL316" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AM316" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN316" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO316" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP316" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AQ316" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR316" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS316" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT316" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AU316" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV316" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AW316" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX316" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY316" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ316" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BA316" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BB316" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC316" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD316" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE316" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BF316" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG316" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH316" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI316" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ316" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK316" t="n">
         <v>11</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Romania Liga I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1959" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1965" uniqueCount="380">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -838,6 +838,9 @@
     <t>['58']</t>
   </si>
   <si>
+    <t>['97']</t>
+  </si>
+  <si>
     <t>['73', '87']</t>
   </si>
   <si>
@@ -1512,7 +1515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK317"/>
+  <dimension ref="A1:BK318"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1947,7 +1950,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q3">
         <v>3</v>
@@ -2416,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT5">
         <v>1.15</v>
@@ -2610,7 +2613,7 @@
         <v>2.65</v>
       </c>
       <c r="AT6">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2711,7 +2714,7 @@
         <v>86</v>
       </c>
       <c r="P7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q7">
         <v>7</v>
@@ -2902,7 +2905,7 @@
         <v>87</v>
       </c>
       <c r="P8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3857,7 +3860,7 @@
         <v>90</v>
       </c>
       <c r="P13" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q13">
         <v>5</v>
@@ -4048,7 +4051,7 @@
         <v>91</v>
       </c>
       <c r="P14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q14">
         <v>3</v>
@@ -4430,7 +4433,7 @@
         <v>93</v>
       </c>
       <c r="P16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4812,7 +4815,7 @@
         <v>95</v>
       </c>
       <c r="P18" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q18">
         <v>1</v>
@@ -5385,7 +5388,7 @@
         <v>97</v>
       </c>
       <c r="P21" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q21">
         <v>3</v>
@@ -5472,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>0.5</v>
@@ -5576,7 +5579,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -6048,7 +6051,7 @@
         <v>1.95</v>
       </c>
       <c r="AT24">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>1.56</v>
@@ -6531,7 +6534,7 @@
         <v>101</v>
       </c>
       <c r="P27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q27">
         <v>4</v>
@@ -7104,7 +7107,7 @@
         <v>88</v>
       </c>
       <c r="P30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q30">
         <v>9</v>
@@ -7295,7 +7298,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q31">
         <v>9</v>
@@ -7486,7 +7489,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7868,7 +7871,7 @@
         <v>88</v>
       </c>
       <c r="P34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q34">
         <v>6</v>
@@ -7958,7 +7961,7 @@
         <v>1.21</v>
       </c>
       <c r="AT34">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU34">
         <v>1.66</v>
@@ -8719,7 +8722,7 @@
         <v>2</v>
       </c>
       <c r="AS38">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT38">
         <v>0.89</v>
@@ -8823,7 +8826,7 @@
         <v>109</v>
       </c>
       <c r="P39" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q39">
         <v>12</v>
@@ -9587,7 +9590,7 @@
         <v>88</v>
       </c>
       <c r="P43" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q43">
         <v>12</v>
@@ -10160,7 +10163,7 @@
         <v>110</v>
       </c>
       <c r="P46" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10632,7 +10635,7 @@
         <v>1.37</v>
       </c>
       <c r="AT48">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU48">
         <v>1.45</v>
@@ -10924,7 +10927,7 @@
         <v>112</v>
       </c>
       <c r="P50" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q50">
         <v>7</v>
@@ -11306,7 +11309,7 @@
         <v>114</v>
       </c>
       <c r="P52" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Q52">
         <v>3</v>
@@ -11393,7 +11396,7 @@
         <v>2</v>
       </c>
       <c r="AS52">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT52">
         <v>1.6</v>
@@ -11497,7 +11500,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q53">
         <v>5</v>
@@ -11879,7 +11882,7 @@
         <v>93</v>
       </c>
       <c r="P55" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12452,7 +12455,7 @@
         <v>119</v>
       </c>
       <c r="P58" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q58">
         <v>8</v>
@@ -12730,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="AS59">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT59">
         <v>1.2</v>
@@ -13598,7 +13601,7 @@
         <v>123</v>
       </c>
       <c r="P64" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -13688,7 +13691,7 @@
         <v>1.65</v>
       </c>
       <c r="AT64">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU64">
         <v>1.69</v>
@@ -14553,7 +14556,7 @@
         <v>126</v>
       </c>
       <c r="P69" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="Q69">
         <v>3</v>
@@ -14744,7 +14747,7 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14935,7 +14938,7 @@
         <v>127</v>
       </c>
       <c r="P71" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q71">
         <v>3</v>
@@ -15786,7 +15789,7 @@
         <v>1.33</v>
       </c>
       <c r="AS75">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT75">
         <v>1.35</v>
@@ -16081,7 +16084,7 @@
         <v>131</v>
       </c>
       <c r="P77" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -16362,7 +16365,7 @@
         <v>1.4</v>
       </c>
       <c r="AT78">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU78">
         <v>1.08</v>
@@ -16463,7 +16466,7 @@
         <v>133</v>
       </c>
       <c r="P79" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q79">
         <v>3</v>
@@ -16654,7 +16657,7 @@
         <v>134</v>
       </c>
       <c r="P80" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Q80">
         <v>3</v>
@@ -17418,7 +17421,7 @@
         <v>138</v>
       </c>
       <c r="P84" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17991,7 +17994,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Q87">
         <v>2</v>
@@ -18081,7 +18084,7 @@
         <v>0.63</v>
       </c>
       <c r="AT87">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU87">
         <v>1.34</v>
@@ -18269,7 +18272,7 @@
         <v>1.8</v>
       </c>
       <c r="AS88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT88">
         <v>1.16</v>
@@ -18373,7 +18376,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Q89">
         <v>4</v>
@@ -18755,7 +18758,7 @@
         <v>144</v>
       </c>
       <c r="P91" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q91">
         <v>6</v>
@@ -19901,7 +19904,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q97">
         <v>6</v>
@@ -20092,7 +20095,7 @@
         <v>88</v>
       </c>
       <c r="P98" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q98">
         <v>5</v>
@@ -20283,7 +20286,7 @@
         <v>88</v>
       </c>
       <c r="P99" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="Q99">
         <v>7</v>
@@ -20474,7 +20477,7 @@
         <v>88</v>
       </c>
       <c r="P100" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q100">
         <v>3</v>
@@ -20665,7 +20668,7 @@
         <v>150</v>
       </c>
       <c r="P101" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q101">
         <v>12</v>
@@ -21047,7 +21050,7 @@
         <v>88</v>
       </c>
       <c r="P103" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Q103">
         <v>1</v>
@@ -21328,7 +21331,7 @@
         <v>1.5</v>
       </c>
       <c r="AT104">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU104">
         <v>1.54</v>
@@ -22280,7 +22283,7 @@
         <v>1.71</v>
       </c>
       <c r="AS109">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT109">
         <v>1.2</v>
@@ -22575,7 +22578,7 @@
         <v>88</v>
       </c>
       <c r="P111" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Q111">
         <v>9</v>
@@ -23148,7 +23151,7 @@
         <v>157</v>
       </c>
       <c r="P114" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Q114">
         <v>2</v>
@@ -23339,7 +23342,7 @@
         <v>116</v>
       </c>
       <c r="P115" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23912,7 +23915,7 @@
         <v>159</v>
       </c>
       <c r="P118" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -24103,7 +24106,7 @@
         <v>160</v>
       </c>
       <c r="P119" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="Q119">
         <v>6</v>
@@ -24867,7 +24870,7 @@
         <v>161</v>
       </c>
       <c r="P123" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q123">
         <v>6</v>
@@ -25058,7 +25061,7 @@
         <v>88</v>
       </c>
       <c r="P124" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -25440,7 +25443,7 @@
         <v>88</v>
       </c>
       <c r="P126" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q126">
         <v>4</v>
@@ -25822,7 +25825,7 @@
         <v>88</v>
       </c>
       <c r="P128" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -26013,7 +26016,7 @@
         <v>164</v>
       </c>
       <c r="P129" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q129">
         <v>1</v>
@@ -26586,7 +26589,7 @@
         <v>166</v>
       </c>
       <c r="P132" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -26864,10 +26867,10 @@
         <v>0.75</v>
       </c>
       <c r="AS133">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT133">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU133">
         <v>1.87</v>
@@ -27159,7 +27162,7 @@
         <v>141</v>
       </c>
       <c r="P135" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q135">
         <v>5</v>
@@ -27350,7 +27353,7 @@
         <v>169</v>
       </c>
       <c r="P136" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="Q136">
         <v>4</v>
@@ -27541,7 +27544,7 @@
         <v>157</v>
       </c>
       <c r="P137" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q137">
         <v>5</v>
@@ -27923,7 +27926,7 @@
         <v>88</v>
       </c>
       <c r="P139" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -28114,7 +28117,7 @@
         <v>170</v>
       </c>
       <c r="P140" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q140">
         <v>2</v>
@@ -28687,7 +28690,7 @@
         <v>172</v>
       </c>
       <c r="P143" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="Q143">
         <v>1</v>
@@ -28878,7 +28881,7 @@
         <v>173</v>
       </c>
       <c r="P144" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Q144">
         <v>7</v>
@@ -29069,7 +29072,7 @@
         <v>174</v>
       </c>
       <c r="P145" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q145">
         <v>8</v>
@@ -29642,7 +29645,7 @@
         <v>88</v>
       </c>
       <c r="P148" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -29732,7 +29735,7 @@
         <v>2</v>
       </c>
       <c r="AT148">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU148">
         <v>2</v>
@@ -30111,7 +30114,7 @@
         <v>1.22</v>
       </c>
       <c r="AS150">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT150">
         <v>0.9</v>
@@ -30215,7 +30218,7 @@
         <v>165</v>
       </c>
       <c r="P151" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q151">
         <v>3</v>
@@ -30597,7 +30600,7 @@
         <v>180</v>
       </c>
       <c r="P153" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q153">
         <v>1</v>
@@ -31361,7 +31364,7 @@
         <v>88</v>
       </c>
       <c r="P157" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31743,7 +31746,7 @@
         <v>88</v>
       </c>
       <c r="P159" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q159">
         <v>0</v>
@@ -32316,7 +32319,7 @@
         <v>124</v>
       </c>
       <c r="P162" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q162">
         <v>8</v>
@@ -32507,7 +32510,7 @@
         <v>183</v>
       </c>
       <c r="P163" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q163">
         <v>1</v>
@@ -32889,7 +32892,7 @@
         <v>185</v>
       </c>
       <c r="P165" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q165">
         <v>4</v>
@@ -33170,7 +33173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT166">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU166">
         <v>1.34</v>
@@ -33271,7 +33274,7 @@
         <v>187</v>
       </c>
       <c r="P167" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q167">
         <v>5</v>
@@ -33740,7 +33743,7 @@
         <v>1.4</v>
       </c>
       <c r="AS169">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT169">
         <v>1.5</v>
@@ -34799,7 +34802,7 @@
         <v>88</v>
       </c>
       <c r="P175" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Q175">
         <v>2</v>
@@ -35181,7 +35184,7 @@
         <v>88</v>
       </c>
       <c r="P177" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q177">
         <v>2</v>
@@ -35754,7 +35757,7 @@
         <v>195</v>
       </c>
       <c r="P180" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="Q180">
         <v>7</v>
@@ -36136,7 +36139,7 @@
         <v>88</v>
       </c>
       <c r="P182" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="Q182">
         <v>10</v>
@@ -36327,7 +36330,7 @@
         <v>197</v>
       </c>
       <c r="P183" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="Q183">
         <v>4</v>
@@ -37664,7 +37667,7 @@
         <v>88</v>
       </c>
       <c r="P190" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q190">
         <v>2</v>
@@ -37751,7 +37754,7 @@
         <v>1.73</v>
       </c>
       <c r="AS190">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT190">
         <v>1.75</v>
@@ -38237,7 +38240,7 @@
         <v>205</v>
       </c>
       <c r="P193" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q193">
         <v>9</v>
@@ -38428,7 +38431,7 @@
         <v>153</v>
       </c>
       <c r="P194" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q194">
         <v>5</v>
@@ -38518,7 +38521,7 @@
         <v>2.05</v>
       </c>
       <c r="AT194">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU194">
         <v>1.95</v>
@@ -38619,7 +38622,7 @@
         <v>206</v>
       </c>
       <c r="P195" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="Q195">
         <v>2</v>
@@ -39192,7 +39195,7 @@
         <v>171</v>
       </c>
       <c r="P198" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q198">
         <v>4</v>
@@ -39383,7 +39386,7 @@
         <v>208</v>
       </c>
       <c r="P199" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="Q199">
         <v>6</v>
@@ -39765,7 +39768,7 @@
         <v>210</v>
       </c>
       <c r="P201" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="Q201">
         <v>6</v>
@@ -40616,7 +40619,7 @@
         <v>0.83</v>
       </c>
       <c r="AS205">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT205">
         <v>0.7</v>
@@ -41102,7 +41105,7 @@
         <v>214</v>
       </c>
       <c r="P208" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q208">
         <v>9</v>
@@ -41675,7 +41678,7 @@
         <v>216</v>
       </c>
       <c r="P211" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q211">
         <v>4</v>
@@ -42439,7 +42442,7 @@
         <v>98</v>
       </c>
       <c r="P215" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="Q215">
         <v>3</v>
@@ -42630,7 +42633,7 @@
         <v>219</v>
       </c>
       <c r="P216" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q216">
         <v>3</v>
@@ -43102,7 +43105,7 @@
         <v>1.11</v>
       </c>
       <c r="AT218">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU218">
         <v>1.68</v>
@@ -43394,7 +43397,7 @@
         <v>88</v>
       </c>
       <c r="P220" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q220">
         <v>4</v>
@@ -43776,7 +43779,7 @@
         <v>171</v>
       </c>
       <c r="P222" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q222">
         <v>7</v>
@@ -44054,7 +44057,7 @@
         <v>0.62</v>
       </c>
       <c r="AS223">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT223">
         <v>0.65</v>
@@ -44731,7 +44734,7 @@
         <v>88</v>
       </c>
       <c r="P227" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q227">
         <v>5</v>
@@ -45304,7 +45307,7 @@
         <v>226</v>
       </c>
       <c r="P230" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q230">
         <v>1</v>
@@ -45686,7 +45689,7 @@
         <v>227</v>
       </c>
       <c r="P232" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q232">
         <v>3</v>
@@ -45877,7 +45880,7 @@
         <v>228</v>
       </c>
       <c r="P233" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q233">
         <v>2</v>
@@ -46068,7 +46071,7 @@
         <v>229</v>
       </c>
       <c r="P234" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q234">
         <v>3</v>
@@ -46450,7 +46453,7 @@
         <v>230</v>
       </c>
       <c r="P236" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q236">
         <v>1</v>
@@ -46731,7 +46734,7 @@
         <v>1.37</v>
       </c>
       <c r="AT237">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU237">
         <v>1.38</v>
@@ -47301,7 +47304,7 @@
         <v>0.71</v>
       </c>
       <c r="AS240">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT240">
         <v>0.89</v>
@@ -47495,7 +47498,7 @@
         <v>1.3</v>
       </c>
       <c r="AT241">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU241">
         <v>1.79</v>
@@ -48169,7 +48172,7 @@
         <v>237</v>
       </c>
       <c r="P245" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Q245">
         <v>7</v>
@@ -48551,7 +48554,7 @@
         <v>239</v>
       </c>
       <c r="P247" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Q247">
         <v>2</v>
@@ -48638,7 +48641,7 @@
         <v>1.27</v>
       </c>
       <c r="AS247">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT247">
         <v>1.15</v>
@@ -49124,7 +49127,7 @@
         <v>88</v>
       </c>
       <c r="P250" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q250">
         <v>4</v>
@@ -49697,7 +49700,7 @@
         <v>86</v>
       </c>
       <c r="P253" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Q253">
         <v>2</v>
@@ -49888,7 +49891,7 @@
         <v>88</v>
       </c>
       <c r="P254" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="Q254">
         <v>2</v>
@@ -50461,7 +50464,7 @@
         <v>91</v>
       </c>
       <c r="P257" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q257">
         <v>4</v>
@@ -50843,7 +50846,7 @@
         <v>243</v>
       </c>
       <c r="P259" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="Q259">
         <v>2</v>
@@ -50933,7 +50936,7 @@
         <v>1.65</v>
       </c>
       <c r="AT259">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU259">
         <v>1.88</v>
@@ -51034,7 +51037,7 @@
         <v>244</v>
       </c>
       <c r="P260" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="Q260">
         <v>7</v>
@@ -51225,7 +51228,7 @@
         <v>245</v>
       </c>
       <c r="P261" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q261">
         <v>3</v>
@@ -51607,7 +51610,7 @@
         <v>246</v>
       </c>
       <c r="P263" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Q263">
         <v>4</v>
@@ -51694,7 +51697,7 @@
         <v>1.94</v>
       </c>
       <c r="AS263">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT263">
         <v>1.75</v>
@@ -52180,7 +52183,7 @@
         <v>249</v>
       </c>
       <c r="P266" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="Q266">
         <v>4</v>
@@ -52371,7 +52374,7 @@
         <v>88</v>
       </c>
       <c r="P267" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q267">
         <v>6</v>
@@ -52562,7 +52565,7 @@
         <v>88</v>
       </c>
       <c r="P268" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="Q268">
         <v>4</v>
@@ -52840,7 +52843,7 @@
         <v>1.25</v>
       </c>
       <c r="AS269">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT269">
         <v>1.2</v>
@@ -52944,7 +52947,7 @@
         <v>88</v>
       </c>
       <c r="P270" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="Q270">
         <v>2</v>
@@ -53708,7 +53711,7 @@
         <v>202</v>
       </c>
       <c r="P274" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="Q274">
         <v>5</v>
@@ -54180,7 +54183,7 @@
         <v>1.5</v>
       </c>
       <c r="AT276">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU276">
         <v>1.53</v>
@@ -54472,7 +54475,7 @@
         <v>254</v>
       </c>
       <c r="P278" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Q278">
         <v>2</v>
@@ -55045,7 +55048,7 @@
         <v>255</v>
       </c>
       <c r="P281" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q281">
         <v>4</v>
@@ -55427,7 +55430,7 @@
         <v>88</v>
       </c>
       <c r="P283" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q283">
         <v>0</v>
@@ -55809,7 +55812,7 @@
         <v>236</v>
       </c>
       <c r="P285" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="Q285">
         <v>1</v>
@@ -56000,7 +56003,7 @@
         <v>257</v>
       </c>
       <c r="P286" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="Q286">
         <v>12</v>
@@ -56191,7 +56194,7 @@
         <v>258</v>
       </c>
       <c r="P287" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="Q287">
         <v>1</v>
@@ -56955,7 +56958,7 @@
         <v>105</v>
       </c>
       <c r="P291" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q291">
         <v>8</v>
@@ -57337,7 +57340,7 @@
         <v>260</v>
       </c>
       <c r="P293" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="Q293">
         <v>3</v>
@@ -57615,7 +57618,7 @@
         <v>1.28</v>
       </c>
       <c r="AS294">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT294">
         <v>1.35</v>
@@ -57809,7 +57812,7 @@
         <v>1.37</v>
       </c>
       <c r="AT295">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU295">
         <v>1.36</v>
@@ -57910,7 +57913,7 @@
         <v>261</v>
       </c>
       <c r="P296" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="Q296">
         <v>4</v>
@@ -58101,7 +58104,7 @@
         <v>262</v>
       </c>
       <c r="P297" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q297">
         <v>5</v>
@@ -59056,7 +59059,7 @@
         <v>131</v>
       </c>
       <c r="P302" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="Q302">
         <v>9</v>
@@ -59247,7 +59250,7 @@
         <v>88</v>
       </c>
       <c r="P303" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Q303">
         <v>6</v>
@@ -59820,7 +59823,7 @@
         <v>192</v>
       </c>
       <c r="P306" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Q306">
         <v>5</v>
@@ -60202,7 +60205,7 @@
         <v>268</v>
       </c>
       <c r="P308" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Q308">
         <v>1</v>
@@ -60483,7 +60486,7 @@
         <v>1.37</v>
       </c>
       <c r="AT309">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU309">
         <v>1.63</v>
@@ -60775,7 +60778,7 @@
         <v>127</v>
       </c>
       <c r="P311" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="Q311">
         <v>5</v>
@@ -60966,7 +60969,7 @@
         <v>270</v>
       </c>
       <c r="P312" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="Q312">
         <v>9</v>
@@ -61157,7 +61160,7 @@
         <v>271</v>
       </c>
       <c r="P313" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q313">
         <v>3</v>
@@ -61348,7 +61351,7 @@
         <v>272</v>
       </c>
       <c r="P314" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q314">
         <v>5</v>
@@ -61435,7 +61438,7 @@
         <v>1.31</v>
       </c>
       <c r="AS314">
-        <v>1.43</v>
+        <v>1.39</v>
       </c>
       <c r="AT314">
         <v>1.3</v>
@@ -61539,7 +61542,7 @@
         <v>273</v>
       </c>
       <c r="P315" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Q315">
         <v>4</v>
@@ -61730,7 +61733,7 @@
         <v>245</v>
       </c>
       <c r="P316" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q316">
         <v>6</v>
@@ -61817,7 +61820,7 @@
         <v>1.53</v>
       </c>
       <c r="AS316">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AT316">
         <v>1.6</v>
@@ -62063,6 +62066,197 @@
       </c>
       <c r="BK317">
         <v>17</v>
+      </c>
+    </row>
+    <row r="318" spans="1:63">
+      <c r="A318" s="1">
+        <v>317</v>
+      </c>
+      <c r="B318">
+        <v>6269614</v>
+      </c>
+      <c r="C318" t="s">
+        <v>63</v>
+      </c>
+      <c r="D318" t="s">
+        <v>64</v>
+      </c>
+      <c r="E318" s="2">
+        <v>45078.60416666666</v>
+      </c>
+      <c r="F318">
+        <v>0</v>
+      </c>
+      <c r="G318" t="s">
+        <v>68</v>
+      </c>
+      <c r="H318" t="s">
+        <v>76</v>
+      </c>
+      <c r="I318">
+        <v>0</v>
+      </c>
+      <c r="J318">
+        <v>0</v>
+      </c>
+      <c r="K318">
+        <v>0</v>
+      </c>
+      <c r="L318">
+        <v>1</v>
+      </c>
+      <c r="M318">
+        <v>0</v>
+      </c>
+      <c r="N318">
+        <v>1</v>
+      </c>
+      <c r="O318" t="s">
+        <v>274</v>
+      </c>
+      <c r="P318" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q318">
+        <v>6</v>
+      </c>
+      <c r="R318">
+        <v>6</v>
+      </c>
+      <c r="S318">
+        <v>12</v>
+      </c>
+      <c r="T318">
+        <v>2.45</v>
+      </c>
+      <c r="U318">
+        <v>2</v>
+      </c>
+      <c r="V318">
+        <v>4.8</v>
+      </c>
+      <c r="W318">
+        <v>1.48</v>
+      </c>
+      <c r="X318">
+        <v>2.5</v>
+      </c>
+      <c r="Y318">
+        <v>3.15</v>
+      </c>
+      <c r="Z318">
+        <v>1.32</v>
+      </c>
+      <c r="AA318">
+        <v>7.5</v>
+      </c>
+      <c r="AB318">
+        <v>1.06</v>
+      </c>
+      <c r="AC318">
+        <v>1.83</v>
+      </c>
+      <c r="AD318">
+        <v>3.35</v>
+      </c>
+      <c r="AE318">
+        <v>4.5</v>
+      </c>
+      <c r="AF318">
+        <v>1.08</v>
+      </c>
+      <c r="AG318">
+        <v>8.75</v>
+      </c>
+      <c r="AH318">
+        <v>1.4</v>
+      </c>
+      <c r="AI318">
+        <v>2.9</v>
+      </c>
+      <c r="AJ318">
+        <v>2.28</v>
+      </c>
+      <c r="AK318">
+        <v>1.6</v>
+      </c>
+      <c r="AL318">
+        <v>2</v>
+      </c>
+      <c r="AM318">
+        <v>1.72</v>
+      </c>
+      <c r="AN318">
+        <v>1.2</v>
+      </c>
+      <c r="AO318">
+        <v>1.32</v>
+      </c>
+      <c r="AP318">
+        <v>1.88</v>
+      </c>
+      <c r="AQ318">
+        <v>1.83</v>
+      </c>
+      <c r="AR318">
+        <v>1.43</v>
+      </c>
+      <c r="AS318">
+        <v>1.85</v>
+      </c>
+      <c r="AT318">
+        <v>1.39</v>
+      </c>
+      <c r="AU318">
+        <v>1.87</v>
+      </c>
+      <c r="AV318">
+        <v>1.39</v>
+      </c>
+      <c r="AW318">
+        <v>3.26</v>
+      </c>
+      <c r="AX318">
+        <v>1.74</v>
+      </c>
+      <c r="AY318">
+        <v>7</v>
+      </c>
+      <c r="AZ318">
+        <v>2.6</v>
+      </c>
+      <c r="BA318">
+        <v>1.27</v>
+      </c>
+      <c r="BB318">
+        <v>1.5</v>
+      </c>
+      <c r="BC318">
+        <v>1.93</v>
+      </c>
+      <c r="BD318">
+        <v>2.45</v>
+      </c>
+      <c r="BE318">
+        <v>3.4</v>
+      </c>
+      <c r="BF318">
+        <v>8</v>
+      </c>
+      <c r="BG318">
+        <v>4</v>
+      </c>
+      <c r="BH318">
+        <v>20</v>
+      </c>
+      <c r="BI318">
+        <v>11</v>
+      </c>
+      <c r="BJ318">
+        <v>28</v>
+      </c>
+      <c r="BK318">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
